--- a/personal space(program)/accountBook2024.xlsx
+++ b/personal space(program)/accountBook2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitcode\zhubiye\personal space(program)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA4C97C-434D-42DE-A9A6-303D2C51348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A746157-7E31-4337-AED2-853BCBDBE004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024.01" sheetId="1" r:id="rId1"/>
@@ -178,60 +178,8 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="156">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+  <dxfs count="155">
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -284,6 +232,57 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -341,16 +340,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -471,6 +461,64 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -523,61 +571,67 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -634,61 +688,67 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -745,77 +805,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -838,25 +828,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}" name="表2" displayName="表2" ref="A1:N34" totalsRowCount="1" headerRowDxfId="155" dataDxfId="154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}" name="表2" displayName="表2" ref="A1:N34" totalsRowCount="1" headerRowDxfId="154" dataDxfId="153">
   <autoFilter ref="A1:N33" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{59D84569-A8BB-46A5-9CBC-5EF68588EE35}" name="日期" dataDxfId="105" totalsRowDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{2C662677-3D8C-4D8B-AE1F-E2248B7ABFF7}" name="吃饭" dataDxfId="104" totalsRowDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{AE70D7D4-9857-40D5-8BEB-34BF0C4CCA7A}" name="馋" dataDxfId="103" totalsRowDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{F3975E93-63B6-478C-B0F2-56460FBF1A23}" name="小余" dataDxfId="102" totalsRowDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{94F8752A-FBB0-4CE8-9D51-6324D8BBC87E}" name="生活" dataDxfId="101" totalsRowDxfId="87"/>
-    <tableColumn id="15" xr3:uid="{30FDD512-0876-4E61-969E-6DA35E286B2C}" name="交通" dataDxfId="100" totalsRowDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{5C513997-5C16-4839-95D1-22245123DE2F}" name="爱好" dataDxfId="99" totalsRowDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{9E859D1E-EC02-49A9-BD03-97B27BCE859E}" name="房租" dataDxfId="98" totalsRowDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{EB58BFC7-02DA-46D2-AAFC-A0BA1323BE9D}" name="水电话费" dataDxfId="97" totalsRowDxfId="83"/>
-    <tableColumn id="9" xr3:uid="{A2A17D77-95A1-459A-90A9-931CF7EEAF21}" name="懒" dataDxfId="96" totalsRowDxfId="82"/>
-    <tableColumn id="11" xr3:uid="{FFABE2C4-74EE-4656-838D-CB10D6D9D4E8}" name="玩" dataDxfId="95" totalsRowDxfId="81"/>
-    <tableColumn id="10" xr3:uid="{570141E9-E92B-4C59-AD38-CCA1569BD90C}" name="学习阅读" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="80">
+    <tableColumn id="1" xr3:uid="{59D84569-A8BB-46A5-9CBC-5EF68588EE35}" name="日期" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="2" xr3:uid="{2C662677-3D8C-4D8B-AE1F-E2248B7ABFF7}" name="吃饭" dataDxfId="150" totalsRowDxfId="149"/>
+    <tableColumn id="3" xr3:uid="{AE70D7D4-9857-40D5-8BEB-34BF0C4CCA7A}" name="馋" dataDxfId="148" totalsRowDxfId="147"/>
+    <tableColumn id="4" xr3:uid="{F3975E93-63B6-478C-B0F2-56460FBF1A23}" name="小余" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="5" xr3:uid="{94F8752A-FBB0-4CE8-9D51-6324D8BBC87E}" name="生活" dataDxfId="144" totalsRowDxfId="143"/>
+    <tableColumn id="15" xr3:uid="{30FDD512-0876-4E61-969E-6DA35E286B2C}" name="交通" dataDxfId="142" totalsRowDxfId="141"/>
+    <tableColumn id="6" xr3:uid="{5C513997-5C16-4839-95D1-22245123DE2F}" name="爱好" dataDxfId="140" totalsRowDxfId="139"/>
+    <tableColumn id="7" xr3:uid="{9E859D1E-EC02-49A9-BD03-97B27BCE859E}" name="房租" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="8" xr3:uid="{EB58BFC7-02DA-46D2-AAFC-A0BA1323BE9D}" name="水电话费" dataDxfId="136" totalsRowDxfId="135"/>
+    <tableColumn id="9" xr3:uid="{A2A17D77-95A1-459A-90A9-931CF7EEAF21}" name="懒" dataDxfId="134" totalsRowDxfId="133"/>
+    <tableColumn id="11" xr3:uid="{FFABE2C4-74EE-4656-838D-CB10D6D9D4E8}" name="玩" dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="10" xr3:uid="{570141E9-E92B-4C59-AD38-CCA1569BD90C}" name="学习阅读" totalsRowFunction="custom" dataDxfId="130" totalsRowDxfId="129">
       <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{39BD7172-0D5C-49D9-87F6-B35B3F5628DB}" name="合计" dataDxfId="93" totalsRowDxfId="79"/>
-    <tableColumn id="12" xr3:uid="{D46BD491-9DFD-4738-8C08-9D38C5B47D89}" name="合计（）" dataDxfId="92" totalsRowDxfId="78">
+    <tableColumn id="13" xr3:uid="{39BD7172-0D5C-49D9-87F6-B35B3F5628DB}" name="合计" dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="12" xr3:uid="{D46BD491-9DFD-4738-8C08-9D38C5B47D89}" name="合计（）" dataDxfId="126" totalsRowDxfId="125">
       <calculatedColumnFormula>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -865,25 +855,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9175EC8C-CC53-4A27-BB75-0A6CACDDDE0C}" name="表2_2" displayName="表2_2" ref="A1:N32" totalsRowCount="1" headerRowDxfId="153" dataDxfId="152">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9175EC8C-CC53-4A27-BB75-0A6CACDDDE0C}" name="表2_2" displayName="表2_2" ref="A1:N32" totalsRowCount="1" headerRowDxfId="124" dataDxfId="123">
   <autoFilter ref="A1:N31" xr:uid="{9175EC8C-CC53-4A27-BB75-0A6CACDDDE0C}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{110B2F1A-B6BF-44BF-ACB1-F19B6A141F34}" name="日期" dataDxfId="147" totalsRowDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{BC728776-957B-44F1-B2FE-57D5D4CA45FA}" name="吃饭" dataDxfId="146" totalsRowDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{8F707454-87C8-4D1C-B00D-DAA5509EC371}" name="馋" dataDxfId="145" totalsRowDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{893D28D4-9761-43F7-81A7-873346A1ADE0}" name="小余" dataDxfId="144" totalsRowDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{EF4D85C9-0B5C-426B-825B-4BB32A9AC4FF}" name="生活" dataDxfId="143" totalsRowDxfId="73"/>
-    <tableColumn id="15" xr3:uid="{3DE63BAF-E6B5-4B67-9322-A7FF990070F8}" name="交通" dataDxfId="142" totalsRowDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{9FDB285E-FB04-4A56-A0DF-6982D921EEA6}" name="爱好" dataDxfId="141" totalsRowDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{1C6A890D-937B-45C4-A7E1-1DDAD63948C1}" name="房租" dataDxfId="140" totalsRowDxfId="70"/>
-    <tableColumn id="8" xr3:uid="{6DA6BE0D-CF7D-4C12-B5D1-CEC533B474AF}" name="水电话费" dataDxfId="139" totalsRowDxfId="69"/>
-    <tableColumn id="9" xr3:uid="{C996CD05-35A0-4BD7-93D5-5E73DF849EA1}" name="懒" dataDxfId="138" totalsRowDxfId="68"/>
-    <tableColumn id="11" xr3:uid="{B604065C-64D4-478F-A033-C45E23344456}" name="玩" dataDxfId="137" totalsRowDxfId="67"/>
-    <tableColumn id="10" xr3:uid="{4C0DD5C4-8F9D-484C-8109-61CDBB344EB6}" name="学习阅读" totalsRowFunction="custom" dataDxfId="136" totalsRowDxfId="66">
+    <tableColumn id="1" xr3:uid="{110B2F1A-B6BF-44BF-ACB1-F19B6A141F34}" name="日期" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{BC728776-957B-44F1-B2FE-57D5D4CA45FA}" name="吃饭" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{8F707454-87C8-4D1C-B00D-DAA5509EC371}" name="馋" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="4" xr3:uid="{893D28D4-9761-43F7-81A7-873346A1ADE0}" name="小余" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="5" xr3:uid="{EF4D85C9-0B5C-426B-825B-4BB32A9AC4FF}" name="生活" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="15" xr3:uid="{3DE63BAF-E6B5-4B67-9322-A7FF990070F8}" name="交通" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="6" xr3:uid="{9FDB285E-FB04-4A56-A0DF-6982D921EEA6}" name="爱好" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="7" xr3:uid="{1C6A890D-937B-45C4-A7E1-1DDAD63948C1}" name="房租" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="8" xr3:uid="{6DA6BE0D-CF7D-4C12-B5D1-CEC533B474AF}" name="水电话费" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="9" xr3:uid="{C996CD05-35A0-4BD7-93D5-5E73DF849EA1}" name="懒" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="11" xr3:uid="{B604065C-64D4-478F-A033-C45E23344456}" name="玩" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="10" xr3:uid="{4C0DD5C4-8F9D-484C-8109-61CDBB344EB6}" name="学习阅读" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99">
       <totalsRowFormula>SUM(B31:L31)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B730F2EE-713B-4A97-9E17-3623399D9E5B}" name="合计" dataDxfId="135" totalsRowDxfId="65"/>
-    <tableColumn id="12" xr3:uid="{2F93C786-9B3B-42EA-B843-75A20D43DF83}" name="合计（）" dataDxfId="134" totalsRowDxfId="64">
+    <tableColumn id="13" xr3:uid="{B730F2EE-713B-4A97-9E17-3623399D9E5B}" name="合计" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="12" xr3:uid="{2F93C786-9B3B-42EA-B843-75A20D43DF83}" name="合计（）" dataDxfId="96" totalsRowDxfId="95">
       <calculatedColumnFormula>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -892,25 +882,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F2CFF680-2EC1-4599-BEE3-C1EC2946A723}" name="表2_4" displayName="表2_4" ref="A1:N34" totalsRowCount="1" headerRowDxfId="151" dataDxfId="150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F2CFF680-2EC1-4599-BEE3-C1EC2946A723}" name="表2_4" displayName="表2_4" ref="A1:N34" totalsRowCount="1" headerRowDxfId="94" dataDxfId="93">
   <autoFilter ref="A1:N33" xr:uid="{F2CFF680-2EC1-4599-BEE3-C1EC2946A723}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{B95FE3FC-E3C0-474F-A7EE-6ADF275C4FE5}" name="日期" dataDxfId="133" totalsRowDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{8B36C720-4E72-4E31-AECC-7DC7F136FF96}" name="吃饭" dataDxfId="132" totalsRowDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{2DF08235-AFD5-4D27-8CC2-56AAE7726D58}" name="馋" dataDxfId="131" totalsRowDxfId="117"/>
-    <tableColumn id="4" xr3:uid="{701238C8-2D13-4DF6-90DF-82C04F4EBDFC}" name="小余" dataDxfId="130" totalsRowDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{65075409-AA0C-4A63-B36C-8BAF1B88F331}" name="生活" dataDxfId="129" totalsRowDxfId="115"/>
-    <tableColumn id="15" xr3:uid="{488F3EB4-D5B5-4A6F-B8F5-BB183F879D60}" name="交通" dataDxfId="128" totalsRowDxfId="114"/>
-    <tableColumn id="6" xr3:uid="{FFADE1D3-63B3-4E54-A5AF-B1784A8D293B}" name="爱好" dataDxfId="127" totalsRowDxfId="113"/>
-    <tableColumn id="7" xr3:uid="{DA4A40FF-486B-4A95-A2F9-06CE392D8041}" name="房租" dataDxfId="126" totalsRowDxfId="112"/>
-    <tableColumn id="8" xr3:uid="{FAE36F53-4A9E-40A8-B772-826119FD7E66}" name="水电话费" dataDxfId="125" totalsRowDxfId="111"/>
-    <tableColumn id="9" xr3:uid="{8F64A473-D9DA-4B9E-81EC-3DB69653CCE5}" name="懒" dataDxfId="124" totalsRowDxfId="110"/>
-    <tableColumn id="11" xr3:uid="{3754F808-A1ED-4C65-8182-083C24468AF4}" name="玩" dataDxfId="123" totalsRowDxfId="109"/>
-    <tableColumn id="10" xr3:uid="{9E66DB33-7058-4D81-A11E-A34BBC7C4742}" name="学习阅读" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="108">
+    <tableColumn id="1" xr3:uid="{B95FE3FC-E3C0-474F-A7EE-6ADF275C4FE5}" name="日期" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{8B36C720-4E72-4E31-AECC-7DC7F136FF96}" name="吃饭" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{2DF08235-AFD5-4D27-8CC2-56AAE7726D58}" name="馋" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{701238C8-2D13-4DF6-90DF-82C04F4EBDFC}" name="小余" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{65075409-AA0C-4A63-B36C-8BAF1B88F331}" name="生活" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="15" xr3:uid="{488F3EB4-D5B5-4A6F-B8F5-BB183F879D60}" name="交通" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="6" xr3:uid="{FFADE1D3-63B3-4E54-A5AF-B1784A8D293B}" name="爱好" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{DA4A40FF-486B-4A95-A2F9-06CE392D8041}" name="房租" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="8" xr3:uid="{FAE36F53-4A9E-40A8-B772-826119FD7E66}" name="水电话费" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="9" xr3:uid="{8F64A473-D9DA-4B9E-81EC-3DB69653CCE5}" name="懒" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="11" xr3:uid="{3754F808-A1ED-4C65-8182-083C24468AF4}" name="玩" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="10" xr3:uid="{9E66DB33-7058-4D81-A11E-A34BBC7C4742}" name="学习阅读" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="69">
       <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{093440BA-FE3B-4C1B-850D-9B426E707884}" name="合计" dataDxfId="121" totalsRowDxfId="107"/>
-    <tableColumn id="12" xr3:uid="{6EC3C015-E2D7-4E98-90A6-57C3BAA36B35}" name="合计（）" dataDxfId="120" totalsRowDxfId="106">
+    <tableColumn id="13" xr3:uid="{093440BA-FE3B-4C1B-850D-9B426E707884}" name="合计" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="12" xr3:uid="{6EC3C015-E2D7-4E98-90A6-57C3BAA36B35}" name="合计（）" dataDxfId="66" totalsRowDxfId="65">
       <calculatedColumnFormula>表2_4[[#This Row],[合计]]-表2_4[[#This Row],[房租]]-表2_4[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -919,25 +909,25 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4783F111-60E6-47B5-9AB1-437C496BFA64}" name="表2_45" displayName="表2_45" ref="A1:N33" totalsRowCount="1" headerRowDxfId="149" dataDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4783F111-60E6-47B5-9AB1-437C496BFA64}" name="表2_45" displayName="表2_45" ref="A1:N33" totalsRowCount="1" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A1:N32" xr:uid="{4783F111-60E6-47B5-9AB1-437C496BFA64}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{253FD735-8925-47DC-9319-8F6CC7BEA25A}" name="日期" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{1D5E92BE-2B1C-47A3-815B-4AB06CC80A74}" name="吃饭" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{B6866B7B-720A-4511-8ABA-7AF6DB07BC3F}" name="馋" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{7C40FE36-49F5-4328-8C59-AAAE298CF610}" name="小余" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{3062D561-3042-41EA-9D56-F0D571200AE0}" name="生活" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{65B8ED49-88EA-4649-B1AD-483DD62949AF}" name="交通" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{32C3B1C3-0B70-4E65-9D77-F567F6F71141}" name="爱好" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{9E8DEC50-7226-406D-A9B7-0F78077CEE73}" name="房租" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{1B69408A-A9B1-4268-ADAF-B1F88C81A8C6}" name="水电话费" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{175CD47C-ED6F-4F5A-89EB-025613A11EB3}" name="懒" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{78C5E361-0822-44EE-9BD8-86A4AE5F34F7}" name="玩" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{6230A14F-6BCA-49F1-8069-2B889BC1C291}" name="学习阅读" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="1" xr3:uid="{253FD735-8925-47DC-9319-8F6CC7BEA25A}" name="日期" dataDxfId="46" totalsRowDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{1D5E92BE-2B1C-47A3-815B-4AB06CC80A74}" name="吃饭" dataDxfId="45" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{B6866B7B-720A-4511-8ABA-7AF6DB07BC3F}" name="馋" dataDxfId="44" totalsRowDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{7C40FE36-49F5-4328-8C59-AAAE298CF610}" name="小余" dataDxfId="43" totalsRowDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{3062D561-3042-41EA-9D56-F0D571200AE0}" name="生活" dataDxfId="42" totalsRowDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{65B8ED49-88EA-4649-B1AD-483DD62949AF}" name="交通" dataDxfId="41" totalsRowDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{32C3B1C3-0B70-4E65-9D77-F567F6F71141}" name="爱好" dataDxfId="40" totalsRowDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{9E8DEC50-7226-406D-A9B7-0F78077CEE73}" name="房租" dataDxfId="39" totalsRowDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{1B69408A-A9B1-4268-ADAF-B1F88C81A8C6}" name="水电话费" dataDxfId="38" totalsRowDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{175CD47C-ED6F-4F5A-89EB-025613A11EB3}" name="懒" dataDxfId="37" totalsRowDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{78C5E361-0822-44EE-9BD8-86A4AE5F34F7}" name="玩" dataDxfId="36" totalsRowDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{6230A14F-6BCA-49F1-8069-2B889BC1C291}" name="学习阅读" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="16">
       <totalsRowFormula>SUM(B32:L32)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{324358EF-836E-42BF-B637-20025D20A84F}" name="合计" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{D3173285-B7ED-4BDD-848D-690D731AC05D}" name="合计（）" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="13" xr3:uid="{324358EF-836E-42BF-B637-20025D20A84F}" name="合计" dataDxfId="34" totalsRowDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{D3173285-B7ED-4BDD-848D-690D731AC05D}" name="合计（）" dataDxfId="33" totalsRowDxfId="14">
       <calculatedColumnFormula>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -946,25 +936,25 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6C7D2DC4-9681-4990-8C7D-41F70811D8BA}" name="表2_47" displayName="表2_47" ref="A1:N34" totalsRowCount="1" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6C7D2DC4-9681-4990-8C7D-41F70811D8BA}" name="表2_47" displayName="表2_47" ref="A1:N34" totalsRowCount="1" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A1:N33" xr:uid="{6C7D2DC4-9681-4990-8C7D-41F70811D8BA}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{74F0505F-93D3-4D6F-93D1-A9B1F8EE9B89}" name="日期" dataDxfId="61" totalsRowDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{F517E882-8B97-462D-9008-25C6535C1394}" name="吃饭" dataDxfId="60" totalsRowDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{BCD63472-400C-439E-A565-4F108DE430C4}" name="馋" dataDxfId="59" totalsRowDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{FA3A6E54-D9ED-4E96-B1BD-699B0C9BDF29}" name="小余" dataDxfId="58" totalsRowDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{B943C426-1FD4-49B1-B38D-16EF62561B05}" name="生活" dataDxfId="57" totalsRowDxfId="43"/>
-    <tableColumn id="15" xr3:uid="{71F732A5-6C4D-43A1-9263-10BED9F15A63}" name="交通" dataDxfId="56" totalsRowDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{C517105C-C5D6-4615-8006-1942D76F1EFA}" name="爱好" dataDxfId="55" totalsRowDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{2026C728-11B7-44C1-B7B7-5898A06406BB}" name="房租" dataDxfId="54" totalsRowDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{010BC9D0-B40F-4BA0-B588-4485C9ABC790}" name="水电话费" dataDxfId="53" totalsRowDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{C3AEE5AC-F787-49CB-8E34-FA72F902203B}" name="懒" dataDxfId="52" totalsRowDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{692BC553-3866-4274-89D9-938123E93B86}" name="玩" dataDxfId="51" totalsRowDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{1A470B39-AF0F-4558-8A01-1B3941FE09D3}" name="学习阅读" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="36">
+    <tableColumn id="1" xr3:uid="{74F0505F-93D3-4D6F-93D1-A9B1F8EE9B89}" name="日期" dataDxfId="60" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{F517E882-8B97-462D-9008-25C6535C1394}" name="吃饭" dataDxfId="59" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{BCD63472-400C-439E-A565-4F108DE430C4}" name="馋" dataDxfId="58" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{FA3A6E54-D9ED-4E96-B1BD-699B0C9BDF29}" name="小余" dataDxfId="57" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B943C426-1FD4-49B1-B38D-16EF62561B05}" name="生活" dataDxfId="56" totalsRowDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{71F732A5-6C4D-43A1-9263-10BED9F15A63}" name="交通" dataDxfId="55" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{C517105C-C5D6-4615-8006-1942D76F1EFA}" name="爱好" dataDxfId="54" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{2026C728-11B7-44C1-B7B7-5898A06406BB}" name="房租" dataDxfId="53" totalsRowDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{010BC9D0-B40F-4BA0-B588-4485C9ABC790}" name="水电话费" dataDxfId="52" totalsRowDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{C3AEE5AC-F787-49CB-8E34-FA72F902203B}" name="懒" dataDxfId="51" totalsRowDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{692BC553-3866-4274-89D9-938123E93B86}" name="玩" dataDxfId="50" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{1A470B39-AF0F-4558-8A01-1B3941FE09D3}" name="学习阅读" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="2">
       <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{45FDCD9A-7348-4954-A4C6-0876FD81425D}" name="合计" dataDxfId="49" totalsRowDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{EFE54995-75C1-458E-847A-8DCFA0927C89}" name="合计（）" dataDxfId="48" totalsRowDxfId="34">
+    <tableColumn id="13" xr3:uid="{45FDCD9A-7348-4954-A4C6-0876FD81425D}" name="合计" dataDxfId="48" totalsRowDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{EFE54995-75C1-458E-847A-8DCFA0927C89}" name="合计（）" dataDxfId="47" totalsRowDxfId="0">
       <calculatedColumnFormula>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2335,7 +2325,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3140,51 +3130,51 @@
         <v>11</v>
       </c>
       <c r="B31" s="3">
-        <f>SUM(B2:B30)</f>
+        <f t="shared" ref="B31:M31" si="1">SUM(B2:B30)</f>
         <v>170</v>
       </c>
       <c r="C31" s="3">
-        <f>SUM(C2:C30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D31" s="3">
-        <f>SUM(D2:D30)</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="E31" s="3">
-        <f>SUM(E2:E30)</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="F31" s="3">
-        <f>SUM(F2:F30)</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G31" s="3">
-        <f>SUM(G2:G30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H31" s="3">
-        <f>SUM(H2:H30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="3">
-        <f>SUM(I2:I30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31" s="3">
-        <f>SUM(J2:J30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31" s="3">
-        <f>SUM(K2:K30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L31" s="3">
-        <f>SUM(L2:L30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M31" s="5">
-        <f>SUM(M2:M30)</f>
+        <f t="shared" si="1"/>
         <v>1320</v>
       </c>
       <c r="N31" s="3">
@@ -3212,7 +3202,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N30">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4269,7 +4259,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4285,8 +4275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBE693D-6DD3-4F12-A4CB-6FD7B54F185C}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4359,14 +4349,18 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I2" s="3">
+        <v>100</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>124</v>
+        <v>268.19354838709677</v>
       </c>
       <c r="N2" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -4388,14 +4382,16 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>124</v>
+        <v>168.19354838709677</v>
       </c>
       <c r="N3" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -4417,7 +4413,9 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -4426,7 +4424,7 @@
       </c>
       <c r="M4" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>674</v>
+        <v>718.19354838709683</v>
       </c>
       <c r="N4" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -4448,14 +4446,16 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>124</v>
+        <v>168.19354838709677</v>
       </c>
       <c r="N5" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -4477,14 +4477,16 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>124</v>
+        <v>168.19354838709677</v>
       </c>
       <c r="N6" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -4508,14 +4510,16 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>624</v>
+        <v>668.19354838709683</v>
       </c>
       <c r="N7" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -4537,14 +4541,16 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>124</v>
+        <v>168.19354838709677</v>
       </c>
       <c r="N8" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -4566,14 +4572,16 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>124</v>
+        <v>168.19354838709677</v>
       </c>
       <c r="N9" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -4595,14 +4603,16 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>124</v>
+        <v>168.19354838709677</v>
       </c>
       <c r="N10" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -4624,14 +4634,16 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>124</v>
+        <v>168.19354838709677</v>
       </c>
       <c r="N11" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -4653,14 +4665,16 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>124</v>
+        <v>168.19354838709677</v>
       </c>
       <c r="N12" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -4682,14 +4696,16 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>124</v>
+        <v>168.19354838709677</v>
       </c>
       <c r="N13" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -4711,14 +4727,16 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>124</v>
+        <v>168.19354838709677</v>
       </c>
       <c r="N14" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -4741,14 +4759,16 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>89.6</v>
+        <v>133.79354838709676</v>
       </c>
       <c r="N15" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -4771,8 +4791,12 @@
         <f>15</f>
         <v>15</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I16" s="3">
+        <v>90</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3">
         <v>2</v>
@@ -4780,7 +4804,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>52.5</v>
+        <v>186.69354838709677</v>
       </c>
       <c r="N16" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -4792,8 +4816,8 @@
         <v>45398</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f>170/5+7</f>
+        <v>41</v>
       </c>
       <c r="C17" s="3">
         <f>5.5+4</f>
@@ -4805,18 +4829,20 @@
       <c r="G17" s="3">
         <v>35</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>78.5</v>
+        <v>129.69354838709677</v>
       </c>
       <c r="N17" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
-        <v>78.5</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -4834,18 +4860,20 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>55</v>
+        <v>99.193548387096769</v>
       </c>
       <c r="N18" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
-        <v>55</v>
+        <v>54.999999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -4865,14 +4893,16 @@
         <v>16</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>78.199999999999989</v>
+        <v>122.39354838709676</v>
       </c>
       <c r="N19" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -4896,7 +4926,9 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3">
@@ -4905,7 +4937,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>116</v>
+        <v>160.19354838709677</v>
       </c>
       <c r="N20" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -4925,18 +4957,20 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>34</v>
+        <v>78.193548387096769</v>
       </c>
       <c r="N21" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
-        <v>34</v>
+        <v>33.999999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -4952,18 +4986,20 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>71.100000000000009</v>
+        <v>115.29354838709679</v>
       </c>
       <c r="N22" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
-        <v>71.100000000000009</v>
+        <v>71.100000000000023</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -4981,18 +5017,20 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44</v>
+        <v>88.193548387096769</v>
       </c>
       <c r="N23" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
-        <v>44</v>
+        <v>43.999999999999993</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -5010,14 +5048,16 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>69.400000000000006</v>
+        <v>113.59354838709677</v>
       </c>
       <c r="N24" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -5041,14 +5081,16 @@
       <c r="G25" s="3">
         <v>10</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>71.5</v>
+        <v>115.69354838709677</v>
       </c>
       <c r="N25" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
@@ -5068,18 +5110,20 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>51.2</v>
+        <v>95.393548387096786</v>
       </c>
       <c r="N26" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
-        <v>51.2</v>
+        <v>51.20000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -5087,26 +5131,34 @@
         <v>45408</v>
       </c>
       <c r="B27" s="3">
-        <f>170/5</f>
-        <v>34</v>
+        <f>170/5+4.5</f>
+        <v>38.5</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3">
+        <v>300</v>
+      </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="F27" s="3">
+        <v>16</v>
+      </c>
+      <c r="G27" s="3">
+        <v>13.32</v>
+      </c>
+      <c r="H27" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>34</v>
+        <v>412.01354838709676</v>
       </c>
       <c r="N27" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
-        <v>34</v>
+        <v>367.82</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -5114,26 +5166,30 @@
         <v>45409</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f>170/5+29.4+90</f>
+        <v>153.4</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="G28" s="3">
+        <v>99</v>
+      </c>
+      <c r="H28" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>34</v>
+        <v>296.5935483870968</v>
       </c>
       <c r="N28" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
-        <v>34</v>
+        <v>252.40000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -5141,8 +5197,8 @@
         <v>45410</v>
       </c>
       <c r="B29" s="3">
-        <f>170/5+300</f>
-        <v>334</v>
+        <f>170/5+300+10</f>
+        <v>344</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5150,19 +5206,24 @@
       <c r="F29" s="3">
         <v>10</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="G29" s="3">
+        <f>17.73+23.97</f>
+        <v>41.7</v>
+      </c>
+      <c r="H29" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>344</v>
+        <v>439.89354838709676</v>
       </c>
       <c r="N29" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
-        <v>344</v>
+        <v>395.7</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -5170,26 +5231,30 @@
         <v>45411</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="0"/>
+        <f>170/5</f>
         <v>34</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="G30" s="3">
+        <v>60</v>
+      </c>
+      <c r="H30" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>34</v>
+        <v>138.19354838709677</v>
       </c>
       <c r="N30" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
-        <v>34</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5207,18 +5272,20 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3">
+        <v>44.193548387096776</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3">
         <f>SUM(表2_45[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>40</v>
+        <v>84.193548387096769</v>
       </c>
       <c r="N31" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
-        <v>40</v>
+        <v>39.999999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5226,56 +5293,56 @@
         <v>11</v>
       </c>
       <c r="B32" s="3">
-        <f>SUM(B2:B31)</f>
-        <v>1494.3700000000001</v>
+        <f t="shared" ref="B32:M32" si="1">SUM(B2:B31)</f>
+        <v>1635.2700000000002</v>
       </c>
       <c r="C32" s="3">
-        <f>SUM(C2:C31)</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="D32" s="3">
-        <f>SUM(D2:D31)</f>
-        <v>1170</v>
+        <f t="shared" si="1"/>
+        <v>1470</v>
       </c>
       <c r="E32" s="3">
-        <f>SUM(E2:E31)</f>
+        <f t="shared" si="1"/>
         <v>568.63</v>
       </c>
       <c r="F32" s="3">
-        <f>SUM(F2:F31)</f>
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="G32" s="3">
-        <f>SUM(G2:G31)</f>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>274.02</v>
       </c>
       <c r="H32" s="3">
         <f>SUM(H2:H31)</f>
-        <v>0</v>
+        <v>1325.8064516129041</v>
       </c>
       <c r="I32" s="3">
-        <f>SUM(I2:I31)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>190</v>
       </c>
       <c r="J32" s="3">
-        <f>SUM(J2:J31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <f>SUM(K2:K31)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L32" s="3">
-        <f>SUM(L2:L31)</f>
+        <f t="shared" si="1"/>
         <v>550</v>
       </c>
       <c r="M32" s="5">
-        <f>SUM(M2:M31)</f>
-        <v>3958.9999999999995</v>
+        <f t="shared" si="1"/>
+        <v>6145.7264516129017</v>
       </c>
       <c r="N32" s="3">
         <f>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</f>
-        <v>3958.9999999999995</v>
+        <v>4629.9199999999973</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
@@ -5291,14 +5358,14 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3">
         <f>SUM(B32:L32)</f>
-        <v>3959</v>
+        <v>6145.7264516129044</v>
       </c>
       <c r="M33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5314,8 +5381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F065C17B-91FB-4612-8F80-EF1284AE3528}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D12:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5414,7 +5481,9 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
       <c r="H3" s="3">
         <v>44.193548387096776</v>
       </c>
@@ -5424,11 +5493,11 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>72.603548387096779</v>
+        <v>77.603548387096765</v>
       </c>
       <c r="N3" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>28.410000000000004</v>
+        <v>33.409999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -5441,7 +5510,9 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>16</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3">
         <v>44.193548387096776</v>
@@ -5452,11 +5523,11 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>49.193548387096776</v>
+        <v>65.193548387096769</v>
       </c>
       <c r="N4" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>5</v>
+        <v>20.999999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -5468,7 +5539,9 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>162.31</v>
+      </c>
       <c r="H5" s="3">
         <v>44.193548387096776</v>
       </c>
@@ -5478,11 +5551,11 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>206.50354838709677</v>
       </c>
       <c r="N5" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>162.31</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -5493,8 +5566,13 @@
         <v>28.9</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="3">
+        <f>(10.78+11.3+14.89+8.8+6.4+5.82)/2</f>
+        <v>28.994999999999997</v>
+      </c>
+      <c r="E6" s="3">
+        <v>15</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3">
@@ -5506,23 +5584,32 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>73.093548387096774</v>
+        <v>117.08854838709678</v>
       </c>
       <c r="N6" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>28.9</v>
+        <v>72.89500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45418</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.5</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <f>(10.78+11.3+14.89+8.8+6.4+5.82)/2</f>
+        <v>28.994999999999997</v>
+      </c>
       <c r="H7" s="3">
         <v>44.193548387096776</v>
       </c>
@@ -5532,11 +5619,11 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>90.688548387096773</v>
       </c>
       <c r="N7" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>46.494999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -5545,10 +5632,14 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>35</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>36</v>
+      </c>
       <c r="H8" s="3">
         <v>44.193548387096776</v>
       </c>
@@ -5558,23 +5649,29 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>115.19354838709677</v>
       </c>
       <c r="N8" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45420</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
       <c r="H9" s="3">
         <v>44.193548387096776</v>
       </c>
@@ -5584,18 +5681,21 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>71.193548387096769</v>
       </c>
       <c r="N9" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>26.999999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45421</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <f>31+15.14</f>
+        <v>46.14</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -5610,11 +5710,11 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>90.333548387096783</v>
       </c>
       <c r="N10" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>46.140000000000008</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -5630,13 +5730,15 @@
       <c r="H11" s="3">
         <v>44.193548387096776</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>63</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>107.19354838709677</v>
       </c>
       <c r="N11" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
@@ -5650,7 +5752,9 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>66</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
@@ -5662,22 +5766,32 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>110.19354838709677</v>
       </c>
       <c r="N12" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45424</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="3">
+        <f>3.9+5+1.9+2.9+30</f>
+        <v>43.7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>30</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="3">
+        <f>3+6</f>
+        <v>9</v>
+      </c>
+      <c r="F13" s="3">
+        <v>16</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3">
         <v>44.193548387096776</v>
@@ -5688,11 +5802,11 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>142.89354838709679</v>
       </c>
       <c r="N13" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>98.700000000000017</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -5725,8 +5839,12 @@
       <c r="A15" s="1">
         <v>45426</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="3">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5740,23 +5858,27 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>66.193548387096769</v>
       </c>
       <c r="N15" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>21.999999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45427</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3">
+        <v>17.2</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3">
+        <v>25</v>
+      </c>
       <c r="H16" s="3">
         <v>44.193548387096776</v>
       </c>
@@ -5766,19 +5888,23 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>86.393548387096786</v>
       </c>
       <c r="N16" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>42.20000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45428</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="3">
+        <v>13.57</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5792,11 +5918,11 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>62.663548387096775</v>
       </c>
       <c r="N17" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>18.47</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -6195,27 +6321,27 @@
       </c>
       <c r="B33" s="3">
         <f>SUM(B2:B32)</f>
-        <v>75.009999999999991</v>
+        <v>234.61999999999995</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" ref="C33:I33" si="0">SUM(C2:C32)</f>
-        <v>5</v>
+        <v>47.4</v>
       </c>
       <c r="D33" s="3">
         <f>SUM(D2:D32)</f>
-        <v>0</v>
+        <v>63.994999999999997</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F33" s="3">
         <f>SUM(F2:F32)</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>267.30500000000001</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="0"/>
@@ -6223,7 +6349,7 @@
       </c>
       <c r="I33" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="J33" s="3">
         <f>SUM(J2:J32)</f>
@@ -6239,11 +6365,11 @@
       </c>
       <c r="M33" s="5">
         <f>SUM(M2:M32)</f>
-        <v>1550.0100000000011</v>
+        <v>2278.3200000000002</v>
       </c>
       <c r="N33" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>80.010000000000218</v>
+        <v>745.31999999999925</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -6259,20 +6385,21 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3">
         <f>SUM(B33:L33)</f>
-        <v>1550.0100000000009</v>
+        <v>2278.3200000000006</v>
       </c>
       <c r="M34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6282,7 +6409,7 @@
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/personal space(program)/accountBook2024.xlsx
+++ b/personal space(program)/accountBook2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitcode\zhubiye\personal space(program)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A746157-7E31-4337-AED2-853BCBDBE004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF72600-D7F7-4F8F-B731-EB561832C5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24" yWindow="-13068" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024.01" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,15 @@
     <sheet name="2024.03" sheetId="4" r:id="rId3"/>
     <sheet name="2024.04" sheetId="5" r:id="rId4"/>
     <sheet name="2024.05" sheetId="6" r:id="rId5"/>
-    <sheet name="年度总结" sheetId="2" r:id="rId6"/>
+    <sheet name="2024.06" sheetId="7" r:id="rId6"/>
+    <sheet name="2024.07" sheetId="8" r:id="rId7"/>
+    <sheet name="2024.08" sheetId="9" r:id="rId8"/>
+    <sheet name="2024.09" sheetId="10" r:id="rId9"/>
+    <sheet name="2024.10" sheetId="11" r:id="rId10"/>
+    <sheet name="2024.11" sheetId="12" r:id="rId11"/>
+    <sheet name="年度总结" sheetId="2" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +106,14 @@
     <t>合计（）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>旅游支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际生活花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -157,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,11 +187,20 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="155">
+  <dxfs count="341">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -235,6 +257,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -287,6 +310,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -300,6 +329,123 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -310,6 +456,123 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -320,6 +583,123 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -330,6 +710,123 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -340,6 +837,57 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -396,58 +944,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -458,10 +954,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -581,6 +1081,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -698,6 +1208,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -813,6 +1333,270 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -828,25 +1612,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}" name="表2" displayName="表2" ref="A1:N34" totalsRowCount="1" headerRowDxfId="154" dataDxfId="153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}" name="表2" displayName="表2" ref="A1:N34" totalsRowCount="1" headerRowDxfId="339" dataDxfId="338">
   <autoFilter ref="A1:N33" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{59D84569-A8BB-46A5-9CBC-5EF68588EE35}" name="日期" dataDxfId="152" totalsRowDxfId="151"/>
-    <tableColumn id="2" xr3:uid="{2C662677-3D8C-4D8B-AE1F-E2248B7ABFF7}" name="吃饭" dataDxfId="150" totalsRowDxfId="149"/>
-    <tableColumn id="3" xr3:uid="{AE70D7D4-9857-40D5-8BEB-34BF0C4CCA7A}" name="馋" dataDxfId="148" totalsRowDxfId="147"/>
-    <tableColumn id="4" xr3:uid="{F3975E93-63B6-478C-B0F2-56460FBF1A23}" name="小余" dataDxfId="146" totalsRowDxfId="145"/>
-    <tableColumn id="5" xr3:uid="{94F8752A-FBB0-4CE8-9D51-6324D8BBC87E}" name="生活" dataDxfId="144" totalsRowDxfId="143"/>
-    <tableColumn id="15" xr3:uid="{30FDD512-0876-4E61-969E-6DA35E286B2C}" name="交通" dataDxfId="142" totalsRowDxfId="141"/>
-    <tableColumn id="6" xr3:uid="{5C513997-5C16-4839-95D1-22245123DE2F}" name="爱好" dataDxfId="140" totalsRowDxfId="139"/>
-    <tableColumn id="7" xr3:uid="{9E859D1E-EC02-49A9-BD03-97B27BCE859E}" name="房租" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="8" xr3:uid="{EB58BFC7-02DA-46D2-AAFC-A0BA1323BE9D}" name="水电话费" dataDxfId="136" totalsRowDxfId="135"/>
-    <tableColumn id="9" xr3:uid="{A2A17D77-95A1-459A-90A9-931CF7EEAF21}" name="懒" dataDxfId="134" totalsRowDxfId="133"/>
-    <tableColumn id="11" xr3:uid="{FFABE2C4-74EE-4656-838D-CB10D6D9D4E8}" name="玩" dataDxfId="132" totalsRowDxfId="131"/>
-    <tableColumn id="10" xr3:uid="{570141E9-E92B-4C59-AD38-CCA1569BD90C}" name="学习阅读" totalsRowFunction="custom" dataDxfId="130" totalsRowDxfId="129">
+    <tableColumn id="1" xr3:uid="{59D84569-A8BB-46A5-9CBC-5EF68588EE35}" name="日期" dataDxfId="337" totalsRowDxfId="336"/>
+    <tableColumn id="2" xr3:uid="{2C662677-3D8C-4D8B-AE1F-E2248B7ABFF7}" name="吃饭" dataDxfId="335" totalsRowDxfId="334"/>
+    <tableColumn id="3" xr3:uid="{AE70D7D4-9857-40D5-8BEB-34BF0C4CCA7A}" name="馋" dataDxfId="333" totalsRowDxfId="332"/>
+    <tableColumn id="4" xr3:uid="{F3975E93-63B6-478C-B0F2-56460FBF1A23}" name="小余" dataDxfId="331" totalsRowDxfId="330"/>
+    <tableColumn id="5" xr3:uid="{94F8752A-FBB0-4CE8-9D51-6324D8BBC87E}" name="生活" dataDxfId="329" totalsRowDxfId="328"/>
+    <tableColumn id="15" xr3:uid="{30FDD512-0876-4E61-969E-6DA35E286B2C}" name="交通" dataDxfId="327" totalsRowDxfId="326"/>
+    <tableColumn id="6" xr3:uid="{5C513997-5C16-4839-95D1-22245123DE2F}" name="爱好" dataDxfId="325" totalsRowDxfId="324"/>
+    <tableColumn id="7" xr3:uid="{9E859D1E-EC02-49A9-BD03-97B27BCE859E}" name="房租" dataDxfId="323" totalsRowDxfId="322"/>
+    <tableColumn id="8" xr3:uid="{EB58BFC7-02DA-46D2-AAFC-A0BA1323BE9D}" name="水电话费" dataDxfId="321" totalsRowDxfId="320"/>
+    <tableColumn id="9" xr3:uid="{A2A17D77-95A1-459A-90A9-931CF7EEAF21}" name="懒" dataDxfId="319" totalsRowDxfId="318"/>
+    <tableColumn id="11" xr3:uid="{FFABE2C4-74EE-4656-838D-CB10D6D9D4E8}" name="玩" dataDxfId="317" totalsRowDxfId="316"/>
+    <tableColumn id="10" xr3:uid="{570141E9-E92B-4C59-AD38-CCA1569BD90C}" name="学习阅读" totalsRowFunction="custom" dataDxfId="315" totalsRowDxfId="314">
       <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{39BD7172-0D5C-49D9-87F6-B35B3F5628DB}" name="合计" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="12" xr3:uid="{D46BD491-9DFD-4738-8C08-9D38C5B47D89}" name="合计（）" dataDxfId="126" totalsRowDxfId="125">
+    <tableColumn id="13" xr3:uid="{39BD7172-0D5C-49D9-87F6-B35B3F5628DB}" name="合计" dataDxfId="313" totalsRowDxfId="312"/>
+    <tableColumn id="12" xr3:uid="{D46BD491-9DFD-4738-8C08-9D38C5B47D89}" name="合计（）" dataDxfId="311" totalsRowDxfId="310">
       <calculatedColumnFormula>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -854,26 +1638,82 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A7FC55B8-A0ED-47F6-BE87-D05493AC4049}" name="表2_478911" displayName="表2_478911" ref="A1:N34" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A1:N33" xr:uid="{6C7D2DC4-9681-4990-8C7D-41F70811D8BA}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{2806B019-4022-4DD1-B3E2-739EC105536D}" name="日期" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{61468C3B-7D00-4589-A635-EF4A9B15CF7A}" name="吃饭" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{D37DE389-3F6B-4BD9-AC78-1C80D0046E87}" name="馋" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{1372F126-D909-4262-9A98-8DB88F12E3F3}" name="小余" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{8A10186D-4310-47A8-A930-211CEBD4B09A}" name="生活" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="15" xr3:uid="{0CA3C52B-2715-4B34-A7A1-F620DC76A618}" name="交通" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{EFE22ED3-3E48-4926-BC9A-F2145F9F6FB6}" name="爱好" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{74888BF2-64F2-45D6-800A-7421CC44DC46}" name="房租" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{F9491386-4BD8-4B97-A32A-0F56B385B5FF}" name="水电话费" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{16B50031-1580-482E-97E3-F7F6562762A8}" name="懒" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{7D43A35C-2BF4-466F-BCC9-381C9752C1BA}" name="玩" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{3EF9D836-7C8C-4383-93DB-366DB0B6A2C6}" name="学习阅读" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="35">
+      <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{72F050C2-1CE1-4450-AC20-7049FCDC209B}" name="合计" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{13499077-25B4-4D1D-972E-D5E5DF56CDC4}" name="合计（）" dataDxfId="32" totalsRowDxfId="31">
+      <calculatedColumnFormula>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{67D8F19C-2DD0-4C59-A51B-15F75423EB7C}" name="表2_4561012" displayName="表2_4561012" ref="A1:N33" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:N32" xr:uid="{4783F111-60E6-47B5-9AB1-437C496BFA64}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{C618F720-E758-4091-95B9-A16A4EBA1533}" name="日期" dataDxfId="27" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{1F96E219-DB50-486F-8570-DBF44B38E22B}" name="吃饭" dataDxfId="26" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{61EAFF41-5888-489B-9196-DD786161C5A4}" name="馋" dataDxfId="25" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{6E99EAD5-EE3A-451E-A248-40CBED41332E}" name="小余" dataDxfId="24" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{18C21F06-9B37-4402-892B-FCA37741E227}" name="生活" dataDxfId="23" totalsRowDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{80AB4C13-A583-4A87-AD6C-EBEB3448A8FA}" name="交通" dataDxfId="22" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{FEDAECBF-1E5D-42BF-8136-D0FBD99DC3D5}" name="爱好" dataDxfId="21" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{14F9E726-25B5-46A2-96B9-D5992FA69E71}" name="房租" dataDxfId="20" totalsRowDxfId="6">
+      <calculatedColumnFormula>2700/60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{63C1CCED-5794-4D08-8697-AB2B01E7754E}" name="水电话费" dataDxfId="19" totalsRowDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{6E91D01F-56E9-4E7F-B53D-3D3FF4A281E3}" name="懒" dataDxfId="18" totalsRowDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{8852A42C-B4B0-429A-9AE4-B9BF56FE665D}" name="玩" dataDxfId="17" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{C1BD7762-6CD1-4FD0-8EBD-97061B85B0B0}" name="学习阅读" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="2">
+      <totalsRowFormula>SUM(B32:L32)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{50DF8B32-D09B-4C54-A088-827A73BFB4FC}" name="合计" dataDxfId="15" totalsRowDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{6E500027-168E-49B0-AD9B-D8F1510ABA55}" name="合计（）" dataDxfId="14" totalsRowDxfId="0">
+      <calculatedColumnFormula>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9175EC8C-CC53-4A27-BB75-0A6CACDDDE0C}" name="表2_2" displayName="表2_2" ref="A1:N32" totalsRowCount="1" headerRowDxfId="124" dataDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9175EC8C-CC53-4A27-BB75-0A6CACDDDE0C}" name="表2_2" displayName="表2_2" ref="A1:N32" totalsRowCount="1" headerRowDxfId="308" dataDxfId="307">
   <autoFilter ref="A1:N31" xr:uid="{9175EC8C-CC53-4A27-BB75-0A6CACDDDE0C}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{110B2F1A-B6BF-44BF-ACB1-F19B6A141F34}" name="日期" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="2" xr3:uid="{BC728776-957B-44F1-B2FE-57D5D4CA45FA}" name="吃饭" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{8F707454-87C8-4D1C-B00D-DAA5509EC371}" name="馋" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="4" xr3:uid="{893D28D4-9761-43F7-81A7-873346A1ADE0}" name="小余" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="5" xr3:uid="{EF4D85C9-0B5C-426B-825B-4BB32A9AC4FF}" name="生活" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="15" xr3:uid="{3DE63BAF-E6B5-4B67-9322-A7FF990070F8}" name="交通" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="6" xr3:uid="{9FDB285E-FB04-4A56-A0DF-6982D921EEA6}" name="爱好" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="7" xr3:uid="{1C6A890D-937B-45C4-A7E1-1DDAD63948C1}" name="房租" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="8" xr3:uid="{6DA6BE0D-CF7D-4C12-B5D1-CEC533B474AF}" name="水电话费" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="9" xr3:uid="{C996CD05-35A0-4BD7-93D5-5E73DF849EA1}" name="懒" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="11" xr3:uid="{B604065C-64D4-478F-A033-C45E23344456}" name="玩" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="10" xr3:uid="{4C0DD5C4-8F9D-484C-8109-61CDBB344EB6}" name="学习阅读" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99">
+    <tableColumn id="1" xr3:uid="{110B2F1A-B6BF-44BF-ACB1-F19B6A141F34}" name="日期" dataDxfId="306" totalsRowDxfId="305"/>
+    <tableColumn id="2" xr3:uid="{BC728776-957B-44F1-B2FE-57D5D4CA45FA}" name="吃饭" dataDxfId="304" totalsRowDxfId="303"/>
+    <tableColumn id="3" xr3:uid="{8F707454-87C8-4D1C-B00D-DAA5509EC371}" name="馋" dataDxfId="302" totalsRowDxfId="301"/>
+    <tableColumn id="4" xr3:uid="{893D28D4-9761-43F7-81A7-873346A1ADE0}" name="小余" dataDxfId="300" totalsRowDxfId="299"/>
+    <tableColumn id="5" xr3:uid="{EF4D85C9-0B5C-426B-825B-4BB32A9AC4FF}" name="生活" dataDxfId="298" totalsRowDxfId="297"/>
+    <tableColumn id="15" xr3:uid="{3DE63BAF-E6B5-4B67-9322-A7FF990070F8}" name="交通" dataDxfId="296" totalsRowDxfId="295"/>
+    <tableColumn id="6" xr3:uid="{9FDB285E-FB04-4A56-A0DF-6982D921EEA6}" name="爱好" dataDxfId="294" totalsRowDxfId="293"/>
+    <tableColumn id="7" xr3:uid="{1C6A890D-937B-45C4-A7E1-1DDAD63948C1}" name="房租" dataDxfId="292" totalsRowDxfId="291"/>
+    <tableColumn id="8" xr3:uid="{6DA6BE0D-CF7D-4C12-B5D1-CEC533B474AF}" name="水电话费" dataDxfId="290" totalsRowDxfId="289"/>
+    <tableColumn id="9" xr3:uid="{C996CD05-35A0-4BD7-93D5-5E73DF849EA1}" name="懒" dataDxfId="288" totalsRowDxfId="287"/>
+    <tableColumn id="11" xr3:uid="{B604065C-64D4-478F-A033-C45E23344456}" name="玩" dataDxfId="286" totalsRowDxfId="285"/>
+    <tableColumn id="10" xr3:uid="{4C0DD5C4-8F9D-484C-8109-61CDBB344EB6}" name="学习阅读" totalsRowFunction="custom" dataDxfId="284" totalsRowDxfId="283">
       <totalsRowFormula>SUM(B31:L31)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B730F2EE-713B-4A97-9E17-3623399D9E5B}" name="合计" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="12" xr3:uid="{2F93C786-9B3B-42EA-B843-75A20D43DF83}" name="合计（）" dataDxfId="96" totalsRowDxfId="95">
+    <tableColumn id="13" xr3:uid="{B730F2EE-713B-4A97-9E17-3623399D9E5B}" name="合计" dataDxfId="282" totalsRowDxfId="281"/>
+    <tableColumn id="12" xr3:uid="{2F93C786-9B3B-42EA-B843-75A20D43DF83}" name="合计（）" dataDxfId="280" totalsRowDxfId="279">
       <calculatedColumnFormula>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -882,25 +1722,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F2CFF680-2EC1-4599-BEE3-C1EC2946A723}" name="表2_4" displayName="表2_4" ref="A1:N34" totalsRowCount="1" headerRowDxfId="94" dataDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F2CFF680-2EC1-4599-BEE3-C1EC2946A723}" name="表2_4" displayName="表2_4" ref="A1:N34" totalsRowCount="1" headerRowDxfId="277" dataDxfId="276">
   <autoFilter ref="A1:N33" xr:uid="{F2CFF680-2EC1-4599-BEE3-C1EC2946A723}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{B95FE3FC-E3C0-474F-A7EE-6ADF275C4FE5}" name="日期" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{8B36C720-4E72-4E31-AECC-7DC7F136FF96}" name="吃饭" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{2DF08235-AFD5-4D27-8CC2-56AAE7726D58}" name="馋" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{701238C8-2D13-4DF6-90DF-82C04F4EBDFC}" name="小余" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{65075409-AA0C-4A63-B36C-8BAF1B88F331}" name="生活" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="15" xr3:uid="{488F3EB4-D5B5-4A6F-B8F5-BB183F879D60}" name="交通" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="6" xr3:uid="{FFADE1D3-63B3-4E54-A5AF-B1784A8D293B}" name="爱好" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{DA4A40FF-486B-4A95-A2F9-06CE392D8041}" name="房租" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="8" xr3:uid="{FAE36F53-4A9E-40A8-B772-826119FD7E66}" name="水电话费" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="9" xr3:uid="{8F64A473-D9DA-4B9E-81EC-3DB69653CCE5}" name="懒" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="11" xr3:uid="{3754F808-A1ED-4C65-8182-083C24468AF4}" name="玩" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{9E66DB33-7058-4D81-A11E-A34BBC7C4742}" name="学习阅读" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="69">
+    <tableColumn id="1" xr3:uid="{B95FE3FC-E3C0-474F-A7EE-6ADF275C4FE5}" name="日期" dataDxfId="275" totalsRowDxfId="274"/>
+    <tableColumn id="2" xr3:uid="{8B36C720-4E72-4E31-AECC-7DC7F136FF96}" name="吃饭" dataDxfId="273" totalsRowDxfId="272"/>
+    <tableColumn id="3" xr3:uid="{2DF08235-AFD5-4D27-8CC2-56AAE7726D58}" name="馋" dataDxfId="271" totalsRowDxfId="270"/>
+    <tableColumn id="4" xr3:uid="{701238C8-2D13-4DF6-90DF-82C04F4EBDFC}" name="小余" dataDxfId="269" totalsRowDxfId="268"/>
+    <tableColumn id="5" xr3:uid="{65075409-AA0C-4A63-B36C-8BAF1B88F331}" name="生活" dataDxfId="267" totalsRowDxfId="266"/>
+    <tableColumn id="15" xr3:uid="{488F3EB4-D5B5-4A6F-B8F5-BB183F879D60}" name="交通" dataDxfId="265" totalsRowDxfId="264"/>
+    <tableColumn id="6" xr3:uid="{FFADE1D3-63B3-4E54-A5AF-B1784A8D293B}" name="爱好" dataDxfId="263" totalsRowDxfId="262"/>
+    <tableColumn id="7" xr3:uid="{DA4A40FF-486B-4A95-A2F9-06CE392D8041}" name="房租" dataDxfId="261" totalsRowDxfId="260"/>
+    <tableColumn id="8" xr3:uid="{FAE36F53-4A9E-40A8-B772-826119FD7E66}" name="水电话费" dataDxfId="259" totalsRowDxfId="258"/>
+    <tableColumn id="9" xr3:uid="{8F64A473-D9DA-4B9E-81EC-3DB69653CCE5}" name="懒" dataDxfId="257" totalsRowDxfId="256"/>
+    <tableColumn id="11" xr3:uid="{3754F808-A1ED-4C65-8182-083C24468AF4}" name="玩" dataDxfId="255" totalsRowDxfId="254"/>
+    <tableColumn id="10" xr3:uid="{9E66DB33-7058-4D81-A11E-A34BBC7C4742}" name="学习阅读" totalsRowFunction="custom" dataDxfId="253" totalsRowDxfId="252">
       <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{093440BA-FE3B-4C1B-850D-9B426E707884}" name="合计" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="12" xr3:uid="{6EC3C015-E2D7-4E98-90A6-57C3BAA36B35}" name="合计（）" dataDxfId="66" totalsRowDxfId="65">
+    <tableColumn id="13" xr3:uid="{093440BA-FE3B-4C1B-850D-9B426E707884}" name="合计" dataDxfId="251" totalsRowDxfId="250"/>
+    <tableColumn id="12" xr3:uid="{6EC3C015-E2D7-4E98-90A6-57C3BAA36B35}" name="合计（）" dataDxfId="249" totalsRowDxfId="248">
       <calculatedColumnFormula>表2_4[[#This Row],[合计]]-表2_4[[#This Row],[房租]]-表2_4[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -909,25 +1749,25 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4783F111-60E6-47B5-9AB1-437C496BFA64}" name="表2_45" displayName="表2_45" ref="A1:N33" totalsRowCount="1" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4783F111-60E6-47B5-9AB1-437C496BFA64}" name="表2_45" displayName="表2_45" ref="A1:N33" totalsRowCount="1" headerRowDxfId="246" dataDxfId="245">
   <autoFilter ref="A1:N32" xr:uid="{4783F111-60E6-47B5-9AB1-437C496BFA64}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{253FD735-8925-47DC-9319-8F6CC7BEA25A}" name="日期" dataDxfId="46" totalsRowDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{1D5E92BE-2B1C-47A3-815B-4AB06CC80A74}" name="吃饭" dataDxfId="45" totalsRowDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{B6866B7B-720A-4511-8ABA-7AF6DB07BC3F}" name="馋" dataDxfId="44" totalsRowDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{7C40FE36-49F5-4328-8C59-AAAE298CF610}" name="小余" dataDxfId="43" totalsRowDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{3062D561-3042-41EA-9D56-F0D571200AE0}" name="生活" dataDxfId="42" totalsRowDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{65B8ED49-88EA-4649-B1AD-483DD62949AF}" name="交通" dataDxfId="41" totalsRowDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{32C3B1C3-0B70-4E65-9D77-F567F6F71141}" name="爱好" dataDxfId="40" totalsRowDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{9E8DEC50-7226-406D-A9B7-0F78077CEE73}" name="房租" dataDxfId="39" totalsRowDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{1B69408A-A9B1-4268-ADAF-B1F88C81A8C6}" name="水电话费" dataDxfId="38" totalsRowDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{175CD47C-ED6F-4F5A-89EB-025613A11EB3}" name="懒" dataDxfId="37" totalsRowDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{78C5E361-0822-44EE-9BD8-86A4AE5F34F7}" name="玩" dataDxfId="36" totalsRowDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{6230A14F-6BCA-49F1-8069-2B889BC1C291}" name="学习阅读" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{253FD735-8925-47DC-9319-8F6CC7BEA25A}" name="日期" dataDxfId="244" totalsRowDxfId="243"/>
+    <tableColumn id="2" xr3:uid="{1D5E92BE-2B1C-47A3-815B-4AB06CC80A74}" name="吃饭" dataDxfId="242" totalsRowDxfId="241"/>
+    <tableColumn id="3" xr3:uid="{B6866B7B-720A-4511-8ABA-7AF6DB07BC3F}" name="馋" dataDxfId="240" totalsRowDxfId="239"/>
+    <tableColumn id="4" xr3:uid="{7C40FE36-49F5-4328-8C59-AAAE298CF610}" name="小余" dataDxfId="238" totalsRowDxfId="237"/>
+    <tableColumn id="5" xr3:uid="{3062D561-3042-41EA-9D56-F0D571200AE0}" name="生活" dataDxfId="236" totalsRowDxfId="235"/>
+    <tableColumn id="15" xr3:uid="{65B8ED49-88EA-4649-B1AD-483DD62949AF}" name="交通" dataDxfId="234" totalsRowDxfId="233"/>
+    <tableColumn id="6" xr3:uid="{32C3B1C3-0B70-4E65-9D77-F567F6F71141}" name="爱好" dataDxfId="232" totalsRowDxfId="231"/>
+    <tableColumn id="7" xr3:uid="{9E8DEC50-7226-406D-A9B7-0F78077CEE73}" name="房租" dataDxfId="230" totalsRowDxfId="229"/>
+    <tableColumn id="8" xr3:uid="{1B69408A-A9B1-4268-ADAF-B1F88C81A8C6}" name="水电话费" dataDxfId="228" totalsRowDxfId="227"/>
+    <tableColumn id="9" xr3:uid="{175CD47C-ED6F-4F5A-89EB-025613A11EB3}" name="懒" dataDxfId="226" totalsRowDxfId="225"/>
+    <tableColumn id="11" xr3:uid="{78C5E361-0822-44EE-9BD8-86A4AE5F34F7}" name="玩" dataDxfId="224" totalsRowDxfId="223"/>
+    <tableColumn id="10" xr3:uid="{6230A14F-6BCA-49F1-8069-2B889BC1C291}" name="学习阅读" totalsRowFunction="custom" dataDxfId="222" totalsRowDxfId="221">
       <totalsRowFormula>SUM(B32:L32)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{324358EF-836E-42BF-B637-20025D20A84F}" name="合计" dataDxfId="34" totalsRowDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{D3173285-B7ED-4BDD-848D-690D731AC05D}" name="合计（）" dataDxfId="33" totalsRowDxfId="14">
+    <tableColumn id="13" xr3:uid="{324358EF-836E-42BF-B637-20025D20A84F}" name="合计" dataDxfId="220" totalsRowDxfId="219"/>
+    <tableColumn id="12" xr3:uid="{D3173285-B7ED-4BDD-848D-690D731AC05D}" name="合计（）" dataDxfId="218" totalsRowDxfId="217">
       <calculatedColumnFormula>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -936,26 +1776,136 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6C7D2DC4-9681-4990-8C7D-41F70811D8BA}" name="表2_47" displayName="表2_47" ref="A1:N34" totalsRowCount="1" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6C7D2DC4-9681-4990-8C7D-41F70811D8BA}" name="表2_47" displayName="表2_47" ref="A1:N34" totalsRowCount="1" headerRowDxfId="215" dataDxfId="214">
   <autoFilter ref="A1:N33" xr:uid="{6C7D2DC4-9681-4990-8C7D-41F70811D8BA}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{74F0505F-93D3-4D6F-93D1-A9B1F8EE9B89}" name="日期" dataDxfId="60" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{F517E882-8B97-462D-9008-25C6535C1394}" name="吃饭" dataDxfId="59" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{BCD63472-400C-439E-A565-4F108DE430C4}" name="馋" dataDxfId="58" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{FA3A6E54-D9ED-4E96-B1BD-699B0C9BDF29}" name="小余" dataDxfId="57" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{B943C426-1FD4-49B1-B38D-16EF62561B05}" name="生活" dataDxfId="56" totalsRowDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{71F732A5-6C4D-43A1-9263-10BED9F15A63}" name="交通" dataDxfId="55" totalsRowDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{C517105C-C5D6-4615-8006-1942D76F1EFA}" name="爱好" dataDxfId="54" totalsRowDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{2026C728-11B7-44C1-B7B7-5898A06406BB}" name="房租" dataDxfId="53" totalsRowDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{010BC9D0-B40F-4BA0-B588-4485C9ABC790}" name="水电话费" dataDxfId="52" totalsRowDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{C3AEE5AC-F787-49CB-8E34-FA72F902203B}" name="懒" dataDxfId="51" totalsRowDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{692BC553-3866-4274-89D9-938123E93B86}" name="玩" dataDxfId="50" totalsRowDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{1A470B39-AF0F-4558-8A01-1B3941FE09D3}" name="学习阅读" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{74F0505F-93D3-4D6F-93D1-A9B1F8EE9B89}" name="日期" dataDxfId="213" totalsRowDxfId="212"/>
+    <tableColumn id="2" xr3:uid="{F517E882-8B97-462D-9008-25C6535C1394}" name="吃饭" dataDxfId="211" totalsRowDxfId="210"/>
+    <tableColumn id="3" xr3:uid="{BCD63472-400C-439E-A565-4F108DE430C4}" name="馋" dataDxfId="209" totalsRowDxfId="208"/>
+    <tableColumn id="4" xr3:uid="{FA3A6E54-D9ED-4E96-B1BD-699B0C9BDF29}" name="小余" dataDxfId="207" totalsRowDxfId="206"/>
+    <tableColumn id="5" xr3:uid="{B943C426-1FD4-49B1-B38D-16EF62561B05}" name="生活" dataDxfId="205" totalsRowDxfId="204"/>
+    <tableColumn id="15" xr3:uid="{71F732A5-6C4D-43A1-9263-10BED9F15A63}" name="交通" dataDxfId="203" totalsRowDxfId="202"/>
+    <tableColumn id="6" xr3:uid="{C517105C-C5D6-4615-8006-1942D76F1EFA}" name="爱好" dataDxfId="201" totalsRowDxfId="200"/>
+    <tableColumn id="7" xr3:uid="{2026C728-11B7-44C1-B7B7-5898A06406BB}" name="房租" dataDxfId="199" totalsRowDxfId="198"/>
+    <tableColumn id="8" xr3:uid="{010BC9D0-B40F-4BA0-B588-4485C9ABC790}" name="水电话费" dataDxfId="197" totalsRowDxfId="196"/>
+    <tableColumn id="9" xr3:uid="{C3AEE5AC-F787-49CB-8E34-FA72F902203B}" name="懒" dataDxfId="195" totalsRowDxfId="194"/>
+    <tableColumn id="11" xr3:uid="{692BC553-3866-4274-89D9-938123E93B86}" name="玩" dataDxfId="193" totalsRowDxfId="192"/>
+    <tableColumn id="10" xr3:uid="{1A470B39-AF0F-4558-8A01-1B3941FE09D3}" name="学习阅读" totalsRowFunction="custom" dataDxfId="191" totalsRowDxfId="190">
       <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{45FDCD9A-7348-4954-A4C6-0876FD81425D}" name="合计" dataDxfId="48" totalsRowDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{EFE54995-75C1-458E-847A-8DCFA0927C89}" name="合计（）" dataDxfId="47" totalsRowDxfId="0">
+    <tableColumn id="13" xr3:uid="{45FDCD9A-7348-4954-A4C6-0876FD81425D}" name="合计" dataDxfId="189" totalsRowDxfId="188"/>
+    <tableColumn id="12" xr3:uid="{EFE54995-75C1-458E-847A-8DCFA0927C89}" name="合计（）" dataDxfId="187" totalsRowDxfId="186">
       <calculatedColumnFormula>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E1EF4EB3-8DCE-4611-93FB-0A64B2378F43}" name="表2_456" displayName="表2_456" ref="A1:N33" totalsRowCount="1" headerRowDxfId="184" dataDxfId="183">
+  <autoFilter ref="A1:N32" xr:uid="{4783F111-60E6-47B5-9AB1-437C496BFA64}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{DC4C7EC2-FFA5-49AE-B5CE-FF5F9FFEC75B}" name="日期" dataDxfId="182" totalsRowDxfId="181"/>
+    <tableColumn id="2" xr3:uid="{BD577491-7BC8-4A46-8B9D-B6465A58793D}" name="吃饭" dataDxfId="180" totalsRowDxfId="179"/>
+    <tableColumn id="3" xr3:uid="{E6E0F346-6F32-40BF-B97B-58D0D86B2B79}" name="馋" dataDxfId="178" totalsRowDxfId="177"/>
+    <tableColumn id="4" xr3:uid="{FC1BD07D-C04F-4A94-ACFB-4B134370FF88}" name="小余" dataDxfId="176" totalsRowDxfId="175"/>
+    <tableColumn id="5" xr3:uid="{70E49A38-6380-4CFA-970D-21AF23C8D2FB}" name="生活" dataDxfId="174" totalsRowDxfId="173"/>
+    <tableColumn id="15" xr3:uid="{540B07C7-82A3-4E18-A9B5-CC7F510ECED4}" name="交通" dataDxfId="172" totalsRowDxfId="171"/>
+    <tableColumn id="6" xr3:uid="{F22A11BA-E075-43C0-8E3F-6FEA0B8CC7DB}" name="爱好" dataDxfId="170" totalsRowDxfId="169"/>
+    <tableColumn id="7" xr3:uid="{2764A31E-0AA6-485C-B6FE-4D912CEAB6BA}" name="房租" dataDxfId="168" totalsRowDxfId="167"/>
+    <tableColumn id="8" xr3:uid="{46855BB5-0279-48FE-8381-91E3B0B2F5D4}" name="水电话费" dataDxfId="166" totalsRowDxfId="165"/>
+    <tableColumn id="9" xr3:uid="{2E461C15-3D65-4C4D-8353-8E3F1FB92AD2}" name="懒" dataDxfId="164" totalsRowDxfId="163"/>
+    <tableColumn id="11" xr3:uid="{D51818B8-8E3F-4083-8C55-B52953A28CF3}" name="玩" dataDxfId="162" totalsRowDxfId="161"/>
+    <tableColumn id="10" xr3:uid="{70907E0D-86C4-4FEF-98C7-528A15A3F82A}" name="学习阅读" totalsRowFunction="custom" dataDxfId="160" totalsRowDxfId="159">
+      <totalsRowFormula>SUM(B32:L32)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{BBC26AB6-5C58-426E-91FA-638F8671143C}" name="合计" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="12" xr3:uid="{4FC4CAD3-987F-4949-B839-388424E40787}" name="合计（）" dataDxfId="156" totalsRowDxfId="155">
+      <calculatedColumnFormula>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D5B38A3F-353C-446F-A3A2-A6F6396F531A}" name="表2_478" displayName="表2_478" ref="A1:N34" totalsRowCount="1" headerRowDxfId="153" dataDxfId="152">
+  <autoFilter ref="A1:N33" xr:uid="{6C7D2DC4-9681-4990-8C7D-41F70811D8BA}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{7DFA7012-48A7-49BB-9AC9-EA520DCFC819}" name="日期" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="2" xr3:uid="{1D83433A-7520-4385-9622-D8674FA26A32}" name="吃饭" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="3" xr3:uid="{4200389D-7C86-4B7C-A824-2D5DF7054612}" name="馋" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="4" xr3:uid="{C19DD552-62C3-4C28-B00C-B05D99EB883F}" name="小余" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="5" xr3:uid="{2EAF35DC-1490-4624-A7E6-E69BED631DCF}" name="生活" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="15" xr3:uid="{8B116F3E-8AAF-41B0-8416-141426C8317E}" name="交通" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="6" xr3:uid="{BCC2D5FA-8678-4FC3-AFCA-F067021D2B63}" name="爱好" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="7" xr3:uid="{718CF231-F02E-4B57-A850-B8A59E063A27}" name="房租" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="8" xr3:uid="{8FF0AA7F-AFA7-4DF0-8F4B-0BCDC20C3917}" name="水电话费" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="9" xr3:uid="{AC89099A-C097-40C8-89E7-28D00A4BA6C2}" name="懒" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="11" xr3:uid="{20CC3AB5-9D68-44F7-A15B-F718AC40BD4A}" name="玩" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="10" xr3:uid="{6FC0A1FA-BD0C-4544-81F9-18E0A9A9E653}" name="学习阅读" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="128">
+      <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{8218A021-98D0-466F-9B23-8A378F33ED30}" name="合计" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="12" xr3:uid="{8C520387-76A6-44B0-902F-32F052E563F3}" name="合计（）" dataDxfId="125" totalsRowDxfId="124">
+      <calculatedColumnFormula>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EEC7AD4D-91E3-4076-BD9A-07516D424212}" name="表2_4789" displayName="表2_4789" ref="A1:N34" totalsRowCount="1" headerRowDxfId="122" dataDxfId="121">
+  <autoFilter ref="A1:N33" xr:uid="{6C7D2DC4-9681-4990-8C7D-41F70811D8BA}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{4E2ACB2F-0D6D-4A48-84DE-36E447C84EF3}" name="日期" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="2" xr3:uid="{4061BBA9-110F-499A-B73D-CFAF32AB3A51}" name="吃饭" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="3" xr3:uid="{6E493E70-DEB7-4B2A-875C-1B22EE4DD4A4}" name="馋" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{E6E8B2AD-6562-4C13-85BF-F6E505479974}" name="小余" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="5" xr3:uid="{F1DDF90B-4151-4D9A-A154-698CAD0FE23F}" name="生活" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="15" xr3:uid="{B2770C1E-1AB2-474C-A9BC-FCF67296BACC}" name="交通" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="6" xr3:uid="{EB56D2FE-1A67-4C22-AF71-1DE484370C11}" name="爱好" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="7" xr3:uid="{6B622060-1C1F-44E3-8822-E87C81888211}" name="房租" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="8" xr3:uid="{50B1ABA8-7A28-49FF-A0ED-ECB2F09C66EA}" name="水电话费" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="9" xr3:uid="{9E9428CE-75EE-44F6-B776-5452C56751FE}" name="懒" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="11" xr3:uid="{9B4B35E6-AB35-4CC3-B917-92D01D5C951D}" name="玩" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="10" xr3:uid="{6C0B6BD2-DED2-4EAF-A5D3-CCB34B70770B}" name="学习阅读" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="97">
+      <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{A642FB39-4AEA-4894-8F79-325EF764858E}" name="合计" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="12" xr3:uid="{24E2A3FC-6A65-420C-B77A-309E58D296FC}" name="合计（）" dataDxfId="94" totalsRowDxfId="93">
+      <calculatedColumnFormula>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{07267095-1F08-4F78-BDB2-1DDBABB1C1C3}" name="表2_45610" displayName="表2_45610" ref="A1:N33" totalsRowCount="1" headerRowDxfId="91" dataDxfId="90">
+  <autoFilter ref="A1:N32" xr:uid="{4783F111-60E6-47B5-9AB1-437C496BFA64}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{391D8D32-699D-4415-8110-305FCC210545}" name="日期" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{94717B93-CE2F-4746-B439-73F8F68727D0}" name="吃饭" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{23CCF45B-8D7A-43A0-9336-8B2FEDED6501}" name="馋" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{95584A45-6A13-4388-B5EC-2CD9CDC1AF3A}" name="小余" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{7629E00D-D1F1-4562-AC7B-4CBCD447A209}" name="生活" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="15" xr3:uid="{6976ABC8-205C-4C79-A78C-EF3D4DF65039}" name="交通" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{B38E331A-4C39-4F94-8BA4-7E48CE48499F}" name="爱好" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{AFAB8892-73A8-4271-90F4-1DFA7EEBFC3D}" name="房租" dataDxfId="75" totalsRowDxfId="74">
+      <calculatedColumnFormula>2700/60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C4C43711-6106-432A-BE87-F01D30946B4C}" name="水电话费" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="9" xr3:uid="{A2893E56-1E7B-4CA8-AC83-35DE157F8CA5}" name="懒" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="11" xr3:uid="{28ED9641-B02F-4576-9686-ED3695C4D134}" name="玩" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{48D107DB-93EB-4489-B660-E35D77C2D950}" name="学习阅读" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="66">
+      <totalsRowFormula>SUM(B32:L32)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{2B3980E8-A2AB-4836-AFD3-A735550CC472}" name="合计" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="12" xr3:uid="{72666257-FE93-46BC-994D-9FAC0B9D6D09}" name="合计（）" dataDxfId="63" totalsRowDxfId="62">
+      <calculatedColumnFormula>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1227,7 +2177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -2325,7 +3275,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="340" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2337,12 +3287,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569B3F92-D2E5-4945-99C2-E3FB6AC53EBD}">
-  <dimension ref="A1:N32"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2134B9-86C1-4D89-9506-A76ACBD8BFFA}">
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2402,6 +3352,2119 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3">
+        <v>257</v>
+      </c>
+      <c r="F2" s="3">
+        <v>13.99</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <f>2700/60</f>
+        <v>45</v>
+      </c>
+      <c r="I2" s="3">
+        <v>100</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>465.99</v>
+      </c>
+      <c r="N2" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>320.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45567</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H32" si="0">2700/60</f>
+        <v>45</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>87</v>
+      </c>
+      <c r="N3" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45568</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>105</v>
+      </c>
+      <c r="N4" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>52</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>97</v>
+      </c>
+      <c r="N5" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45570</v>
+      </c>
+      <c r="B6" s="3">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>84</v>
+      </c>
+      <c r="N6" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45571</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>53</v>
+      </c>
+      <c r="E7" s="3">
+        <v>195</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>293</v>
+      </c>
+      <c r="N7" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45572</v>
+      </c>
+      <c r="B8" s="3">
+        <v>189</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>85</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>319</v>
+      </c>
+      <c r="N8" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45573</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N9" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B10" s="3">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>95</v>
+      </c>
+      <c r="N10" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45575</v>
+      </c>
+      <c r="B11" s="3">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>61.85</v>
+      </c>
+      <c r="N11" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>16.850000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B12" s="3">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>65</v>
+      </c>
+      <c r="N12" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45577</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>53.9</v>
+      </c>
+      <c r="N13" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>8.8999999999999986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45578</v>
+      </c>
+      <c r="B14" s="3">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>103</v>
+      </c>
+      <c r="N14" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B15" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <f>520+899+399</f>
+        <v>1818</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>1888.9</v>
+      </c>
+      <c r="N15" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>1843.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45580</v>
+      </c>
+      <c r="B16" s="3">
+        <v>172</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>217</v>
+      </c>
+      <c r="N16" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45581</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>51</v>
+      </c>
+      <c r="N17" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45582</v>
+      </c>
+      <c r="B18" s="3">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>84</v>
+      </c>
+      <c r="N18" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45583</v>
+      </c>
+      <c r="B19" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>88.5</v>
+      </c>
+      <c r="N19" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45584</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>60</v>
+      </c>
+      <c r="N20" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45585</v>
+      </c>
+      <c r="B21" s="3">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>74</v>
+      </c>
+      <c r="N21" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B22" s="3">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>52</v>
+      </c>
+      <c r="N22" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45587</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N23" s="7">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45588</v>
+      </c>
+      <c r="B24" s="3">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>78</v>
+      </c>
+      <c r="N24" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45589</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>51.9</v>
+      </c>
+      <c r="N25" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>6.8999999999999986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B26" s="3">
+        <v>27</v>
+      </c>
+      <c r="C26" s="3">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>79</v>
+      </c>
+      <c r="N26" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45591</v>
+      </c>
+      <c r="B27" s="3">
+        <v>79</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>130</v>
+      </c>
+      <c r="N27" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45592</v>
+      </c>
+      <c r="B28" s="3">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>54</v>
+      </c>
+      <c r="N28" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B29" s="3">
+        <v>47</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>62</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>154</v>
+      </c>
+      <c r="N29" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B30" s="3">
+        <v>47</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>92</v>
+      </c>
+      <c r="N30" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B31" s="3">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>71</v>
+      </c>
+      <c r="N31" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B32" s="3">
+        <v>142</v>
+      </c>
+      <c r="C32" s="3">
+        <v>91</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3">
+        <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>278</v>
+      </c>
+      <c r="N32" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3">
+        <f>SUM(B2:B32)</f>
+        <v>1016.1999999999999</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" ref="C33:I33" si="1">SUM(C2:C32)</f>
+        <v>156.85</v>
+      </c>
+      <c r="D33" s="3">
+        <f>SUM(D2:D32)</f>
+        <v>288</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="1"/>
+        <v>2438</v>
+      </c>
+      <c r="F33" s="3">
+        <f>SUM(F2:F32)</f>
+        <v>13.99</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="1"/>
+        <v>1395</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
+        <f>SUM(J2:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <f>SUM(K2:K32)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <f>SUM(L2:L32)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
+        <f>SUM(M2:M32)</f>
+        <v>5423.04</v>
+      </c>
+      <c r="N33" s="3">
+        <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
+        <v>3928.04</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3">
+        <f>SUM(B33:L33)</f>
+        <v>5423.04</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="N2:N32">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E530FB-A4BD-42BC-9813-A928C3175950}">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.9140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <f>2700/60</f>
+        <v>45</v>
+      </c>
+      <c r="I2" s="3">
+        <v>100</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>148.9</v>
+      </c>
+      <c r="N2" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>3.9000000000000057</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45598</v>
+      </c>
+      <c r="B3" s="3">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H31" si="0">2700/60</f>
+        <v>45</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>85</v>
+      </c>
+      <c r="N3" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45599</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>60</v>
+      </c>
+      <c r="N4" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B5" s="3">
+        <f>9.07+4.27</f>
+        <v>13.34</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>2.77</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>61.11</v>
+      </c>
+      <c r="N5" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45601</v>
+      </c>
+      <c r="B6" s="3">
+        <f>6.9+2.35</f>
+        <v>9.25</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>69.25</v>
+      </c>
+      <c r="N6" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B7" s="3">
+        <f>16.9+4.75+1.5</f>
+        <v>23.15</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>68.150000000000006</v>
+      </c>
+      <c r="N7" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>23.150000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45603</v>
+      </c>
+      <c r="B8" s="3">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>64.490000000000009</v>
+      </c>
+      <c r="N8" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>19.490000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B9" s="3">
+        <f>3.9+13.75</f>
+        <v>17.649999999999999</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>62.65</v>
+      </c>
+      <c r="N9" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>17.649999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45605</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>66.900000000000006</v>
+      </c>
+      <c r="N10" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>21.900000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B11" s="3">
+        <v>16.87</v>
+      </c>
+      <c r="C11" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>85.27000000000001</v>
+      </c>
+      <c r="N11" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>40.27000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N12" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N13" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45609</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N14" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45610</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N15" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N16" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45612</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N17" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N18" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N19" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45615</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N20" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N21" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45617</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N22" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N23" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45619</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N24" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45620</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N25" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N26" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N27" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45623</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N28" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N29" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N30" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3">
+        <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N31" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" ref="B32:M32" si="1">SUM(B2:B31)</f>
+        <v>137.75</v>
+      </c>
+      <c r="C32" s="3">
+        <f>SUM(C3:C31)</f>
+        <v>36.4</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="1"/>
+        <v>32.57</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="1"/>
+        <v>1350</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="1"/>
+        <v>1671.7199999999998</v>
+      </c>
+      <c r="N32" s="3">
+        <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
+        <v>221.7199999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3">
+        <f>SUM(B32:L32)</f>
+        <v>1671.72</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="N2:N31">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C952A621-BEBB-4D1D-8745-086E36D656C9}">
+  <dimension ref="A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="B1:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569B3F92-D2E5-4945-99C2-E3FB6AC53EBD}">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.9140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>45323</v>
       </c>
       <c r="B2" s="3"/>
@@ -3014,7 +6077,7 @@
         <v>45348</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" ref="B27:B30" si="0">170/5</f>
+        <f>170/5</f>
         <v>34</v>
       </c>
       <c r="C27" s="3"/>
@@ -3043,7 +6106,7 @@
         <v>45349</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" si="0"/>
+        <f>170/5</f>
         <v>34</v>
       </c>
       <c r="C28" s="3"/>
@@ -3072,7 +6135,7 @@
         <v>45350</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" si="0"/>
+        <f>170/5</f>
         <v>34</v>
       </c>
       <c r="C29" s="3"/>
@@ -3101,7 +6164,7 @@
         <v>45351</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="0"/>
+        <f>170/5</f>
         <v>34</v>
       </c>
       <c r="C30" s="3"/>
@@ -3130,51 +6193,51 @@
         <v>11</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" ref="B31:M31" si="1">SUM(B2:B30)</f>
+        <f t="shared" ref="B31:M31" si="0">SUM(B2:B30)</f>
         <v>170</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1320</v>
       </c>
       <c r="N31" s="3">
@@ -3202,7 +6265,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N30">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="309" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3218,7 +6281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2E9706-DFD4-448A-9DD7-ACCE6818CC02}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -4259,7 +7322,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="278" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4275,8 +7338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBE693D-6DD3-4F12-A4CB-6FD7B54F185C}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28:N31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5365,7 +8428,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="247" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5381,8 +8444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F065C17B-91FB-4612-8F80-EF1284AE3528}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5929,7 +8992,10 @@
       <c r="A18" s="1">
         <v>45429</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3">
+        <f>3.8+3+2.5+3</f>
+        <v>12.3</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -5944,20 +9010,24 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>56.49354838709678</v>
       </c>
       <c r="N18" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>12.300000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45430</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3">
+        <v>7.5</v>
+      </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>60</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -5970,11 +9040,11 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>111.69354838709677</v>
       </c>
       <c r="N19" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -6007,11 +9077,17 @@
       <c r="A21" s="1">
         <v>45432</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3">
+        <v>15</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
         <v>44.193548387096776</v>
@@ -6022,19 +9098,24 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>72.393548387096772</v>
       </c>
       <c r="N21" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>28.199999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45433</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="3">
+        <f>4.57+9.98</f>
+        <v>14.55</v>
+      </c>
+      <c r="C22" s="3">
+        <v>7</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -6048,23 +9129,29 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>65.74354838709678</v>
       </c>
       <c r="N22" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>21.550000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45434</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>12.5</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3">
+        <v>50</v>
+      </c>
       <c r="H23" s="3">
         <v>44.193548387096776</v>
       </c>
@@ -6074,19 +9161,24 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>111.69354838709677</v>
       </c>
       <c r="N23" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45435</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="3">
+        <f>16.59+7.7</f>
+        <v>24.29</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -6100,19 +9192,23 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>71.483548387096775</v>
       </c>
       <c r="N24" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>27.29</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45436</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="3">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3">
+        <v>18.7</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -6126,23 +9222,31 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>78.893548387096786</v>
       </c>
       <c r="N25" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>34.70000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45437</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3">
+        <v>18.5</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="E26" s="3">
+        <v>112</v>
+      </c>
+      <c r="F26" s="3">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3">
+        <v>300</v>
+      </c>
       <c r="H26" s="3">
         <v>44.193548387096776</v>
       </c>
@@ -6152,18 +9256,20 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>485.69354838709677</v>
       </c>
       <c r="N26" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>441.5</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45438</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3">
+        <v>8</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -6178,11 +9284,11 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>52.193548387096776</v>
       </c>
       <c r="N27" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -6190,9 +9296,13 @@
         <v>45439</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3">
+        <v>4</v>
+      </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>215.32</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
@@ -6204,11 +9314,11 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>263.51354838709676</v>
       </c>
       <c r="N28" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>219.32</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -6216,10 +9326,14 @@
         <v>45440</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3">
+        <v>9.5399999999999991</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
         <v>44.193548387096776</v>
@@ -6230,21 +9344,25 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>55.733548387096775</v>
       </c>
       <c r="N29" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45441</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3">
+        <v>25</v>
+      </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>208</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
@@ -6256,21 +9374,29 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>277.19354838709677</v>
       </c>
       <c r="N30" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45442</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="B31" s="3">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D31" s="3">
+        <v>40</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3.6</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
@@ -6282,18 +9408,20 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>110.29354838709676</v>
       </c>
       <c r="N31" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>66.099999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45443</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3">
+        <v>100</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -6308,11 +9436,11 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3">
         <f>SUM(表2_47[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.193548387096776</v>
+        <v>144.19354838709677</v>
       </c>
       <c r="N32" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6321,27 +9449,27 @@
       </c>
       <c r="B33" s="3">
         <f>SUM(B2:B32)</f>
-        <v>234.61999999999995</v>
+        <v>491.96</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" ref="C33:I33" si="0">SUM(C2:C32)</f>
-        <v>47.4</v>
+        <v>104.10000000000001</v>
       </c>
       <c r="D33" s="3">
         <f>SUM(D2:D32)</f>
-        <v>63.994999999999997</v>
+        <v>163.995</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>628.91999999999996</v>
       </c>
       <c r="F33" s="3">
         <f>SUM(F2:F32)</f>
-        <v>42</v>
+        <v>77.539999999999992</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
-        <v>267.30500000000001</v>
+        <v>617.30500000000006</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="0"/>
@@ -6365,11 +9493,11 @@
       </c>
       <c r="M33" s="5">
         <f>SUM(M2:M32)</f>
-        <v>2278.3200000000002</v>
+        <v>3616.8199999999997</v>
       </c>
       <c r="N33" s="3">
         <f>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</f>
-        <v>745.31999999999925</v>
+        <v>2083.8199999999988</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -6385,14 +9513,14 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3">
         <f>SUM(B33:L33)</f>
-        <v>2278.3200000000006</v>
+        <v>3616.8200000000006</v>
       </c>
       <c r="M34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="216" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6405,19 +9533,4426 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C952A621-BEBB-4D1D-8745-086E36D656C9}">
-  <dimension ref="A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B0AC92-96F1-45A8-AD87-12A4AA121D48}">
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.9140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B2" s="3">
+        <f>13.9+17</f>
+        <v>30.9</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <f>160+27.9+29+22.9+36.2</f>
+        <v>276</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I2" s="3">
+        <v>100</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>451.09354838709675</v>
+      </c>
+      <c r="N2" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>306.89999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B3" s="3">
+        <f>3+57+39.66</f>
+        <v>99.66</v>
+      </c>
+      <c r="C3" s="3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>150.85354838709677</v>
+      </c>
+      <c r="N3" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>106.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>48.193548387096776</v>
+      </c>
+      <c r="N4" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>62.193548387096776</v>
+      </c>
+      <c r="N5" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>79.193548387096769</v>
+      </c>
+      <c r="N6" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>34.999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B7" s="3">
+        <f>19.49+13.9</f>
+        <v>33.39</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>132.08354838709678</v>
+      </c>
+      <c r="N7" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>87.890000000000015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B8" s="3">
+        <v>98</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>212.19354838709677</v>
+      </c>
+      <c r="N8" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45451</v>
+      </c>
+      <c r="B9" s="3">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>106.19354838709677</v>
+      </c>
+      <c r="N9" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>61.999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45452</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>44.193548387096776</v>
+      </c>
+      <c r="N10" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45453</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>44.193548387096776</v>
+      </c>
+      <c r="N11" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>44.193548387096776</v>
+      </c>
+      <c r="N12" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>44.193548387096776</v>
+      </c>
+      <c r="N13" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B14" s="3">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I14" s="3">
+        <v>96</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>178.69354838709677</v>
+      </c>
+      <c r="N14" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>99</v>
+      </c>
+      <c r="F15" s="3">
+        <v>90</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>441.19354838709677</v>
+      </c>
+      <c r="N15" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45458</v>
+      </c>
+      <c r="B16" s="3">
+        <f>3+13.9+49.9</f>
+        <v>66.8</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <f>39+95.7</f>
+        <v>134.69999999999999</v>
+      </c>
+      <c r="H16" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>245.69354838709677</v>
+      </c>
+      <c r="N16" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>201.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45459</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <v>13</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>63.093548387096774</v>
+      </c>
+      <c r="N17" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
+        <f>4.5+5.9</f>
+        <v>10.4</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>54.593548387096774</v>
+      </c>
+      <c r="N18" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>10.399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>50.093548387096774</v>
+      </c>
+      <c r="N19" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>5.8999999999999986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B20" s="3">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>74.193548387096769</v>
+      </c>
+      <c r="N20" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>29.999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B21" s="3">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <v>35</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>107.19354838709677</v>
+      </c>
+      <c r="N21" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>62.999999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B22" s="3">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>20</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>74.193548387096769</v>
+      </c>
+      <c r="N22" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>29.999999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45465</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>44.193548387096797</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
+        <v>7</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>51.193548387096797</v>
+      </c>
+      <c r="N23" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45466</v>
+      </c>
+      <c r="B24" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>66.793548387096777</v>
+      </c>
+      <c r="N24" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>50.693548387096776</v>
+      </c>
+      <c r="N25" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <v>15</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>74.193548387096769</v>
+      </c>
+      <c r="N26" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>29.999999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B27" s="3">
+        <v>100</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
+        <v>15</v>
+      </c>
+      <c r="H27" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>161.19354838709677</v>
+      </c>
+      <c r="N27" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45470</v>
+      </c>
+      <c r="B28" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
+        <v>13</v>
+      </c>
+      <c r="E28" s="3">
+        <v>29</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>96.093548387096774</v>
+      </c>
+      <c r="N28" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3">
+        <v>2</v>
+      </c>
+      <c r="H29" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>49.693548387096776</v>
+      </c>
+      <c r="N29" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45472</v>
+      </c>
+      <c r="B30" s="3">
+        <v>32.19</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <f>58.86+78+34.2</f>
+        <v>171.06</v>
+      </c>
+      <c r="F30" s="3">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>259.44354838709677</v>
+      </c>
+      <c r="N30" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>215.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <v>44.193548387096776</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3">
+        <f>SUM(表2_456[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>46.193548387096776</v>
+      </c>
+      <c r="N31" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" ref="B32:M32" si="0">SUM(B2:B31)</f>
+        <v>621.24</v>
+      </c>
+      <c r="C32" s="3">
+        <f>SUM(C3:C31)</f>
+        <v>49.9</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>284</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="0"/>
+        <v>695.06</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>232.5</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>151.69999999999999</v>
+      </c>
+      <c r="H32" s="3">
+        <f>SUM(H2:H31)</f>
+        <v>1325.8064516129041</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="0"/>
+        <v>3563.2064516129017</v>
+      </c>
+      <c r="N32" s="3">
+        <f>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</f>
+        <v>2041.3999999999978</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3">
+        <f>SUM(B32:L32)</f>
+        <v>3563.2064516129039</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="N2:N31">
+    <cfRule type="cellIs" dxfId="185" priority="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394BB029-4B82-4CB0-8C60-9D1075A19526}">
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.9140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <f>1101.7/25</f>
+        <v>44.068000000000005</v>
+      </c>
+      <c r="I2" s="3">
+        <v>100</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>244.06800000000001</v>
+      </c>
+      <c r="N2" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B3" s="3">
+        <f>5+16.96</f>
+        <v>21.96</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H17" si="0">1101.7/25</f>
+        <v>44.068000000000005</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>66.028000000000006</v>
+      </c>
+      <c r="N3" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>21.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B4" s="3">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>44.068000000000005</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>89.068000000000012</v>
+      </c>
+      <c r="N4" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>45.000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B5" s="3">
+        <f>5.5+16.5</f>
+        <v>22</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>44.068000000000005</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>71.068000000000012</v>
+      </c>
+      <c r="N5" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>27.000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B6" s="3">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>44.068000000000005</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>74.068000000000012</v>
+      </c>
+      <c r="N6" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>30.000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45479</v>
+      </c>
+      <c r="B7" s="3">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>58</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>44.068000000000005</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>120.06800000000001</v>
+      </c>
+      <c r="N7" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45480</v>
+      </c>
+      <c r="B8" s="3">
+        <f>32.4+38.7</f>
+        <v>71.099999999999994</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <f>23+19.49+11.3+6.98</f>
+        <v>60.769999999999996</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>44.068000000000005</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>178.93800000000002</v>
+      </c>
+      <c r="N8" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>134.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B9" s="3">
+        <f>5+9.9+12.5</f>
+        <v>27.4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>46.9</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>44.068000000000005</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>123.86799999999999</v>
+      </c>
+      <c r="N9" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>79.799999999999983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B10" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>44.068000000000005</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>96.568000000000012</v>
+      </c>
+      <c r="N10" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>52.500000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B11" s="3">
+        <f>4.5+13.9</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>44.068000000000005</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>65.468000000000004</v>
+      </c>
+      <c r="N11" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B12" s="3">
+        <f>13.9+20.9</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>16.57</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>44.068000000000005</v>
+      </c>
+      <c r="I12" s="3">
+        <v>56.8</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>158.238</v>
+      </c>
+      <c r="N12" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>57.36999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B13" s="3">
+        <f>19.9+2+15.36</f>
+        <v>37.26</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>18.2</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>44.068000000000005</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>99.527999999999992</v>
+      </c>
+      <c r="N13" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>55.459999999999987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45486</v>
+      </c>
+      <c r="B14" s="3">
+        <f>9+16.9+13.94</f>
+        <v>39.839999999999996</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <v>10.32</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>44.068000000000005</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>94.228000000000009</v>
+      </c>
+      <c r="N14" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>50.160000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45487</v>
+      </c>
+      <c r="B15" s="3">
+        <f>30+7.5+3</f>
+        <v>40.5</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>370</v>
+      </c>
+      <c r="F15" s="3">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>44.068000000000005</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>464.03800000000001</v>
+      </c>
+      <c r="N15" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>419.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B16" s="3">
+        <f>39+3.9+6.2+5+7.9</f>
+        <v>62</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>5.62</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>44.068000000000005</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>111.68800000000002</v>
+      </c>
+      <c r="N16" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>67.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B17" s="3">
+        <v>206</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>150</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>44.068000000000005</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>402.06799999999998</v>
+      </c>
+      <c r="N17" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B18" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <f>1101.7/25+2700/60</f>
+        <v>89.068000000000012</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>102.96800000000002</v>
+      </c>
+      <c r="N18" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>13.900000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B19" s="3">
+        <f>21.3+3.99+4.5</f>
+        <v>29.79</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <f t="shared" ref="H19:H26" si="1">1101.7/25+2700/60</f>
+        <v>89.068000000000012</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>120.858</v>
+      </c>
+      <c r="N19" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>31.789999999999992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B20" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>89.068000000000012</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>97.668000000000006</v>
+      </c>
+      <c r="N20" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>8.5999999999999943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45493</v>
+      </c>
+      <c r="B21" s="3">
+        <f>25.7+17.2</f>
+        <v>42.9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>19.3</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>21</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>89.068000000000012</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>172.26800000000003</v>
+      </c>
+      <c r="N21" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>83.200000000000017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45494</v>
+      </c>
+      <c r="B22" s="3">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>89.068000000000012</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>114.06800000000001</v>
+      </c>
+      <c r="N22" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>45495</v>
+      </c>
+      <c r="B23" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C23" s="7">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7">
+        <v>15</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7">
+        <f t="shared" si="1"/>
+        <v>89.068000000000012</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>122.26800000000001</v>
+      </c>
+      <c r="N23" s="7">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B24" s="3">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <v>79</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
+        <v>89.068000000000012</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3">
+        <v>22.3</v>
+      </c>
+      <c r="M24" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>205.36800000000002</v>
+      </c>
+      <c r="N24" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>116.30000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <f t="shared" si="1"/>
+        <v>89.068000000000012</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>89.068000000000012</v>
+      </c>
+      <c r="N25" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B26" s="3">
+        <f>37.33+9.9</f>
+        <v>47.23</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
+        <v>89.068000000000012</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>136.298</v>
+      </c>
+      <c r="N26" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>47.22999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <f>2700/60</f>
+        <v>45</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N27" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45500</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3">
+        <v>23</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <f t="shared" ref="H28:H32" si="2">2700/60</f>
+        <v>45</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>88.9</v>
+      </c>
+      <c r="N28" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>43.900000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45501</v>
+      </c>
+      <c r="B29" s="3">
+        <v>54.71</v>
+      </c>
+      <c r="C29" s="3">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>119.71000000000001</v>
+      </c>
+      <c r="N29" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>74.710000000000008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B30" s="3">
+        <f>11.3+2+2.8+11.9</f>
+        <v>28</v>
+      </c>
+      <c r="C30" s="3">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3">
+        <v>26.8</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>107.8</v>
+      </c>
+      <c r="N30" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B31" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>121</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="I31" s="3">
+        <v>39.25</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>219.15</v>
+      </c>
+      <c r="N31" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>134.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B32" s="3">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
+        <v>29</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3">
+        <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>84</v>
+      </c>
+      <c r="N32" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3">
+        <f>SUM(B2:B32)</f>
+        <v>983.89</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" ref="C33:I33" si="3">SUM(C2:C32)</f>
+        <v>92.8</v>
+      </c>
+      <c r="D33" s="3">
+        <f>SUM(D2:D32)</f>
+        <v>155.80000000000001</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="3"/>
+        <v>806.1</v>
+      </c>
+      <c r="F33" s="3">
+        <f>SUM(F2:F32)</f>
+        <v>171.75</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="3"/>
+        <v>1776.6999999999998</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="3"/>
+        <v>196.05</v>
+      </c>
+      <c r="J33" s="3">
+        <f>SUM(J2:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <f>SUM(K2:K32)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <f>SUM(L2:L32)</f>
+        <v>22.3</v>
+      </c>
+      <c r="M33" s="5">
+        <f>SUM(M2:M32)</f>
+        <v>4284.3900000000012</v>
+      </c>
+      <c r="N33" s="3">
+        <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
+        <v>2311.6400000000012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3">
+        <f>SUM(B33:L33)</f>
+        <v>4284.3900000000003</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="N2:N32">
+    <cfRule type="cellIs" dxfId="154" priority="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314DAA8B-E0A1-4EC5-9279-2CF1187929C1}">
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.9140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>200</v>
+      </c>
+      <c r="E2" s="3">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
+        <v>290</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H32" si="0">2700/60</f>
+        <v>45</v>
+      </c>
+      <c r="I2" s="3">
+        <v>100</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>660</v>
+      </c>
+      <c r="N2" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B3" s="3">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>65.900000000000006</v>
+      </c>
+      <c r="N3" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>20.900000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45507</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>306</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>357</v>
+      </c>
+      <c r="N4" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45508</v>
+      </c>
+      <c r="B5" s="3">
+        <f>15+11.9</f>
+        <v>26.9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3">
+        <v>650</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>739.9</v>
+      </c>
+      <c r="N5" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>694.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B6" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <f>2142+15</f>
+        <v>2157</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>2249.8000000000002</v>
+      </c>
+      <c r="N6" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>2204.8000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52.52</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>99.52000000000001</v>
+      </c>
+      <c r="N7" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>54.52000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>11.33</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>62.33</v>
+      </c>
+      <c r="N8" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>17.329999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>51.6</v>
+      </c>
+      <c r="N9" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>6.6000000000000014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45513</v>
+      </c>
+      <c r="B10" s="3">
+        <v>31.58</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>49</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>125.58</v>
+      </c>
+      <c r="N10" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>80.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45514</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C11" s="3">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3">
+        <v>125</v>
+      </c>
+      <c r="E11" s="3">
+        <v>60</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I11" s="3">
+        <v>85.83</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>354.63</v>
+      </c>
+      <c r="N11" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>223.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45515</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>68.8</v>
+      </c>
+      <c r="N12" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>23.799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>57</v>
+      </c>
+      <c r="N13" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>89</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>136.80000000000001</v>
+      </c>
+      <c r="N14" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>91.800000000000011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45518</v>
+      </c>
+      <c r="B15" s="3">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>83</v>
+      </c>
+      <c r="N15" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B16" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>61.9</v>
+      </c>
+      <c r="N16" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>70</v>
+      </c>
+      <c r="N17" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45521</v>
+      </c>
+      <c r="B18" s="3">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
+        <v>899</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>957</v>
+      </c>
+      <c r="N18" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45522</v>
+      </c>
+      <c r="B19" s="3">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>105</v>
+      </c>
+      <c r="N19" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B20" s="3">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>73</v>
+      </c>
+      <c r="N20" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>70</v>
+      </c>
+      <c r="N21" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45525</v>
+      </c>
+      <c r="B22" s="3">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>101</v>
+      </c>
+      <c r="N22" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B23" s="7">
+        <v>67</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>112</v>
+      </c>
+      <c r="N23" s="7">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45527</v>
+      </c>
+      <c r="B24" s="3">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>102</v>
+      </c>
+      <c r="N24" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45528</v>
+      </c>
+      <c r="B25" s="3">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
+        <v>45</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>118</v>
+      </c>
+      <c r="N25" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45529</v>
+      </c>
+      <c r="B26" s="3">
+        <v>38</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>12</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>95</v>
+      </c>
+      <c r="N26" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B27" s="3">
+        <v>20</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>65</v>
+      </c>
+      <c r="N27" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B28" s="3">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3">
+        <v>550</v>
+      </c>
+      <c r="M28" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>613.9</v>
+      </c>
+      <c r="N28" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>568.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B29" s="3">
+        <v>23</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>73</v>
+      </c>
+      <c r="N29" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45533</v>
+      </c>
+      <c r="B30" s="3">
+        <v>239</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <f t="shared" ref="H30" si="1">2700/60</f>
+        <v>45</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>284</v>
+      </c>
+      <c r="N30" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B31" s="3">
+        <v>32</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
+        <v>100</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>177</v>
+      </c>
+      <c r="N31" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B32" s="3">
+        <v>136</v>
+      </c>
+      <c r="C32" s="3">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>260</v>
+      </c>
+      <c r="F32" s="3">
+        <v>16</v>
+      </c>
+      <c r="G32" s="3">
+        <v>45</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3">
+        <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>515</v>
+      </c>
+      <c r="N32" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>470</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3">
+        <f>SUM(B2:B32)</f>
+        <v>1040.8</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" ref="C33:I33" si="2">SUM(C2:C32)</f>
+        <v>121.03</v>
+      </c>
+      <c r="D33" s="3">
+        <f>SUM(D2:D32)</f>
+        <v>425</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="2"/>
+        <v>503</v>
+      </c>
+      <c r="F33" s="3">
+        <f>SUM(F2:F32)</f>
+        <v>43</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="2"/>
+        <v>4441</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="2"/>
+        <v>1395</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="2"/>
+        <v>185.82999999999998</v>
+      </c>
+      <c r="J33" s="3">
+        <f>SUM(J2:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <f>SUM(K2:K32)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <f>SUM(L2:L32)</f>
+        <v>550</v>
+      </c>
+      <c r="M33" s="5">
+        <f>SUM(M2:M32)</f>
+        <v>8704.66</v>
+      </c>
+      <c r="N33" s="3">
+        <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
+        <v>7123.83</v>
+      </c>
+      <c r="O33" s="2">
+        <f>-(2157+290+49)</f>
+        <v>-2496</v>
+      </c>
+      <c r="P33" s="3">
+        <f>表2_4789[[#This Row],[合计（）]]+O33</f>
+        <v>4627.83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3">
+        <f>SUM(B33:L33)</f>
+        <v>8704.66</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="N2:N32">
+    <cfRule type="cellIs" dxfId="123" priority="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEEEA3E-D135-4607-9594-E31CD420F3BB}">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.9140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B2" s="3">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H31" si="0">2700/60</f>
+        <v>45</v>
+      </c>
+      <c r="I2" s="3">
+        <v>100</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>171</v>
+      </c>
+      <c r="N2" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B3" s="3">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>76</v>
+      </c>
+      <c r="N3" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B4" s="3">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>60</v>
+      </c>
+      <c r="N4" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.63</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>54.129999999999995</v>
+      </c>
+      <c r="N5" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>9.1299999999999955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B6" s="3">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>495</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>613.5</v>
+      </c>
+      <c r="N6" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>568.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B7" s="3">
+        <v>19.8</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>87.699999999999989</v>
+      </c>
+      <c r="N7" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>42.699999999999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45542</v>
+      </c>
+      <c r="B8" s="3">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>40</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>122</v>
+      </c>
+      <c r="N8" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45543</v>
+      </c>
+      <c r="B9" s="3">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>97</v>
+      </c>
+      <c r="N9" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B10" s="3">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>82</v>
+      </c>
+      <c r="N10" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>51</v>
+      </c>
+      <c r="N11" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45546</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>49.5</v>
+      </c>
+      <c r="N12" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B13" s="3">
+        <v>11.85</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>16.38</v>
+      </c>
+      <c r="G13" s="3">
+        <v>224</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>297.23</v>
+      </c>
+      <c r="N13" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>252.23000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <f>24.58+6.12+83.41+116.21+49.54+50.56+61.06+109.18</f>
+        <v>500.66</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>545.66000000000008</v>
+      </c>
+      <c r="N14" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>500.66000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45549</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <f>14.36+11.47+101.12+133.95+50.56+96</f>
+        <v>407.46</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>452.46</v>
+      </c>
+      <c r="N15" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>407.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45550</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <f>119+29.77+101+222.41+35.34+5.69</f>
+        <v>513.21</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>558.21</v>
+      </c>
+      <c r="N16" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>513.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45551</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <f>7.6+207.38+414.75+23.42</f>
+        <v>653.15</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>698.15</v>
+      </c>
+      <c r="N17" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>653.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45552</v>
+      </c>
+      <c r="B18" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3">
+        <f>156.89+28.7+40.42+576.86+40.55+33.96+7.6</f>
+        <v>884.98</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>971.78</v>
+      </c>
+      <c r="N18" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>926.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B19" s="3">
+        <v>56</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>101</v>
+      </c>
+      <c r="N19" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45554</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.82</v>
+      </c>
+      <c r="D20" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>32</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>96.12</v>
+      </c>
+      <c r="N20" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>51.120000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B21" s="3">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>85</v>
+      </c>
+      <c r="N21" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45556</v>
+      </c>
+      <c r="B22" s="3">
+        <v>249</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>377</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>671</v>
+      </c>
+      <c r="N22" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45557</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
+        <v>29</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>74</v>
+      </c>
+      <c r="N23" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B24" s="3">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>59</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>120</v>
+      </c>
+      <c r="N24" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>55.9</v>
+      </c>
+      <c r="N25" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>10.899999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45560</v>
+      </c>
+      <c r="B26" s="3">
+        <v>62</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>107</v>
+      </c>
+      <c r="N26" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45561</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3.29</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>52.19</v>
+      </c>
+      <c r="N27" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>7.1899999999999977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B28" s="3">
+        <v>39</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>86</v>
+      </c>
+      <c r="N28" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45563</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>27</v>
+      </c>
+      <c r="F29" s="3">
+        <v>16</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>94</v>
+      </c>
+      <c r="N29" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45564</v>
+      </c>
+      <c r="B30" s="3">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>97</v>
+      </c>
+      <c r="N30" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B31" s="3">
+        <v>32</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3">
+        <v>69</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3">
+        <f>SUM(表2_45610[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>156</v>
+      </c>
+      <c r="N31" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" ref="B32:M32" si="1">SUM(B2:B31)</f>
+        <v>861.75</v>
+      </c>
+      <c r="C32" s="3">
+        <f>SUM(C3:C31)</f>
+        <v>57.24</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="1"/>
+        <v>57.8</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="1"/>
+        <v>587.9</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="1"/>
+        <v>49.379999999999995</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="1"/>
+        <v>3718.46</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="1"/>
+        <v>1350</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="1"/>
+        <v>6782.53</v>
+      </c>
+      <c r="N32" s="3">
+        <f>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</f>
+        <v>5332.53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3">
+        <f>SUM(B32:L32)</f>
+        <v>6782.5300000000007</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="N2:N31">
+    <cfRule type="cellIs" dxfId="92" priority="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/personal space(program)/accountBook2024.xlsx
+++ b/personal space(program)/accountBook2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitcode\zhubiye\personal space(program)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hzhu41/myself/personGit/zhubiye/personal space(program)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF72600-D7F7-4F8F-B731-EB561832C5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7005996A-6202-D94A-A4C0-8055259355C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="-13068" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16800" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024.01" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="2024.09" sheetId="10" r:id="rId9"/>
     <sheet name="2024.10" sheetId="11" r:id="rId10"/>
     <sheet name="2024.11" sheetId="12" r:id="rId11"/>
-    <sheet name="年度总结" sheetId="2" r:id="rId12"/>
+    <sheet name="2024.12" sheetId="13" r:id="rId12"/>
+    <sheet name="年度总结" sheetId="2" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,9 +121,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,78 +179,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="341">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+  <dxfs count="372">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -257,65 +249,58 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -329,123 +314,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -456,123 +324,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -583,123 +334,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -710,123 +344,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -837,123 +354,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -964,123 +364,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1091,123 +374,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1218,123 +384,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1345,123 +394,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1472,123 +404,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1597,6 +412,1310 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1612,25 +1731,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}" name="表2" displayName="表2" ref="A1:N34" totalsRowCount="1" headerRowDxfId="339" dataDxfId="338">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}" name="表2" displayName="表2" ref="A1:N34" totalsRowCount="1" headerRowDxfId="371" dataDxfId="370">
   <autoFilter ref="A1:N33" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{59D84569-A8BB-46A5-9CBC-5EF68588EE35}" name="日期" dataDxfId="337" totalsRowDxfId="336"/>
-    <tableColumn id="2" xr3:uid="{2C662677-3D8C-4D8B-AE1F-E2248B7ABFF7}" name="吃饭" dataDxfId="335" totalsRowDxfId="334"/>
-    <tableColumn id="3" xr3:uid="{AE70D7D4-9857-40D5-8BEB-34BF0C4CCA7A}" name="馋" dataDxfId="333" totalsRowDxfId="332"/>
-    <tableColumn id="4" xr3:uid="{F3975E93-63B6-478C-B0F2-56460FBF1A23}" name="小余" dataDxfId="331" totalsRowDxfId="330"/>
-    <tableColumn id="5" xr3:uid="{94F8752A-FBB0-4CE8-9D51-6324D8BBC87E}" name="生活" dataDxfId="329" totalsRowDxfId="328"/>
-    <tableColumn id="15" xr3:uid="{30FDD512-0876-4E61-969E-6DA35E286B2C}" name="交通" dataDxfId="327" totalsRowDxfId="326"/>
-    <tableColumn id="6" xr3:uid="{5C513997-5C16-4839-95D1-22245123DE2F}" name="爱好" dataDxfId="325" totalsRowDxfId="324"/>
-    <tableColumn id="7" xr3:uid="{9E859D1E-EC02-49A9-BD03-97B27BCE859E}" name="房租" dataDxfId="323" totalsRowDxfId="322"/>
-    <tableColumn id="8" xr3:uid="{EB58BFC7-02DA-46D2-AAFC-A0BA1323BE9D}" name="水电话费" dataDxfId="321" totalsRowDxfId="320"/>
-    <tableColumn id="9" xr3:uid="{A2A17D77-95A1-459A-90A9-931CF7EEAF21}" name="懒" dataDxfId="319" totalsRowDxfId="318"/>
-    <tableColumn id="11" xr3:uid="{FFABE2C4-74EE-4656-838D-CB10D6D9D4E8}" name="玩" dataDxfId="317" totalsRowDxfId="316"/>
-    <tableColumn id="10" xr3:uid="{570141E9-E92B-4C59-AD38-CCA1569BD90C}" name="学习阅读" totalsRowFunction="custom" dataDxfId="315" totalsRowDxfId="314">
+    <tableColumn id="1" xr3:uid="{59D84569-A8BB-46A5-9CBC-5EF68588EE35}" name="日期" dataDxfId="369" totalsRowDxfId="368"/>
+    <tableColumn id="2" xr3:uid="{2C662677-3D8C-4D8B-AE1F-E2248B7ABFF7}" name="吃饭" dataDxfId="367" totalsRowDxfId="366"/>
+    <tableColumn id="3" xr3:uid="{AE70D7D4-9857-40D5-8BEB-34BF0C4CCA7A}" name="馋" dataDxfId="365" totalsRowDxfId="364"/>
+    <tableColumn id="4" xr3:uid="{F3975E93-63B6-478C-B0F2-56460FBF1A23}" name="小余" dataDxfId="363" totalsRowDxfId="362"/>
+    <tableColumn id="5" xr3:uid="{94F8752A-FBB0-4CE8-9D51-6324D8BBC87E}" name="生活" dataDxfId="361" totalsRowDxfId="360"/>
+    <tableColumn id="15" xr3:uid="{30FDD512-0876-4E61-969E-6DA35E286B2C}" name="交通" dataDxfId="359" totalsRowDxfId="358"/>
+    <tableColumn id="6" xr3:uid="{5C513997-5C16-4839-95D1-22245123DE2F}" name="爱好" dataDxfId="357" totalsRowDxfId="356"/>
+    <tableColumn id="7" xr3:uid="{9E859D1E-EC02-49A9-BD03-97B27BCE859E}" name="房租" dataDxfId="355" totalsRowDxfId="354"/>
+    <tableColumn id="8" xr3:uid="{EB58BFC7-02DA-46D2-AAFC-A0BA1323BE9D}" name="水电话费" dataDxfId="353" totalsRowDxfId="352"/>
+    <tableColumn id="9" xr3:uid="{A2A17D77-95A1-459A-90A9-931CF7EEAF21}" name="懒" dataDxfId="351" totalsRowDxfId="350"/>
+    <tableColumn id="11" xr3:uid="{FFABE2C4-74EE-4656-838D-CB10D6D9D4E8}" name="玩" dataDxfId="349" totalsRowDxfId="348"/>
+    <tableColumn id="10" xr3:uid="{570141E9-E92B-4C59-AD38-CCA1569BD90C}" name="学习阅读" totalsRowFunction="custom" dataDxfId="347" totalsRowDxfId="346">
       <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{39BD7172-0D5C-49D9-87F6-B35B3F5628DB}" name="合计" dataDxfId="313" totalsRowDxfId="312"/>
-    <tableColumn id="12" xr3:uid="{D46BD491-9DFD-4738-8C08-9D38C5B47D89}" name="合计（）" dataDxfId="311" totalsRowDxfId="310">
+    <tableColumn id="13" xr3:uid="{39BD7172-0D5C-49D9-87F6-B35B3F5628DB}" name="合计" dataDxfId="345" totalsRowDxfId="344"/>
+    <tableColumn id="12" xr3:uid="{D46BD491-9DFD-4738-8C08-9D38C5B47D89}" name="合计（）" dataDxfId="343" totalsRowDxfId="342">
       <calculatedColumnFormula>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1639,25 +1758,25 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A7FC55B8-A0ED-47F6-BE87-D05493AC4049}" name="表2_478911" displayName="表2_478911" ref="A1:N34" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A7FC55B8-A0ED-47F6-BE87-D05493AC4049}" name="表2_478911" displayName="表2_478911" ref="A1:N34" totalsRowCount="1" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="A1:N33" xr:uid="{6C7D2DC4-9681-4990-8C7D-41F70811D8BA}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{2806B019-4022-4DD1-B3E2-739EC105536D}" name="日期" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{61468C3B-7D00-4589-A635-EF4A9B15CF7A}" name="吃饭" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{D37DE389-3F6B-4BD9-AC78-1C80D0046E87}" name="馋" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{1372F126-D909-4262-9A98-8DB88F12E3F3}" name="小余" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{8A10186D-4310-47A8-A930-211CEBD4B09A}" name="生活" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="15" xr3:uid="{0CA3C52B-2715-4B34-A7A1-F620DC76A618}" name="交通" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{EFE22ED3-3E48-4926-BC9A-F2145F9F6FB6}" name="爱好" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{74888BF2-64F2-45D6-800A-7421CC44DC46}" name="房租" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{F9491386-4BD8-4B97-A32A-0F56B385B5FF}" name="水电话费" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{16B50031-1580-482E-97E3-F7F6562762A8}" name="懒" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{7D43A35C-2BF4-466F-BCC9-381C9752C1BA}" name="玩" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{3EF9D836-7C8C-4383-93DB-366DB0B6A2C6}" name="学习阅读" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="1" xr3:uid="{2806B019-4022-4DD1-B3E2-739EC105536D}" name="日期" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{61468C3B-7D00-4589-A635-EF4A9B15CF7A}" name="吃饭" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{D37DE389-3F6B-4BD9-AC78-1C80D0046E87}" name="馋" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{1372F126-D909-4262-9A98-8DB88F12E3F3}" name="小余" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{8A10186D-4310-47A8-A930-211CEBD4B09A}" name="生活" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="15" xr3:uid="{0CA3C52B-2715-4B34-A7A1-F620DC76A618}" name="交通" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{EFE22ED3-3E48-4926-BC9A-F2145F9F6FB6}" name="爱好" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{74888BF2-64F2-45D6-800A-7421CC44DC46}" name="房租" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{F9491386-4BD8-4B97-A32A-0F56B385B5FF}" name="水电话费" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="9" xr3:uid="{16B50031-1580-482E-97E3-F7F6562762A8}" name="懒" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="11" xr3:uid="{7D43A35C-2BF4-466F-BCC9-381C9752C1BA}" name="玩" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{3EF9D836-7C8C-4383-93DB-366DB0B6A2C6}" name="学习阅读" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
       <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{72F050C2-1CE1-4450-AC20-7049FCDC209B}" name="合计" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="12" xr3:uid="{13499077-25B4-4D1D-972E-D5E5DF56CDC4}" name="合计（）" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="13" xr3:uid="{72F050C2-1CE1-4450-AC20-7049FCDC209B}" name="合计" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="12" xr3:uid="{13499077-25B4-4D1D-972E-D5E5DF56CDC4}" name="合计（）" dataDxfId="73" totalsRowDxfId="72">
       <calculatedColumnFormula>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1666,27 +1785,27 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{67D8F19C-2DD0-4C59-A51B-15F75423EB7C}" name="表2_4561012" displayName="表2_4561012" ref="A1:N33" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{67D8F19C-2DD0-4C59-A51B-15F75423EB7C}" name="表2_4561012" displayName="表2_4561012" ref="A1:N33" totalsRowCount="1" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A1:N32" xr:uid="{4783F111-60E6-47B5-9AB1-437C496BFA64}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{C618F720-E758-4091-95B9-A16A4EBA1533}" name="日期" dataDxfId="27" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{1F96E219-DB50-486F-8570-DBF44B38E22B}" name="吃饭" dataDxfId="26" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{61EAFF41-5888-489B-9196-DD786161C5A4}" name="馋" dataDxfId="25" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{6E99EAD5-EE3A-451E-A248-40CBED41332E}" name="小余" dataDxfId="24" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{18C21F06-9B37-4402-892B-FCA37741E227}" name="生活" dataDxfId="23" totalsRowDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{80AB4C13-A583-4A87-AD6C-EBEB3448A8FA}" name="交通" dataDxfId="22" totalsRowDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{FEDAECBF-1E5D-42BF-8136-D0FBD99DC3D5}" name="爱好" dataDxfId="21" totalsRowDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{14F9E726-25B5-46A2-96B9-D5992FA69E71}" name="房租" dataDxfId="20" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{C618F720-E758-4091-95B9-A16A4EBA1533}" name="日期" dataDxfId="69" totalsRowDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{1F96E219-DB50-486F-8570-DBF44B38E22B}" name="吃饭" dataDxfId="68" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{61EAFF41-5888-489B-9196-DD786161C5A4}" name="馋" dataDxfId="67" totalsRowDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{6E99EAD5-EE3A-451E-A248-40CBED41332E}" name="小余" dataDxfId="66" totalsRowDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{18C21F06-9B37-4402-892B-FCA37741E227}" name="生活" dataDxfId="65" totalsRowDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{80AB4C13-A583-4A87-AD6C-EBEB3448A8FA}" name="交通" dataDxfId="64" totalsRowDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{FEDAECBF-1E5D-42BF-8136-D0FBD99DC3D5}" name="爱好" dataDxfId="63" totalsRowDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{14F9E726-25B5-46A2-96B9-D5992FA69E71}" name="房租" dataDxfId="62" totalsRowDxfId="20">
       <calculatedColumnFormula>2700/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{63C1CCED-5794-4D08-8697-AB2B01E7754E}" name="水电话费" dataDxfId="19" totalsRowDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{6E91D01F-56E9-4E7F-B53D-3D3FF4A281E3}" name="懒" dataDxfId="18" totalsRowDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{8852A42C-B4B0-429A-9AE4-B9BF56FE665D}" name="玩" dataDxfId="17" totalsRowDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{C1BD7762-6CD1-4FD0-8EBD-97061B85B0B0}" name="学习阅读" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="2">
+    <tableColumn id="8" xr3:uid="{63C1CCED-5794-4D08-8697-AB2B01E7754E}" name="水电话费" dataDxfId="61" totalsRowDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{6E91D01F-56E9-4E7F-B53D-3D3FF4A281E3}" name="懒" dataDxfId="60" totalsRowDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{8852A42C-B4B0-429A-9AE4-B9BF56FE665D}" name="玩" dataDxfId="59" totalsRowDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{C1BD7762-6CD1-4FD0-8EBD-97061B85B0B0}" name="学习阅读" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="16">
       <totalsRowFormula>SUM(B32:L32)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{50DF8B32-D09B-4C54-A088-827A73BFB4FC}" name="合计" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{6E500027-168E-49B0-AD9B-D8F1510ABA55}" name="合计（）" dataDxfId="14" totalsRowDxfId="0">
+    <tableColumn id="13" xr3:uid="{50DF8B32-D09B-4C54-A088-827A73BFB4FC}" name="合计" dataDxfId="57" totalsRowDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{6E500027-168E-49B0-AD9B-D8F1510ABA55}" name="合计（）" dataDxfId="56" totalsRowDxfId="14">
       <calculatedColumnFormula>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1694,26 +1813,53 @@
 </table>
 </file>
 
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{645319BD-A988-5446-B903-1527987D9691}" name="表2_47891113" displayName="表2_47891113" ref="A1:N34" totalsRowCount="1" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="A1:N33" xr:uid="{6C7D2DC4-9681-4990-8C7D-41F70811D8BA}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{EA524901-D4EC-A143-A509-4FD275E97CC6}" name="日期" dataDxfId="53" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{C06497D2-2A0D-2649-827A-35C6E82D9D91}" name="吃饭" dataDxfId="52" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{6A7BC9E3-719C-F348-AB4E-BB0E02ADE237}" name="馋" dataDxfId="51" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{F137B229-6D97-B64D-9BF5-8326E14B5C8B}" name="小余" dataDxfId="50" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{198A7588-A5CE-5E4A-A0BF-6145E223EB5D}" name="生活" dataDxfId="49" totalsRowDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{56B8C983-13AB-9B4E-9E7C-6C4D07E6B38D}" name="交通" dataDxfId="48" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{B58B3E08-229C-A445-8F80-C55776604CC5}" name="爱好" dataDxfId="47" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{38F24E93-E9B0-EB4F-B366-FB004F9495B5}" name="房租" dataDxfId="46" totalsRowDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{847F5526-E01C-B84B-8D3E-EB2FA614CB52}" name="水电话费" dataDxfId="45" totalsRowDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{5488EA85-2373-B948-9F06-8611ADD0094D}" name="懒" dataDxfId="44" totalsRowDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{E48F9FAC-A487-E045-8C67-B5BA7561B072}" name="玩" dataDxfId="43" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{98778E7E-4066-4942-ABC3-316D523FDD18}" name="学习阅读" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="2">
+      <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{E0C49954-4FF8-984C-B61C-B7A706A680F7}" name="合计" dataDxfId="41" totalsRowDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{34F0172F-AFB8-5846-9873-F3D4B9DE1127}" name="合计（）" dataDxfId="40" totalsRowDxfId="0">
+      <calculatedColumnFormula>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9175EC8C-CC53-4A27-BB75-0A6CACDDDE0C}" name="表2_2" displayName="表2_2" ref="A1:N32" totalsRowCount="1" headerRowDxfId="308" dataDxfId="307">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9175EC8C-CC53-4A27-BB75-0A6CACDDDE0C}" name="表2_2" displayName="表2_2" ref="A1:N32" totalsRowCount="1" headerRowDxfId="341" dataDxfId="340">
   <autoFilter ref="A1:N31" xr:uid="{9175EC8C-CC53-4A27-BB75-0A6CACDDDE0C}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{110B2F1A-B6BF-44BF-ACB1-F19B6A141F34}" name="日期" dataDxfId="306" totalsRowDxfId="305"/>
-    <tableColumn id="2" xr3:uid="{BC728776-957B-44F1-B2FE-57D5D4CA45FA}" name="吃饭" dataDxfId="304" totalsRowDxfId="303"/>
-    <tableColumn id="3" xr3:uid="{8F707454-87C8-4D1C-B00D-DAA5509EC371}" name="馋" dataDxfId="302" totalsRowDxfId="301"/>
-    <tableColumn id="4" xr3:uid="{893D28D4-9761-43F7-81A7-873346A1ADE0}" name="小余" dataDxfId="300" totalsRowDxfId="299"/>
-    <tableColumn id="5" xr3:uid="{EF4D85C9-0B5C-426B-825B-4BB32A9AC4FF}" name="生活" dataDxfId="298" totalsRowDxfId="297"/>
-    <tableColumn id="15" xr3:uid="{3DE63BAF-E6B5-4B67-9322-A7FF990070F8}" name="交通" dataDxfId="296" totalsRowDxfId="295"/>
-    <tableColumn id="6" xr3:uid="{9FDB285E-FB04-4A56-A0DF-6982D921EEA6}" name="爱好" dataDxfId="294" totalsRowDxfId="293"/>
-    <tableColumn id="7" xr3:uid="{1C6A890D-937B-45C4-A7E1-1DDAD63948C1}" name="房租" dataDxfId="292" totalsRowDxfId="291"/>
-    <tableColumn id="8" xr3:uid="{6DA6BE0D-CF7D-4C12-B5D1-CEC533B474AF}" name="水电话费" dataDxfId="290" totalsRowDxfId="289"/>
-    <tableColumn id="9" xr3:uid="{C996CD05-35A0-4BD7-93D5-5E73DF849EA1}" name="懒" dataDxfId="288" totalsRowDxfId="287"/>
-    <tableColumn id="11" xr3:uid="{B604065C-64D4-478F-A033-C45E23344456}" name="玩" dataDxfId="286" totalsRowDxfId="285"/>
-    <tableColumn id="10" xr3:uid="{4C0DD5C4-8F9D-484C-8109-61CDBB344EB6}" name="学习阅读" totalsRowFunction="custom" dataDxfId="284" totalsRowDxfId="283">
+    <tableColumn id="1" xr3:uid="{110B2F1A-B6BF-44BF-ACB1-F19B6A141F34}" name="日期" dataDxfId="339" totalsRowDxfId="338"/>
+    <tableColumn id="2" xr3:uid="{BC728776-957B-44F1-B2FE-57D5D4CA45FA}" name="吃饭" dataDxfId="337" totalsRowDxfId="336"/>
+    <tableColumn id="3" xr3:uid="{8F707454-87C8-4D1C-B00D-DAA5509EC371}" name="馋" dataDxfId="335" totalsRowDxfId="334"/>
+    <tableColumn id="4" xr3:uid="{893D28D4-9761-43F7-81A7-873346A1ADE0}" name="小余" dataDxfId="333" totalsRowDxfId="332"/>
+    <tableColumn id="5" xr3:uid="{EF4D85C9-0B5C-426B-825B-4BB32A9AC4FF}" name="生活" dataDxfId="331" totalsRowDxfId="330"/>
+    <tableColumn id="15" xr3:uid="{3DE63BAF-E6B5-4B67-9322-A7FF990070F8}" name="交通" dataDxfId="329" totalsRowDxfId="328"/>
+    <tableColumn id="6" xr3:uid="{9FDB285E-FB04-4A56-A0DF-6982D921EEA6}" name="爱好" dataDxfId="327" totalsRowDxfId="326"/>
+    <tableColumn id="7" xr3:uid="{1C6A890D-937B-45C4-A7E1-1DDAD63948C1}" name="房租" dataDxfId="325" totalsRowDxfId="324"/>
+    <tableColumn id="8" xr3:uid="{6DA6BE0D-CF7D-4C12-B5D1-CEC533B474AF}" name="水电话费" dataDxfId="323" totalsRowDxfId="322"/>
+    <tableColumn id="9" xr3:uid="{C996CD05-35A0-4BD7-93D5-5E73DF849EA1}" name="懒" dataDxfId="321" totalsRowDxfId="320"/>
+    <tableColumn id="11" xr3:uid="{B604065C-64D4-478F-A033-C45E23344456}" name="玩" dataDxfId="319" totalsRowDxfId="318"/>
+    <tableColumn id="10" xr3:uid="{4C0DD5C4-8F9D-484C-8109-61CDBB344EB6}" name="学习阅读" totalsRowFunction="custom" dataDxfId="317" totalsRowDxfId="316">
       <totalsRowFormula>SUM(B31:L31)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B730F2EE-713B-4A97-9E17-3623399D9E5B}" name="合计" dataDxfId="282" totalsRowDxfId="281"/>
-    <tableColumn id="12" xr3:uid="{2F93C786-9B3B-42EA-B843-75A20D43DF83}" name="合计（）" dataDxfId="280" totalsRowDxfId="279">
+    <tableColumn id="13" xr3:uid="{B730F2EE-713B-4A97-9E17-3623399D9E5B}" name="合计" dataDxfId="315" totalsRowDxfId="314"/>
+    <tableColumn id="12" xr3:uid="{2F93C786-9B3B-42EA-B843-75A20D43DF83}" name="合计（）" dataDxfId="313" totalsRowDxfId="312">
       <calculatedColumnFormula>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1722,25 +1868,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F2CFF680-2EC1-4599-BEE3-C1EC2946A723}" name="表2_4" displayName="表2_4" ref="A1:N34" totalsRowCount="1" headerRowDxfId="277" dataDxfId="276">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F2CFF680-2EC1-4599-BEE3-C1EC2946A723}" name="表2_4" displayName="表2_4" ref="A1:N34" totalsRowCount="1" headerRowDxfId="311" dataDxfId="310">
   <autoFilter ref="A1:N33" xr:uid="{F2CFF680-2EC1-4599-BEE3-C1EC2946A723}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{B95FE3FC-E3C0-474F-A7EE-6ADF275C4FE5}" name="日期" dataDxfId="275" totalsRowDxfId="274"/>
-    <tableColumn id="2" xr3:uid="{8B36C720-4E72-4E31-AECC-7DC7F136FF96}" name="吃饭" dataDxfId="273" totalsRowDxfId="272"/>
-    <tableColumn id="3" xr3:uid="{2DF08235-AFD5-4D27-8CC2-56AAE7726D58}" name="馋" dataDxfId="271" totalsRowDxfId="270"/>
-    <tableColumn id="4" xr3:uid="{701238C8-2D13-4DF6-90DF-82C04F4EBDFC}" name="小余" dataDxfId="269" totalsRowDxfId="268"/>
-    <tableColumn id="5" xr3:uid="{65075409-AA0C-4A63-B36C-8BAF1B88F331}" name="生活" dataDxfId="267" totalsRowDxfId="266"/>
-    <tableColumn id="15" xr3:uid="{488F3EB4-D5B5-4A6F-B8F5-BB183F879D60}" name="交通" dataDxfId="265" totalsRowDxfId="264"/>
-    <tableColumn id="6" xr3:uid="{FFADE1D3-63B3-4E54-A5AF-B1784A8D293B}" name="爱好" dataDxfId="263" totalsRowDxfId="262"/>
-    <tableColumn id="7" xr3:uid="{DA4A40FF-486B-4A95-A2F9-06CE392D8041}" name="房租" dataDxfId="261" totalsRowDxfId="260"/>
-    <tableColumn id="8" xr3:uid="{FAE36F53-4A9E-40A8-B772-826119FD7E66}" name="水电话费" dataDxfId="259" totalsRowDxfId="258"/>
-    <tableColumn id="9" xr3:uid="{8F64A473-D9DA-4B9E-81EC-3DB69653CCE5}" name="懒" dataDxfId="257" totalsRowDxfId="256"/>
-    <tableColumn id="11" xr3:uid="{3754F808-A1ED-4C65-8182-083C24468AF4}" name="玩" dataDxfId="255" totalsRowDxfId="254"/>
-    <tableColumn id="10" xr3:uid="{9E66DB33-7058-4D81-A11E-A34BBC7C4742}" name="学习阅读" totalsRowFunction="custom" dataDxfId="253" totalsRowDxfId="252">
+    <tableColumn id="1" xr3:uid="{B95FE3FC-E3C0-474F-A7EE-6ADF275C4FE5}" name="日期" dataDxfId="309" totalsRowDxfId="308"/>
+    <tableColumn id="2" xr3:uid="{8B36C720-4E72-4E31-AECC-7DC7F136FF96}" name="吃饭" dataDxfId="307" totalsRowDxfId="306"/>
+    <tableColumn id="3" xr3:uid="{2DF08235-AFD5-4D27-8CC2-56AAE7726D58}" name="馋" dataDxfId="305" totalsRowDxfId="304"/>
+    <tableColumn id="4" xr3:uid="{701238C8-2D13-4DF6-90DF-82C04F4EBDFC}" name="小余" dataDxfId="303" totalsRowDxfId="302"/>
+    <tableColumn id="5" xr3:uid="{65075409-AA0C-4A63-B36C-8BAF1B88F331}" name="生活" dataDxfId="301" totalsRowDxfId="300"/>
+    <tableColumn id="15" xr3:uid="{488F3EB4-D5B5-4A6F-B8F5-BB183F879D60}" name="交通" dataDxfId="299" totalsRowDxfId="298"/>
+    <tableColumn id="6" xr3:uid="{FFADE1D3-63B3-4E54-A5AF-B1784A8D293B}" name="爱好" dataDxfId="297" totalsRowDxfId="296"/>
+    <tableColumn id="7" xr3:uid="{DA4A40FF-486B-4A95-A2F9-06CE392D8041}" name="房租" dataDxfId="295" totalsRowDxfId="294"/>
+    <tableColumn id="8" xr3:uid="{FAE36F53-4A9E-40A8-B772-826119FD7E66}" name="水电话费" dataDxfId="293" totalsRowDxfId="292"/>
+    <tableColumn id="9" xr3:uid="{8F64A473-D9DA-4B9E-81EC-3DB69653CCE5}" name="懒" dataDxfId="291" totalsRowDxfId="290"/>
+    <tableColumn id="11" xr3:uid="{3754F808-A1ED-4C65-8182-083C24468AF4}" name="玩" dataDxfId="289" totalsRowDxfId="288"/>
+    <tableColumn id="10" xr3:uid="{9E66DB33-7058-4D81-A11E-A34BBC7C4742}" name="学习阅读" totalsRowFunction="custom" dataDxfId="287" totalsRowDxfId="286">
       <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{093440BA-FE3B-4C1B-850D-9B426E707884}" name="合计" dataDxfId="251" totalsRowDxfId="250"/>
-    <tableColumn id="12" xr3:uid="{6EC3C015-E2D7-4E98-90A6-57C3BAA36B35}" name="合计（）" dataDxfId="249" totalsRowDxfId="248">
+    <tableColumn id="13" xr3:uid="{093440BA-FE3B-4C1B-850D-9B426E707884}" name="合计" dataDxfId="285" totalsRowDxfId="284"/>
+    <tableColumn id="12" xr3:uid="{6EC3C015-E2D7-4E98-90A6-57C3BAA36B35}" name="合计（）" dataDxfId="283" totalsRowDxfId="282">
       <calculatedColumnFormula>表2_4[[#This Row],[合计]]-表2_4[[#This Row],[房租]]-表2_4[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1749,25 +1895,25 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4783F111-60E6-47B5-9AB1-437C496BFA64}" name="表2_45" displayName="表2_45" ref="A1:N33" totalsRowCount="1" headerRowDxfId="246" dataDxfId="245">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4783F111-60E6-47B5-9AB1-437C496BFA64}" name="表2_45" displayName="表2_45" ref="A1:N33" totalsRowCount="1" headerRowDxfId="281" dataDxfId="280">
   <autoFilter ref="A1:N32" xr:uid="{4783F111-60E6-47B5-9AB1-437C496BFA64}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{253FD735-8925-47DC-9319-8F6CC7BEA25A}" name="日期" dataDxfId="244" totalsRowDxfId="243"/>
-    <tableColumn id="2" xr3:uid="{1D5E92BE-2B1C-47A3-815B-4AB06CC80A74}" name="吃饭" dataDxfId="242" totalsRowDxfId="241"/>
-    <tableColumn id="3" xr3:uid="{B6866B7B-720A-4511-8ABA-7AF6DB07BC3F}" name="馋" dataDxfId="240" totalsRowDxfId="239"/>
-    <tableColumn id="4" xr3:uid="{7C40FE36-49F5-4328-8C59-AAAE298CF610}" name="小余" dataDxfId="238" totalsRowDxfId="237"/>
-    <tableColumn id="5" xr3:uid="{3062D561-3042-41EA-9D56-F0D571200AE0}" name="生活" dataDxfId="236" totalsRowDxfId="235"/>
-    <tableColumn id="15" xr3:uid="{65B8ED49-88EA-4649-B1AD-483DD62949AF}" name="交通" dataDxfId="234" totalsRowDxfId="233"/>
-    <tableColumn id="6" xr3:uid="{32C3B1C3-0B70-4E65-9D77-F567F6F71141}" name="爱好" dataDxfId="232" totalsRowDxfId="231"/>
-    <tableColumn id="7" xr3:uid="{9E8DEC50-7226-406D-A9B7-0F78077CEE73}" name="房租" dataDxfId="230" totalsRowDxfId="229"/>
-    <tableColumn id="8" xr3:uid="{1B69408A-A9B1-4268-ADAF-B1F88C81A8C6}" name="水电话费" dataDxfId="228" totalsRowDxfId="227"/>
-    <tableColumn id="9" xr3:uid="{175CD47C-ED6F-4F5A-89EB-025613A11EB3}" name="懒" dataDxfId="226" totalsRowDxfId="225"/>
-    <tableColumn id="11" xr3:uid="{78C5E361-0822-44EE-9BD8-86A4AE5F34F7}" name="玩" dataDxfId="224" totalsRowDxfId="223"/>
-    <tableColumn id="10" xr3:uid="{6230A14F-6BCA-49F1-8069-2B889BC1C291}" name="学习阅读" totalsRowFunction="custom" dataDxfId="222" totalsRowDxfId="221">
+    <tableColumn id="1" xr3:uid="{253FD735-8925-47DC-9319-8F6CC7BEA25A}" name="日期" dataDxfId="279" totalsRowDxfId="278"/>
+    <tableColumn id="2" xr3:uid="{1D5E92BE-2B1C-47A3-815B-4AB06CC80A74}" name="吃饭" dataDxfId="277" totalsRowDxfId="276"/>
+    <tableColumn id="3" xr3:uid="{B6866B7B-720A-4511-8ABA-7AF6DB07BC3F}" name="馋" dataDxfId="275" totalsRowDxfId="274"/>
+    <tableColumn id="4" xr3:uid="{7C40FE36-49F5-4328-8C59-AAAE298CF610}" name="小余" dataDxfId="273" totalsRowDxfId="272"/>
+    <tableColumn id="5" xr3:uid="{3062D561-3042-41EA-9D56-F0D571200AE0}" name="生活" dataDxfId="271" totalsRowDxfId="270"/>
+    <tableColumn id="15" xr3:uid="{65B8ED49-88EA-4649-B1AD-483DD62949AF}" name="交通" dataDxfId="269" totalsRowDxfId="268"/>
+    <tableColumn id="6" xr3:uid="{32C3B1C3-0B70-4E65-9D77-F567F6F71141}" name="爱好" dataDxfId="267" totalsRowDxfId="266"/>
+    <tableColumn id="7" xr3:uid="{9E8DEC50-7226-406D-A9B7-0F78077CEE73}" name="房租" dataDxfId="265" totalsRowDxfId="264"/>
+    <tableColumn id="8" xr3:uid="{1B69408A-A9B1-4268-ADAF-B1F88C81A8C6}" name="水电话费" dataDxfId="263" totalsRowDxfId="262"/>
+    <tableColumn id="9" xr3:uid="{175CD47C-ED6F-4F5A-89EB-025613A11EB3}" name="懒" dataDxfId="261" totalsRowDxfId="260"/>
+    <tableColumn id="11" xr3:uid="{78C5E361-0822-44EE-9BD8-86A4AE5F34F7}" name="玩" dataDxfId="259" totalsRowDxfId="258"/>
+    <tableColumn id="10" xr3:uid="{6230A14F-6BCA-49F1-8069-2B889BC1C291}" name="学习阅读" totalsRowFunction="custom" dataDxfId="257" totalsRowDxfId="256">
       <totalsRowFormula>SUM(B32:L32)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{324358EF-836E-42BF-B637-20025D20A84F}" name="合计" dataDxfId="220" totalsRowDxfId="219"/>
-    <tableColumn id="12" xr3:uid="{D3173285-B7ED-4BDD-848D-690D731AC05D}" name="合计（）" dataDxfId="218" totalsRowDxfId="217">
+    <tableColumn id="13" xr3:uid="{324358EF-836E-42BF-B637-20025D20A84F}" name="合计" dataDxfId="255" totalsRowDxfId="254"/>
+    <tableColumn id="12" xr3:uid="{D3173285-B7ED-4BDD-848D-690D731AC05D}" name="合计（）" dataDxfId="253" totalsRowDxfId="252">
       <calculatedColumnFormula>表2_45[[#This Row],[合计]]-表2_45[[#This Row],[房租]]-表2_45[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1776,25 +1922,25 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6C7D2DC4-9681-4990-8C7D-41F70811D8BA}" name="表2_47" displayName="表2_47" ref="A1:N34" totalsRowCount="1" headerRowDxfId="215" dataDxfId="214">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6C7D2DC4-9681-4990-8C7D-41F70811D8BA}" name="表2_47" displayName="表2_47" ref="A1:N34" totalsRowCount="1" headerRowDxfId="251" dataDxfId="250">
   <autoFilter ref="A1:N33" xr:uid="{6C7D2DC4-9681-4990-8C7D-41F70811D8BA}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{74F0505F-93D3-4D6F-93D1-A9B1F8EE9B89}" name="日期" dataDxfId="213" totalsRowDxfId="212"/>
-    <tableColumn id="2" xr3:uid="{F517E882-8B97-462D-9008-25C6535C1394}" name="吃饭" dataDxfId="211" totalsRowDxfId="210"/>
-    <tableColumn id="3" xr3:uid="{BCD63472-400C-439E-A565-4F108DE430C4}" name="馋" dataDxfId="209" totalsRowDxfId="208"/>
-    <tableColumn id="4" xr3:uid="{FA3A6E54-D9ED-4E96-B1BD-699B0C9BDF29}" name="小余" dataDxfId="207" totalsRowDxfId="206"/>
-    <tableColumn id="5" xr3:uid="{B943C426-1FD4-49B1-B38D-16EF62561B05}" name="生活" dataDxfId="205" totalsRowDxfId="204"/>
-    <tableColumn id="15" xr3:uid="{71F732A5-6C4D-43A1-9263-10BED9F15A63}" name="交通" dataDxfId="203" totalsRowDxfId="202"/>
-    <tableColumn id="6" xr3:uid="{C517105C-C5D6-4615-8006-1942D76F1EFA}" name="爱好" dataDxfId="201" totalsRowDxfId="200"/>
-    <tableColumn id="7" xr3:uid="{2026C728-11B7-44C1-B7B7-5898A06406BB}" name="房租" dataDxfId="199" totalsRowDxfId="198"/>
-    <tableColumn id="8" xr3:uid="{010BC9D0-B40F-4BA0-B588-4485C9ABC790}" name="水电话费" dataDxfId="197" totalsRowDxfId="196"/>
-    <tableColumn id="9" xr3:uid="{C3AEE5AC-F787-49CB-8E34-FA72F902203B}" name="懒" dataDxfId="195" totalsRowDxfId="194"/>
-    <tableColumn id="11" xr3:uid="{692BC553-3866-4274-89D9-938123E93B86}" name="玩" dataDxfId="193" totalsRowDxfId="192"/>
-    <tableColumn id="10" xr3:uid="{1A470B39-AF0F-4558-8A01-1B3941FE09D3}" name="学习阅读" totalsRowFunction="custom" dataDxfId="191" totalsRowDxfId="190">
+    <tableColumn id="1" xr3:uid="{74F0505F-93D3-4D6F-93D1-A9B1F8EE9B89}" name="日期" dataDxfId="249" totalsRowDxfId="248"/>
+    <tableColumn id="2" xr3:uid="{F517E882-8B97-462D-9008-25C6535C1394}" name="吃饭" dataDxfId="247" totalsRowDxfId="246"/>
+    <tableColumn id="3" xr3:uid="{BCD63472-400C-439E-A565-4F108DE430C4}" name="馋" dataDxfId="245" totalsRowDxfId="244"/>
+    <tableColumn id="4" xr3:uid="{FA3A6E54-D9ED-4E96-B1BD-699B0C9BDF29}" name="小余" dataDxfId="243" totalsRowDxfId="242"/>
+    <tableColumn id="5" xr3:uid="{B943C426-1FD4-49B1-B38D-16EF62561B05}" name="生活" dataDxfId="241" totalsRowDxfId="240"/>
+    <tableColumn id="15" xr3:uid="{71F732A5-6C4D-43A1-9263-10BED9F15A63}" name="交通" dataDxfId="239" totalsRowDxfId="238"/>
+    <tableColumn id="6" xr3:uid="{C517105C-C5D6-4615-8006-1942D76F1EFA}" name="爱好" dataDxfId="237" totalsRowDxfId="236"/>
+    <tableColumn id="7" xr3:uid="{2026C728-11B7-44C1-B7B7-5898A06406BB}" name="房租" dataDxfId="235" totalsRowDxfId="234"/>
+    <tableColumn id="8" xr3:uid="{010BC9D0-B40F-4BA0-B588-4485C9ABC790}" name="水电话费" dataDxfId="233" totalsRowDxfId="232"/>
+    <tableColumn id="9" xr3:uid="{C3AEE5AC-F787-49CB-8E34-FA72F902203B}" name="懒" dataDxfId="231" totalsRowDxfId="230"/>
+    <tableColumn id="11" xr3:uid="{692BC553-3866-4274-89D9-938123E93B86}" name="玩" dataDxfId="229" totalsRowDxfId="228"/>
+    <tableColumn id="10" xr3:uid="{1A470B39-AF0F-4558-8A01-1B3941FE09D3}" name="学习阅读" totalsRowFunction="custom" dataDxfId="227" totalsRowDxfId="226">
       <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{45FDCD9A-7348-4954-A4C6-0876FD81425D}" name="合计" dataDxfId="189" totalsRowDxfId="188"/>
-    <tableColumn id="12" xr3:uid="{EFE54995-75C1-458E-847A-8DCFA0927C89}" name="合计（）" dataDxfId="187" totalsRowDxfId="186">
+    <tableColumn id="13" xr3:uid="{45FDCD9A-7348-4954-A4C6-0876FD81425D}" name="合计" dataDxfId="225" totalsRowDxfId="224"/>
+    <tableColumn id="12" xr3:uid="{EFE54995-75C1-458E-847A-8DCFA0927C89}" name="合计（）" dataDxfId="223" totalsRowDxfId="222">
       <calculatedColumnFormula>表2_47[[#This Row],[合计]]-表2_47[[#This Row],[房租]]-表2_47[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1803,25 +1949,25 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E1EF4EB3-8DCE-4611-93FB-0A64B2378F43}" name="表2_456" displayName="表2_456" ref="A1:N33" totalsRowCount="1" headerRowDxfId="184" dataDxfId="183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E1EF4EB3-8DCE-4611-93FB-0A64B2378F43}" name="表2_456" displayName="表2_456" ref="A1:N33" totalsRowCount="1" headerRowDxfId="221" dataDxfId="220">
   <autoFilter ref="A1:N32" xr:uid="{4783F111-60E6-47B5-9AB1-437C496BFA64}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{DC4C7EC2-FFA5-49AE-B5CE-FF5F9FFEC75B}" name="日期" dataDxfId="182" totalsRowDxfId="181"/>
-    <tableColumn id="2" xr3:uid="{BD577491-7BC8-4A46-8B9D-B6465A58793D}" name="吃饭" dataDxfId="180" totalsRowDxfId="179"/>
-    <tableColumn id="3" xr3:uid="{E6E0F346-6F32-40BF-B97B-58D0D86B2B79}" name="馋" dataDxfId="178" totalsRowDxfId="177"/>
-    <tableColumn id="4" xr3:uid="{FC1BD07D-C04F-4A94-ACFB-4B134370FF88}" name="小余" dataDxfId="176" totalsRowDxfId="175"/>
-    <tableColumn id="5" xr3:uid="{70E49A38-6380-4CFA-970D-21AF23C8D2FB}" name="生活" dataDxfId="174" totalsRowDxfId="173"/>
-    <tableColumn id="15" xr3:uid="{540B07C7-82A3-4E18-A9B5-CC7F510ECED4}" name="交通" dataDxfId="172" totalsRowDxfId="171"/>
-    <tableColumn id="6" xr3:uid="{F22A11BA-E075-43C0-8E3F-6FEA0B8CC7DB}" name="爱好" dataDxfId="170" totalsRowDxfId="169"/>
-    <tableColumn id="7" xr3:uid="{2764A31E-0AA6-485C-B6FE-4D912CEAB6BA}" name="房租" dataDxfId="168" totalsRowDxfId="167"/>
-    <tableColumn id="8" xr3:uid="{46855BB5-0279-48FE-8381-91E3B0B2F5D4}" name="水电话费" dataDxfId="166" totalsRowDxfId="165"/>
-    <tableColumn id="9" xr3:uid="{2E461C15-3D65-4C4D-8353-8E3F1FB92AD2}" name="懒" dataDxfId="164" totalsRowDxfId="163"/>
-    <tableColumn id="11" xr3:uid="{D51818B8-8E3F-4083-8C55-B52953A28CF3}" name="玩" dataDxfId="162" totalsRowDxfId="161"/>
-    <tableColumn id="10" xr3:uid="{70907E0D-86C4-4FEF-98C7-528A15A3F82A}" name="学习阅读" totalsRowFunction="custom" dataDxfId="160" totalsRowDxfId="159">
+    <tableColumn id="1" xr3:uid="{DC4C7EC2-FFA5-49AE-B5CE-FF5F9FFEC75B}" name="日期" dataDxfId="219" totalsRowDxfId="218"/>
+    <tableColumn id="2" xr3:uid="{BD577491-7BC8-4A46-8B9D-B6465A58793D}" name="吃饭" dataDxfId="217" totalsRowDxfId="216"/>
+    <tableColumn id="3" xr3:uid="{E6E0F346-6F32-40BF-B97B-58D0D86B2B79}" name="馋" dataDxfId="215" totalsRowDxfId="214"/>
+    <tableColumn id="4" xr3:uid="{FC1BD07D-C04F-4A94-ACFB-4B134370FF88}" name="小余" dataDxfId="213" totalsRowDxfId="212"/>
+    <tableColumn id="5" xr3:uid="{70E49A38-6380-4CFA-970D-21AF23C8D2FB}" name="生活" dataDxfId="211" totalsRowDxfId="210"/>
+    <tableColumn id="15" xr3:uid="{540B07C7-82A3-4E18-A9B5-CC7F510ECED4}" name="交通" dataDxfId="209" totalsRowDxfId="208"/>
+    <tableColumn id="6" xr3:uid="{F22A11BA-E075-43C0-8E3F-6FEA0B8CC7DB}" name="爱好" dataDxfId="207" totalsRowDxfId="206"/>
+    <tableColumn id="7" xr3:uid="{2764A31E-0AA6-485C-B6FE-4D912CEAB6BA}" name="房租" dataDxfId="205" totalsRowDxfId="204"/>
+    <tableColumn id="8" xr3:uid="{46855BB5-0279-48FE-8381-91E3B0B2F5D4}" name="水电话费" dataDxfId="203" totalsRowDxfId="202"/>
+    <tableColumn id="9" xr3:uid="{2E461C15-3D65-4C4D-8353-8E3F1FB92AD2}" name="懒" dataDxfId="201" totalsRowDxfId="200"/>
+    <tableColumn id="11" xr3:uid="{D51818B8-8E3F-4083-8C55-B52953A28CF3}" name="玩" dataDxfId="199" totalsRowDxfId="198"/>
+    <tableColumn id="10" xr3:uid="{70907E0D-86C4-4FEF-98C7-528A15A3F82A}" name="学习阅读" totalsRowFunction="custom" dataDxfId="197" totalsRowDxfId="196">
       <totalsRowFormula>SUM(B32:L32)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{BBC26AB6-5C58-426E-91FA-638F8671143C}" name="合计" dataDxfId="158" totalsRowDxfId="157"/>
-    <tableColumn id="12" xr3:uid="{4FC4CAD3-987F-4949-B839-388424E40787}" name="合计（）" dataDxfId="156" totalsRowDxfId="155">
+    <tableColumn id="13" xr3:uid="{BBC26AB6-5C58-426E-91FA-638F8671143C}" name="合计" dataDxfId="195" totalsRowDxfId="194"/>
+    <tableColumn id="12" xr3:uid="{4FC4CAD3-987F-4949-B839-388424E40787}" name="合计（）" dataDxfId="193" totalsRowDxfId="192">
       <calculatedColumnFormula>表2_456[[#This Row],[合计]]-表2_456[[#This Row],[房租]]-表2_456[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1830,25 +1976,25 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D5B38A3F-353C-446F-A3A2-A6F6396F531A}" name="表2_478" displayName="表2_478" ref="A1:N34" totalsRowCount="1" headerRowDxfId="153" dataDxfId="152">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D5B38A3F-353C-446F-A3A2-A6F6396F531A}" name="表2_478" displayName="表2_478" ref="A1:N34" totalsRowCount="1" headerRowDxfId="191" dataDxfId="190">
   <autoFilter ref="A1:N33" xr:uid="{6C7D2DC4-9681-4990-8C7D-41F70811D8BA}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{7DFA7012-48A7-49BB-9AC9-EA520DCFC819}" name="日期" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="2" xr3:uid="{1D83433A-7520-4385-9622-D8674FA26A32}" name="吃饭" dataDxfId="149" totalsRowDxfId="148"/>
-    <tableColumn id="3" xr3:uid="{4200389D-7C86-4B7C-A824-2D5DF7054612}" name="馋" dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="4" xr3:uid="{C19DD552-62C3-4C28-B00C-B05D99EB883F}" name="小余" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="5" xr3:uid="{2EAF35DC-1490-4624-A7E6-E69BED631DCF}" name="生活" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="15" xr3:uid="{8B116F3E-8AAF-41B0-8416-141426C8317E}" name="交通" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="6" xr3:uid="{BCC2D5FA-8678-4FC3-AFCA-F067021D2B63}" name="爱好" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="7" xr3:uid="{718CF231-F02E-4B57-A850-B8A59E063A27}" name="房租" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="8" xr3:uid="{8FF0AA7F-AFA7-4DF0-8F4B-0BCDC20C3917}" name="水电话费" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="9" xr3:uid="{AC89099A-C097-40C8-89E7-28D00A4BA6C2}" name="懒" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="11" xr3:uid="{20CC3AB5-9D68-44F7-A15B-F718AC40BD4A}" name="玩" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="10" xr3:uid="{6FC0A1FA-BD0C-4544-81F9-18E0A9A9E653}" name="学习阅读" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="128">
+    <tableColumn id="1" xr3:uid="{7DFA7012-48A7-49BB-9AC9-EA520DCFC819}" name="日期" dataDxfId="189" totalsRowDxfId="188"/>
+    <tableColumn id="2" xr3:uid="{1D83433A-7520-4385-9622-D8674FA26A32}" name="吃饭" dataDxfId="187" totalsRowDxfId="186"/>
+    <tableColumn id="3" xr3:uid="{4200389D-7C86-4B7C-A824-2D5DF7054612}" name="馋" dataDxfId="185" totalsRowDxfId="184"/>
+    <tableColumn id="4" xr3:uid="{C19DD552-62C3-4C28-B00C-B05D99EB883F}" name="小余" dataDxfId="183" totalsRowDxfId="182"/>
+    <tableColumn id="5" xr3:uid="{2EAF35DC-1490-4624-A7E6-E69BED631DCF}" name="生活" dataDxfId="181" totalsRowDxfId="180"/>
+    <tableColumn id="15" xr3:uid="{8B116F3E-8AAF-41B0-8416-141426C8317E}" name="交通" dataDxfId="179" totalsRowDxfId="178"/>
+    <tableColumn id="6" xr3:uid="{BCC2D5FA-8678-4FC3-AFCA-F067021D2B63}" name="爱好" dataDxfId="177" totalsRowDxfId="176"/>
+    <tableColumn id="7" xr3:uid="{718CF231-F02E-4B57-A850-B8A59E063A27}" name="房租" dataDxfId="175" totalsRowDxfId="174"/>
+    <tableColumn id="8" xr3:uid="{8FF0AA7F-AFA7-4DF0-8F4B-0BCDC20C3917}" name="水电话费" dataDxfId="173" totalsRowDxfId="172"/>
+    <tableColumn id="9" xr3:uid="{AC89099A-C097-40C8-89E7-28D00A4BA6C2}" name="懒" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="11" xr3:uid="{20CC3AB5-9D68-44F7-A15B-F718AC40BD4A}" name="玩" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="10" xr3:uid="{6FC0A1FA-BD0C-4544-81F9-18E0A9A9E653}" name="学习阅读" totalsRowFunction="custom" dataDxfId="167" totalsRowDxfId="166">
       <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{8218A021-98D0-466F-9B23-8A378F33ED30}" name="合计" dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="12" xr3:uid="{8C520387-76A6-44B0-902F-32F052E563F3}" name="合计（）" dataDxfId="125" totalsRowDxfId="124">
+    <tableColumn id="13" xr3:uid="{8218A021-98D0-466F-9B23-8A378F33ED30}" name="合计" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="12" xr3:uid="{8C520387-76A6-44B0-902F-32F052E563F3}" name="合计（）" dataDxfId="163" totalsRowDxfId="162">
       <calculatedColumnFormula>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1857,25 +2003,25 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EEC7AD4D-91E3-4076-BD9A-07516D424212}" name="表2_4789" displayName="表2_4789" ref="A1:N34" totalsRowCount="1" headerRowDxfId="122" dataDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EEC7AD4D-91E3-4076-BD9A-07516D424212}" name="表2_4789" displayName="表2_4789" ref="A1:N34" totalsRowCount="1" headerRowDxfId="161" dataDxfId="160">
   <autoFilter ref="A1:N33" xr:uid="{6C7D2DC4-9681-4990-8C7D-41F70811D8BA}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{4E2ACB2F-0D6D-4A48-84DE-36E447C84EF3}" name="日期" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{4061BBA9-110F-499A-B73D-CFAF32AB3A51}" name="吃饭" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="3" xr3:uid="{6E493E70-DEB7-4B2A-875C-1B22EE4DD4A4}" name="馋" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{E6E8B2AD-6562-4C13-85BF-F6E505479974}" name="小余" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="5" xr3:uid="{F1DDF90B-4151-4D9A-A154-698CAD0FE23F}" name="生活" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="15" xr3:uid="{B2770C1E-1AB2-474C-A9BC-FCF67296BACC}" name="交通" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="6" xr3:uid="{EB56D2FE-1A67-4C22-AF71-1DE484370C11}" name="爱好" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="7" xr3:uid="{6B622060-1C1F-44E3-8822-E87C81888211}" name="房租" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="8" xr3:uid="{50B1ABA8-7A28-49FF-A0ED-ECB2F09C66EA}" name="水电话费" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="9" xr3:uid="{9E9428CE-75EE-44F6-B776-5452C56751FE}" name="懒" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="11" xr3:uid="{9B4B35E6-AB35-4CC3-B917-92D01D5C951D}" name="玩" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="10" xr3:uid="{6C0B6BD2-DED2-4EAF-A5D3-CCB34B70770B}" name="学习阅读" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="97">
+    <tableColumn id="1" xr3:uid="{4E2ACB2F-0D6D-4A48-84DE-36E447C84EF3}" name="日期" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="2" xr3:uid="{4061BBA9-110F-499A-B73D-CFAF32AB3A51}" name="吃饭" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="3" xr3:uid="{6E493E70-DEB7-4B2A-875C-1B22EE4DD4A4}" name="馋" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="4" xr3:uid="{E6E8B2AD-6562-4C13-85BF-F6E505479974}" name="小余" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="5" xr3:uid="{F1DDF90B-4151-4D9A-A154-698CAD0FE23F}" name="生活" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="15" xr3:uid="{B2770C1E-1AB2-474C-A9BC-FCF67296BACC}" name="交通" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="6" xr3:uid="{EB56D2FE-1A67-4C22-AF71-1DE484370C11}" name="爱好" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="7" xr3:uid="{6B622060-1C1F-44E3-8822-E87C81888211}" name="房租" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="8" xr3:uid="{50B1ABA8-7A28-49FF-A0ED-ECB2F09C66EA}" name="水电话费" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="9" xr3:uid="{9E9428CE-75EE-44F6-B776-5452C56751FE}" name="懒" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="11" xr3:uid="{9B4B35E6-AB35-4CC3-B917-92D01D5C951D}" name="玩" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="10" xr3:uid="{6C0B6BD2-DED2-4EAF-A5D3-CCB34B70770B}" name="学习阅读" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="136">
       <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{A642FB39-4AEA-4894-8F79-325EF764858E}" name="合计" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="12" xr3:uid="{24E2A3FC-6A65-420C-B77A-309E58D296FC}" name="合计（）" dataDxfId="94" totalsRowDxfId="93">
+    <tableColumn id="13" xr3:uid="{A642FB39-4AEA-4894-8F79-325EF764858E}" name="合计" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="12" xr3:uid="{24E2A3FC-6A65-420C-B77A-309E58D296FC}" name="合计（）" dataDxfId="133" totalsRowDxfId="132">
       <calculatedColumnFormula>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1884,27 +2030,27 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{07267095-1F08-4F78-BDB2-1DDBABB1C1C3}" name="表2_45610" displayName="表2_45610" ref="A1:N33" totalsRowCount="1" headerRowDxfId="91" dataDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{07267095-1F08-4F78-BDB2-1DDBABB1C1C3}" name="表2_45610" displayName="表2_45610" ref="A1:N33" totalsRowCount="1" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="A1:N32" xr:uid="{4783F111-60E6-47B5-9AB1-437C496BFA64}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{391D8D32-699D-4415-8110-305FCC210545}" name="日期" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{94717B93-CE2F-4746-B439-73F8F68727D0}" name="吃饭" dataDxfId="87" totalsRowDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{23CCF45B-8D7A-43A0-9336-8B2FEDED6501}" name="馋" dataDxfId="85" totalsRowDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{95584A45-6A13-4388-B5EC-2CD9CDC1AF3A}" name="小余" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{7629E00D-D1F1-4562-AC7B-4CBCD447A209}" name="生活" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="15" xr3:uid="{6976ABC8-205C-4C79-A78C-EF3D4DF65039}" name="交通" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{B38E331A-4C39-4F94-8BA4-7E48CE48499F}" name="爱好" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{AFAB8892-73A8-4271-90F4-1DFA7EEBFC3D}" name="房租" dataDxfId="75" totalsRowDxfId="74">
+    <tableColumn id="1" xr3:uid="{391D8D32-699D-4415-8110-305FCC210545}" name="日期" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{94717B93-CE2F-4746-B439-73F8F68727D0}" name="吃饭" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="3" xr3:uid="{23CCF45B-8D7A-43A0-9336-8B2FEDED6501}" name="馋" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{95584A45-6A13-4388-B5EC-2CD9CDC1AF3A}" name="小余" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="5" xr3:uid="{7629E00D-D1F1-4562-AC7B-4CBCD447A209}" name="生活" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="15" xr3:uid="{6976ABC8-205C-4C79-A78C-EF3D4DF65039}" name="交通" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{B38E331A-4C39-4F94-8BA4-7E48CE48499F}" name="爱好" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="7" xr3:uid="{AFAB8892-73A8-4271-90F4-1DFA7EEBFC3D}" name="房租" dataDxfId="115" totalsRowDxfId="114">
       <calculatedColumnFormula>2700/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C4C43711-6106-432A-BE87-F01D30946B4C}" name="水电话费" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="9" xr3:uid="{A2893E56-1E7B-4CA8-AC83-35DE157F8CA5}" name="懒" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="11" xr3:uid="{28ED9641-B02F-4576-9686-ED3695C4D134}" name="玩" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="10" xr3:uid="{48D107DB-93EB-4489-B660-E35D77C2D950}" name="学习阅读" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="8" xr3:uid="{C4C43711-6106-432A-BE87-F01D30946B4C}" name="水电话费" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="9" xr3:uid="{A2893E56-1E7B-4CA8-AC83-35DE157F8CA5}" name="懒" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="11" xr3:uid="{28ED9641-B02F-4576-9686-ED3695C4D134}" name="玩" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="10" xr3:uid="{48D107DB-93EB-4489-B660-E35D77C2D950}" name="学习阅读" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="106">
       <totalsRowFormula>SUM(B32:L32)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{2B3980E8-A2AB-4836-AFD3-A735550CC472}" name="合计" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="12" xr3:uid="{72666257-FE93-46BC-994D-9FAC0B9D6D09}" name="合计（）" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="13" xr3:uid="{2B3980E8-A2AB-4836-AFD3-A735550CC472}" name="合计" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="12" xr3:uid="{72666257-FE93-46BC-994D-9FAC0B9D6D09}" name="合计（）" dataDxfId="103" totalsRowDxfId="102">
       <calculatedColumnFormula>表2_45610[[#This Row],[合计]]-表2_45610[[#This Row],[房租]]-表2_45610[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2181,18 +2327,18 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
-    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.9140625" style="2"/>
+    <col min="2" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.6640625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="20.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2236,7 +2382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>45292</v>
       </c>
@@ -2274,7 +2420,7 @@
         <v>240.57</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>45293</v>
       </c>
@@ -2305,7 +2451,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>45294</v>
       </c>
@@ -2341,7 +2487,7 @@
         <v>74.12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>45295</v>
       </c>
@@ -2373,7 +2519,7 @@
         <v>54.250000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>45296</v>
       </c>
@@ -2407,7 +2553,7 @@
         <v>71.399999999999977</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>45297</v>
       </c>
@@ -2439,7 +2585,7 @@
         <v>59.500000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>45298</v>
       </c>
@@ -2474,7 +2620,7 @@
         <v>110.91999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>45299</v>
       </c>
@@ -2506,7 +2652,7 @@
         <v>47.470000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>45300</v>
       </c>
@@ -2538,7 +2684,7 @@
         <v>10.800000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>45301</v>
       </c>
@@ -2570,7 +2716,7 @@
         <v>27.82</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>45302</v>
       </c>
@@ -2604,7 +2750,7 @@
         <v>29.000000000000014</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>45303</v>
       </c>
@@ -2634,7 +2780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>45304</v>
       </c>
@@ -2667,7 +2813,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>45305</v>
       </c>
@@ -2697,7 +2843,7 @@
         <v>16.920000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>45306</v>
       </c>
@@ -2731,7 +2877,7 @@
         <v>31.000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>45307</v>
       </c>
@@ -2763,7 +2909,7 @@
         <v>34.000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>45308</v>
       </c>
@@ -2796,7 +2942,7 @@
         <v>30.000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>45309</v>
       </c>
@@ -2830,7 +2976,7 @@
         <v>21.800000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>45310</v>
       </c>
@@ -2864,7 +3010,7 @@
         <v>41.79</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>45311</v>
       </c>
@@ -2898,7 +3044,7 @@
         <v>74.859999999999985</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>45312</v>
       </c>
@@ -2928,7 +3074,7 @@
         <v>29.559999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>45313</v>
       </c>
@@ -2955,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>45314</v>
       </c>
@@ -2982,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>45315</v>
       </c>
@@ -3009,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>45316</v>
       </c>
@@ -3036,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>45317</v>
       </c>
@@ -3063,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>45318</v>
       </c>
@@ -3090,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>45319</v>
       </c>
@@ -3117,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>45320</v>
       </c>
@@ -3144,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>45321</v>
       </c>
@@ -3171,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>45322</v>
       </c>
@@ -3198,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="37.25" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -3255,7 +3401,7 @@
         <v>1113.2799999999988</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3275,7 +3421,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="340" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3291,22 +3437,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2134B9-86C1-4D89-9506-A76ACBD8BFFA}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
-    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.9140625" style="2"/>
+    <col min="2" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.6640625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="20.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3350,7 +3496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>45566</v>
       </c>
@@ -3385,7 +3531,7 @@
         <v>320.99</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>45567</v>
       </c>
@@ -3416,7 +3562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>45568</v>
       </c>
@@ -3445,7 +3591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>45569</v>
       </c>
@@ -3474,7 +3620,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>45570</v>
       </c>
@@ -3507,7 +3653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>45571</v>
       </c>
@@ -3538,7 +3684,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>45572</v>
       </c>
@@ -3569,7 +3715,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>45573</v>
       </c>
@@ -3596,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>45574</v>
       </c>
@@ -3627,7 +3773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>45575</v>
       </c>
@@ -3658,7 +3804,7 @@
         <v>16.850000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>45576</v>
       </c>
@@ -3687,7 +3833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>45577</v>
       </c>
@@ -3716,7 +3862,7 @@
         <v>8.8999999999999986</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>45578</v>
       </c>
@@ -3747,7 +3893,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>45579</v>
       </c>
@@ -3759,8 +3905,8 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
-        <f>520+899+399</f>
-        <v>1818</v>
+        <f>520+899+399-247</f>
+        <v>1571</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3774,14 +3920,14 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3">
         <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>1888.9</v>
+        <v>1641.9</v>
       </c>
       <c r="N15" s="3">
         <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
-        <v>1843.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1596.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>45580</v>
       </c>
@@ -3810,7 +3956,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>45581</v>
       </c>
@@ -3839,7 +3985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>45582</v>
       </c>
@@ -3868,7 +4014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>45583</v>
       </c>
@@ -3901,7 +4047,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>45584</v>
       </c>
@@ -3932,7 +4078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>45585</v>
       </c>
@@ -3961,7 +4107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>45586</v>
       </c>
@@ -3990,34 +4136,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>45587</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
         <f>SUM(表2_478911[[#This Row],[吃饭]:[学习阅读]])</f>
         <v>45</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="3">
         <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>45588</v>
       </c>
@@ -4046,7 +4192,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>45589</v>
       </c>
@@ -4075,7 +4221,7 @@
         <v>6.8999999999999986</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>45590</v>
       </c>
@@ -4106,7 +4252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>45591</v>
       </c>
@@ -4137,7 +4283,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>45592</v>
       </c>
@@ -4166,7 +4312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>45593</v>
       </c>
@@ -4197,7 +4343,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>45594</v>
       </c>
@@ -4226,7 +4372,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>45595</v>
       </c>
@@ -4257,7 +4403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>45596</v>
       </c>
@@ -4288,7 +4434,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="37.25" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -4306,7 +4452,7 @@
       </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
-        <v>2438</v>
+        <v>2191</v>
       </c>
       <c r="F33" s="3">
         <f>SUM(F2:F32)</f>
@@ -4338,15 +4484,15 @@
       </c>
       <c r="M33" s="5">
         <f>SUM(M2:M32)</f>
-        <v>5423.04</v>
+        <v>5176.04</v>
       </c>
       <c r="N33" s="3">
         <f>表2_478911[[#This Row],[合计]]-表2_478911[[#This Row],[房租]]-表2_478911[[#This Row],[水电话费]]</f>
-        <v>3928.04</v>
+        <v>3681.04</v>
       </c>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -4359,14 +4505,14 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3">
         <f>SUM(B33:L33)</f>
-        <v>5423.04</v>
+        <v>5176.04</v>
       </c>
       <c r="M34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4382,22 +4528,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E530FB-A4BD-42BC-9813-A928C3175950}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
-    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.9140625" style="2"/>
+    <col min="2" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.6640625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="20.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4441,7 +4587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>45597</v>
       </c>
@@ -4472,7 +4618,7 @@
         <v>3.9000000000000057</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>45598</v>
       </c>
@@ -4503,7 +4649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>45599</v>
       </c>
@@ -4534,7 +4680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>45600</v>
       </c>
@@ -4566,7 +4712,7 @@
         <v>16.11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>45601</v>
       </c>
@@ -4598,7 +4744,7 @@
         <v>24.25</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>45602</v>
       </c>
@@ -4628,7 +4774,7 @@
         <v>23.150000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>45603</v>
       </c>
@@ -4659,7 +4805,7 @@
         <v>19.490000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>45604</v>
       </c>
@@ -4689,7 +4835,7 @@
         <v>17.649999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>45605</v>
       </c>
@@ -4720,7 +4866,7 @@
         <v>21.900000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>45606</v>
       </c>
@@ -4753,11 +4899,14 @@
         <v>40.27000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>45607</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3">
+        <f>2.75+3.9+6.57</f>
+        <v>13.22</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -4773,18 +4922,21 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>58.22</v>
       </c>
       <c r="N12" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>13.219999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>45608</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3">
+        <f>3.9+3.9+15+21</f>
+        <v>43.8</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -4800,18 +4952,21 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>88.8</v>
       </c>
       <c r="N13" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>45609</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3">
+        <f>3.9+12.5+4.2</f>
+        <v>20.599999999999998</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -4827,18 +4982,21 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="N14" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>20.599999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>45610</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <f>3.9+19</f>
+        <v>22.9</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -4854,18 +5012,20 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="N15" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>22.900000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>45611</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3">
+        <v>81.8</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -4881,20 +5041,25 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>126.8</v>
       </c>
       <c r="N16" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>45612</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3">
+        <f>9.8+15+9.8</f>
+        <v>34.6</v>
+      </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>40</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -4908,18 +5073,21 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>119.6</v>
       </c>
       <c r="N17" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>45613</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3">
+        <f>183+15+4</f>
+        <v>202</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -4935,18 +5103,21 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="N18" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>45614</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3">
+        <f>6.25+8.5</f>
+        <v>14.75</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -4962,19 +5133,24 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>59.75</v>
       </c>
       <c r="N19" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>45615</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="3">
+        <f>3.9+4.75</f>
+        <v>8.65</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2.25</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -4989,18 +5165,21 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>55.9</v>
       </c>
       <c r="N20" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>10.899999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>45616</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3">
+        <f>3.9+13.8</f>
+        <v>17.7</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -5016,18 +5195,21 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>62.7</v>
       </c>
       <c r="N21" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>17.700000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>45617</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3">
+        <f>33.46+12.4+2.3+3.9+6</f>
+        <v>58.059999999999995</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -5040,23 +5222,30 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3">
+        <v>5.62</v>
+      </c>
       <c r="M22" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>108.68</v>
       </c>
       <c r="N22" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>63.680000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>45618</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3">
+        <v>29</v>
+      </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <f>316+147+650</f>
+        <v>1113</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -5070,20 +5259,23 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>1187</v>
       </c>
       <c r="N23" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>45619</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <f>24.9+2+9+3+15</f>
+        <v>53.9</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -5097,23 +5289,28 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>98.9</v>
       </c>
       <c r="N24" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>53.900000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>45620</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <f>24.2+62.9+31+43.9+2+3+13+2</f>
+        <v>182</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3">
+        <v>12</v>
+      </c>
       <c r="H25" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5124,19 +5321,24 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="N25" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>45621</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="3">
+        <f>3.9+13.83</f>
+        <v>17.73</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2.25</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -5151,20 +5353,27 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>64.98</v>
       </c>
       <c r="N26" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>19.980000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>45622</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="B27" s="3">
+        <f>3.9+15.5+14.5+5</f>
+        <v>38.9</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="D27" s="3">
+        <v>15</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -5178,23 +5387,29 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>101.15</v>
       </c>
       <c r="N27" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>56.150000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>45623</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3">
+        <v>19</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>16.100000000000001</v>
+      </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3">
+        <v>26.8</v>
+      </c>
       <c r="H28" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5205,18 +5420,21 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>106.9</v>
       </c>
       <c r="N28" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>61.900000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>45624</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3">
+        <f>3.9+4.75+4.25+11.2</f>
+        <v>24.1</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -5232,18 +5450,21 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="N29" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>24.099999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>45625</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3">
+        <f>3.9+4.25+18.3+0.4</f>
+        <v>26.85</v>
+      </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -5259,21 +5480,28 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>71.849999999999994</v>
       </c>
       <c r="N30" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26.849999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="13.5" customHeight="1">
       <c r="A31" s="1">
         <v>45626</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3">
+        <f>26.5+13.9+62</f>
+        <v>102.4</v>
+      </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="3">
+        <v>39</v>
+      </c>
+      <c r="E31" s="3">
+        <v>38.799999999999997</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
@@ -5286,32 +5514,32 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3">
         <f>SUM(表2_4561012[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>225.2</v>
       </c>
       <c r="N31" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>180.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="37.25" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" ref="B32:M32" si="1">SUM(B2:B31)</f>
-        <v>137.75</v>
+        <v>913.81000000000006</v>
       </c>
       <c r="C32" s="3">
         <f>SUM(C3:C31)</f>
-        <v>36.4</v>
+        <v>43.15</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="1"/>
-        <v>32.57</v>
+        <v>1475.47</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="1"/>
@@ -5319,7 +5547,7 @@
       </c>
       <c r="G32" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="1"/>
@@ -5339,18 +5567,18 @@
       </c>
       <c r="L32" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.62</v>
       </c>
       <c r="M32" s="5">
         <f t="shared" si="1"/>
-        <v>1671.7199999999998</v>
+        <v>3996.75</v>
       </c>
       <c r="N32" s="3">
         <f>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</f>
-        <v>221.7199999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2546.75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5363,14 +5591,14 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3">
         <f>SUM(B32:L32)</f>
-        <v>1671.72</v>
+        <v>3996.7500000000005</v>
       </c>
       <c r="M33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5383,6 +5611,1037 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D443F6-5FD4-C040-9D36-5DB36F99215C}">
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.6640625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="20.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B2" s="3">
+        <f>16.4+4.9+9.56+16+15.3</f>
+        <v>62.16</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <f>2700/60</f>
+        <v>45</v>
+      </c>
+      <c r="I2" s="3">
+        <v>100</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>217.16</v>
+      </c>
+      <c r="N2" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>72.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B3" s="3">
+        <f>4.2+15+5.9</f>
+        <v>25.1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>41.9</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H32" si="0">2700/60</f>
+        <v>45</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>160</v>
+      </c>
+      <c r="N3" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B4" s="3">
+        <f>16.3+15.49+13.3</f>
+        <v>45.09</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>322</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>76</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>488.09000000000003</v>
+      </c>
+      <c r="N4" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>443.09000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B5" s="3">
+        <f>22.88+15.75+2.55+13.75+3.9</f>
+        <v>58.829999999999991</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>103.82999999999998</v>
+      </c>
+      <c r="N5" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>58.829999999999984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B6" s="3">
+        <f>3.9+3.25+4.75+16</f>
+        <v>27.9</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>56.88</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>129.78</v>
+      </c>
+      <c r="N6" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>84.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B7" s="3">
+        <f>4.25+13.75+2.25</f>
+        <v>20.25</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>91.25</v>
+      </c>
+      <c r="N7" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>46.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B8" s="3">
+        <f>11.5+12.88</f>
+        <v>24.380000000000003</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>84.38</v>
+      </c>
+      <c r="N8" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>39.379999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N9" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N10" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N11" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N12" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N13" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N14" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N15" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N16" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N17" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N18" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N19" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N20" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N21" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N22" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N23" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N24" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N25" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N26" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1">
+        <v>45652</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N27" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1">
+        <v>45653</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N28" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1">
+        <v>45654</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N29" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1">
+        <v>45655</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N30" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N31" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3">
+        <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45</v>
+      </c>
+      <c r="N32" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="37.25" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3">
+        <f>SUM(B2:B32)</f>
+        <v>263.70999999999998</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" ref="C33:I33" si="1">SUM(C2:C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <f>SUM(D2:D32)</f>
+        <v>398</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <f>SUM(F2:F32)</f>
+        <v>10</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="1"/>
+        <v>187.78</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="1"/>
+        <v>1395</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
+        <f>SUM(J2:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <f>SUM(K2:K32)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <f>SUM(L2:L32)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
+        <f>SUM(M2:M32)</f>
+        <v>2354.4899999999998</v>
+      </c>
+      <c r="N33" s="3">
+        <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
+        <v>859.48999999999978</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3">
+        <f>SUM(B33:L33)</f>
+        <v>2354.4899999999998</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="N2:N32">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C952A621-BEBB-4D1D-8745-086E36D656C9}">
   <dimension ref="A5"/>
   <sheetViews>
@@ -5390,9 +6649,9 @@
       <selection activeCell="G15" sqref="B1:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5408,18 +6667,18 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
-    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.9140625" style="2"/>
+    <col min="2" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.6640625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="20.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5463,7 +6722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>45323</v>
       </c>
@@ -5487,7 +6746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>45324</v>
       </c>
@@ -5511,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>45325</v>
       </c>
@@ -5535,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>45326</v>
       </c>
@@ -5559,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>45327</v>
       </c>
@@ -5583,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>45328</v>
       </c>
@@ -5607,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>45329</v>
       </c>
@@ -5631,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>45330</v>
       </c>
@@ -5655,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>45331</v>
       </c>
@@ -5679,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>45332</v>
       </c>
@@ -5703,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>45333</v>
       </c>
@@ -5727,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>45334</v>
       </c>
@@ -5751,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>45335</v>
       </c>
@@ -5775,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>45336</v>
       </c>
@@ -5799,7 +7058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>45337</v>
       </c>
@@ -5823,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>45338</v>
       </c>
@@ -5847,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>45339</v>
       </c>
@@ -5871,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>45340</v>
       </c>
@@ -5895,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>45341</v>
       </c>
@@ -5919,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>45342</v>
       </c>
@@ -5943,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>45343</v>
       </c>
@@ -5967,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>45344</v>
       </c>
@@ -5991,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>45345</v>
       </c>
@@ -6015,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>45346</v>
       </c>
@@ -6039,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>45347</v>
       </c>
@@ -6072,7 +7331,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>45348</v>
       </c>
@@ -6101,7 +7360,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>45349</v>
       </c>
@@ -6130,7 +7389,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>45350</v>
       </c>
@@ -6159,7 +7418,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>45351</v>
       </c>
@@ -6188,7 +7447,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="37.25" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -6245,7 +7504,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -6265,7 +7524,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N30">
-    <cfRule type="cellIs" dxfId="309" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6285,18 +7544,18 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
-    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.9140625" style="2"/>
+    <col min="2" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.6640625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="20.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6340,7 +7599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>45352</v>
       </c>
@@ -6369,7 +7628,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>45353</v>
       </c>
@@ -6398,7 +7657,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>45354</v>
       </c>
@@ -6427,7 +7686,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>45355</v>
       </c>
@@ -6456,7 +7715,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>45356</v>
       </c>
@@ -6485,7 +7744,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>45357</v>
       </c>
@@ -6514,7 +7773,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>45358</v>
       </c>
@@ -6543,7 +7802,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>45359</v>
       </c>
@@ -6572,7 +7831,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>45360</v>
       </c>
@@ -6601,7 +7860,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>45361</v>
       </c>
@@ -6630,7 +7889,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>45362</v>
       </c>
@@ -6659,7 +7918,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>45363</v>
       </c>
@@ -6688,7 +7947,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>45364</v>
       </c>
@@ -6719,7 +7978,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>45365</v>
       </c>
@@ -6750,7 +8009,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>45366</v>
       </c>
@@ -6781,7 +8040,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>45367</v>
       </c>
@@ -6810,7 +8069,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>45368</v>
       </c>
@@ -6839,7 +8098,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>45369</v>
       </c>
@@ -6868,7 +8127,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>45370</v>
       </c>
@@ -6897,7 +8156,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>45371</v>
       </c>
@@ -6926,7 +8185,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>45372</v>
       </c>
@@ -6955,7 +8214,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>45373</v>
       </c>
@@ -6984,7 +8243,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>45374</v>
       </c>
@@ -7013,7 +8272,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>45375</v>
       </c>
@@ -7042,7 +8301,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>45376</v>
       </c>
@@ -7071,7 +8330,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>45377</v>
       </c>
@@ -7100,7 +8359,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>45378</v>
       </c>
@@ -7129,7 +8388,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>45379</v>
       </c>
@@ -7158,7 +8417,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>45380</v>
       </c>
@@ -7187,7 +8446,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>45381</v>
       </c>
@@ -7216,7 +8475,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>45382</v>
       </c>
@@ -7245,7 +8504,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="37.25" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -7302,7 +8561,7 @@
         <v>5944</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -7322,7 +8581,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="278" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7342,18 +8601,18 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
-    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.9140625" style="2"/>
+    <col min="2" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.6640625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="20.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7397,7 +8656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>45383</v>
       </c>
@@ -7430,7 +8689,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>45384</v>
       </c>
@@ -7461,7 +8720,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>45385</v>
       </c>
@@ -7494,7 +8753,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>45386</v>
       </c>
@@ -7525,7 +8784,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>45387</v>
       </c>
@@ -7556,7 +8815,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>45388</v>
       </c>
@@ -7589,7 +8848,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>45389</v>
       </c>
@@ -7620,7 +8879,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>45390</v>
       </c>
@@ -7651,7 +8910,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>45391</v>
       </c>
@@ -7682,7 +8941,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>45392</v>
       </c>
@@ -7713,7 +8972,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>45393</v>
       </c>
@@ -7744,7 +9003,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>45394</v>
       </c>
@@ -7775,7 +9034,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>45395</v>
       </c>
@@ -7806,7 +9065,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>45396</v>
       </c>
@@ -7838,7 +9097,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>45397</v>
       </c>
@@ -7874,7 +9133,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>45398</v>
       </c>
@@ -7908,7 +9167,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>45399</v>
       </c>
@@ -7939,7 +9198,7 @@
         <v>54.999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>45400</v>
       </c>
@@ -7972,7 +9231,7 @@
         <v>78.199999999999989</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>45401</v>
       </c>
@@ -8007,7 +9266,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>45402</v>
       </c>
@@ -8036,7 +9295,7 @@
         <v>33.999999999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>45403</v>
       </c>
@@ -8065,7 +9324,7 @@
         <v>71.100000000000023</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>45404</v>
       </c>
@@ -8096,7 +9355,7 @@
         <v>43.999999999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>45405</v>
       </c>
@@ -8127,7 +9386,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>45406</v>
       </c>
@@ -8160,7 +9419,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>45407</v>
       </c>
@@ -8189,7 +9448,7 @@
         <v>51.20000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>45408</v>
       </c>
@@ -8224,7 +9483,7 @@
         <v>367.82</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>45409</v>
       </c>
@@ -8255,7 +9514,7 @@
         <v>252.40000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>45410</v>
       </c>
@@ -8289,7 +9548,7 @@
         <v>395.7</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>45411</v>
       </c>
@@ -8320,7 +9579,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="13.5" customHeight="1">
       <c r="A31" s="1">
         <v>45412</v>
       </c>
@@ -8351,7 +9610,7 @@
         <v>39.999999999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="37.25" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -8408,7 +9667,7 @@
         <v>4629.9199999999973</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -8428,7 +9687,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="247" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8448,18 +9707,18 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
-    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.9140625" style="2"/>
+    <col min="2" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.6640625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="20.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8503,7 +9762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>45413</v>
       </c>
@@ -8533,7 +9792,7 @@
         <v>17.699999999999989</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>45414</v>
       </c>
@@ -8563,7 +9822,7 @@
         <v>33.409999999999989</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>45415</v>
       </c>
@@ -8593,7 +9852,7 @@
         <v>20.999999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>45416</v>
       </c>
@@ -8621,7 +9880,7 @@
         <v>162.31</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>45417</v>
       </c>
@@ -8654,7 +9913,7 @@
         <v>72.89500000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>45418</v>
       </c>
@@ -8689,7 +9948,7 @@
         <v>46.494999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>45419</v>
       </c>
@@ -8719,7 +9978,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>45420</v>
       </c>
@@ -8751,7 +10010,7 @@
         <v>26.999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>45421</v>
       </c>
@@ -8780,7 +10039,7 @@
         <v>46.140000000000008</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>45422</v>
       </c>
@@ -8808,7 +10067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>45423</v>
       </c>
@@ -8836,7 +10095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>45424</v>
       </c>
@@ -8872,7 +10131,7 @@
         <v>98.700000000000017</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>45425</v>
       </c>
@@ -8898,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>45426</v>
       </c>
@@ -8928,7 +10187,7 @@
         <v>21.999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>45427</v>
       </c>
@@ -8958,7 +10217,7 @@
         <v>42.20000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>45428</v>
       </c>
@@ -8988,7 +10247,7 @@
         <v>18.47</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>45429</v>
       </c>
@@ -9017,7 +10276,7 @@
         <v>12.300000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>45430</v>
       </c>
@@ -9047,7 +10306,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>45431</v>
       </c>
@@ -9073,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>45432</v>
       </c>
@@ -9105,7 +10364,7 @@
         <v>28.199999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>45433</v>
       </c>
@@ -9136,7 +10395,7 @@
         <v>21.550000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>45434</v>
       </c>
@@ -9168,7 +10427,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>45435</v>
       </c>
@@ -9199,7 +10458,7 @@
         <v>27.29</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>45436</v>
       </c>
@@ -9229,7 +10488,7 @@
         <v>34.70000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>45437</v>
       </c>
@@ -9263,7 +10522,7 @@
         <v>441.5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>45438</v>
       </c>
@@ -9291,7 +10550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>45439</v>
       </c>
@@ -9321,7 +10580,7 @@
         <v>219.32</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>45440</v>
       </c>
@@ -9351,7 +10610,7 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>45441</v>
       </c>
@@ -9381,7 +10640,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>45442</v>
       </c>
@@ -9415,7 +10674,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>45443</v>
       </c>
@@ -9443,7 +10702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="37.25" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -9500,7 +10759,7 @@
         <v>2083.8199999999988</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -9520,7 +10779,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="216" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9540,18 +10799,18 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
-    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.9140625" style="2"/>
+    <col min="2" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.6640625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="20.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9595,7 +10854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>45444</v>
       </c>
@@ -9629,7 +10888,7 @@
         <v>306.89999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>45445</v>
       </c>
@@ -9660,7 +10919,7 @@
         <v>106.66</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>45446</v>
       </c>
@@ -9688,7 +10947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>45447</v>
       </c>
@@ -9718,7 +10977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>45448</v>
       </c>
@@ -9750,7 +11009,7 @@
         <v>34.999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>45449</v>
       </c>
@@ -9785,7 +11044,7 @@
         <v>87.890000000000015</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>45450</v>
       </c>
@@ -9817,7 +11076,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>45451</v>
       </c>
@@ -9847,7 +11106,7 @@
         <v>61.999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>45452</v>
       </c>
@@ -9873,7 +11132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>45453</v>
       </c>
@@ -9899,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>45454</v>
       </c>
@@ -9925,7 +11184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>45455</v>
       </c>
@@ -9951,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>45456</v>
       </c>
@@ -9983,7 +11242,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>45457</v>
       </c>
@@ -10017,7 +11276,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>45458</v>
       </c>
@@ -10049,7 +11308,7 @@
         <v>201.5</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>45459</v>
       </c>
@@ -10079,7 +11338,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>45460</v>
       </c>
@@ -10108,7 +11367,7 @@
         <v>10.399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>45461</v>
       </c>
@@ -10136,7 +11395,7 @@
         <v>5.8999999999999986</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>45462</v>
       </c>
@@ -10164,7 +11423,7 @@
         <v>29.999999999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>45463</v>
       </c>
@@ -10196,7 +11455,7 @@
         <v>62.999999999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>45464</v>
       </c>
@@ -10226,7 +11485,7 @@
         <v>29.999999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>45465</v>
       </c>
@@ -10254,7 +11513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>45466</v>
       </c>
@@ -10284,7 +11543,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>45467</v>
       </c>
@@ -10312,7 +11571,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>45468</v>
       </c>
@@ -10342,7 +11601,7 @@
         <v>29.999999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>45469</v>
       </c>
@@ -10374,7 +11633,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>45470</v>
       </c>
@@ -10406,7 +11665,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>45471</v>
       </c>
@@ -10436,7 +11695,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>45472</v>
       </c>
@@ -10469,7 +11728,7 @@
         <v>215.25</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="13.5" customHeight="1">
       <c r="A31" s="1">
         <v>45473</v>
       </c>
@@ -10497,7 +11756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="37.25" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -10554,7 +11813,7 @@
         <v>2041.3999999999978</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -10574,7 +11833,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="185" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10594,18 +11853,18 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
-    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.9140625" style="2"/>
+    <col min="2" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.6640625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="20.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10649,7 +11908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>45474</v>
       </c>
@@ -10680,7 +11939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>45475</v>
       </c>
@@ -10710,7 +11969,7 @@
         <v>21.96</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>45476</v>
       </c>
@@ -10741,7 +12000,7 @@
         <v>45.000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>45477</v>
       </c>
@@ -10773,7 +12032,7 @@
         <v>27.000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>45478</v>
       </c>
@@ -10804,7 +12063,7 @@
         <v>30.000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>45479</v>
       </c>
@@ -10835,7 +12094,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>45480</v>
       </c>
@@ -10870,7 +12129,7 @@
         <v>134.87</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>45481</v>
       </c>
@@ -10904,7 +12163,7 @@
         <v>79.799999999999983</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>45482</v>
       </c>
@@ -10935,7 +12194,7 @@
         <v>52.500000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>45483</v>
       </c>
@@ -10967,7 +12226,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>45484</v>
       </c>
@@ -11003,7 +12262,7 @@
         <v>57.36999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>45485</v>
       </c>
@@ -11035,7 +12294,7 @@
         <v>55.459999999999987</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>45486</v>
       </c>
@@ -11067,7 +12326,7 @@
         <v>50.160000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>45487</v>
       </c>
@@ -11101,7 +12360,7 @@
         <v>419.97</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>45488</v>
       </c>
@@ -11133,7 +12392,7 @@
         <v>67.62</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>45489</v>
       </c>
@@ -11166,7 +12425,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>45490</v>
       </c>
@@ -11195,7 +12454,7 @@
         <v>13.900000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>45491</v>
       </c>
@@ -11227,7 +12486,7 @@
         <v>31.789999999999992</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>45492</v>
       </c>
@@ -11256,7 +12515,7 @@
         <v>8.5999999999999943</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>45493</v>
       </c>
@@ -11290,7 +12549,7 @@
         <v>83.200000000000017</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>45494</v>
       </c>
@@ -11319,40 +12578,40 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+    <row r="23" spans="1:14">
+      <c r="A23" s="1">
         <v>45495</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="3">
         <v>9</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
         <v>15</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
         <f t="shared" si="1"/>
         <v>89.068000000000012</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
         <f>SUM(表2_478[[#This Row],[吃饭]:[学习阅读]])</f>
         <v>122.26800000000001</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="3">
         <f>表2_478[[#This Row],[合计]]-表2_478[[#This Row],[房租]]-表2_478[[#This Row],[水电话费]]</f>
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>45496</v>
       </c>
@@ -11385,7 +12644,7 @@
         <v>116.30000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>45497</v>
       </c>
@@ -11412,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>45498</v>
       </c>
@@ -11442,7 +12701,7 @@
         <v>47.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>45499</v>
       </c>
@@ -11469,7 +12728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>45500</v>
       </c>
@@ -11504,7 +12763,7 @@
         <v>43.900000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>45501</v>
       </c>
@@ -11535,7 +12794,7 @@
         <v>74.710000000000008</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>45502</v>
       </c>
@@ -11569,7 +12828,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>45503</v>
       </c>
@@ -11602,7 +12861,7 @@
         <v>134.9</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>45504</v>
       </c>
@@ -11633,7 +12892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="37.25" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -11690,7 +12949,7 @@
         <v>2311.6400000000012</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -11710,7 +12969,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="154" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11730,18 +12989,18 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
-    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.9140625" style="2"/>
+    <col min="2" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.6640625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="20.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11785,7 +13044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>45505</v>
       </c>
@@ -11824,7 +13083,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>45506</v>
       </c>
@@ -11855,7 +13114,7 @@
         <v>20.900000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>45507</v>
       </c>
@@ -11886,7 +13145,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>45508</v>
       </c>
@@ -11924,7 +13183,7 @@
         <v>694.9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>45509</v>
       </c>
@@ -11960,7 +13219,7 @@
         <v>2204.8000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>45510</v>
       </c>
@@ -11991,7 +13250,7 @@
         <v>54.52000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>45511</v>
       </c>
@@ -12022,7 +13281,7 @@
         <v>17.329999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>45512</v>
       </c>
@@ -12051,7 +13310,7 @@
         <v>6.6000000000000014</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>45513</v>
       </c>
@@ -12082,7 +13341,7 @@
         <v>80.58</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>45514</v>
       </c>
@@ -12119,7 +13378,7 @@
         <v>223.8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>45515</v>
       </c>
@@ -12150,7 +13409,7 @@
         <v>23.799999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>45516</v>
       </c>
@@ -12181,7 +13440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>45517</v>
       </c>
@@ -12212,7 +13471,7 @@
         <v>91.800000000000011</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>45518</v>
       </c>
@@ -12241,7 +13500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>45519</v>
       </c>
@@ -12272,7 +13531,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>45520</v>
       </c>
@@ -12303,7 +13562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>45521</v>
       </c>
@@ -12334,7 +13593,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>45522</v>
       </c>
@@ -12367,7 +13626,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>45523</v>
       </c>
@@ -12398,7 +13657,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>45524</v>
       </c>
@@ -12429,7 +13688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>45525</v>
       </c>
@@ -12460,36 +13719,36 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>45526</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="3">
         <v>67</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
         <f>SUM(表2_4789[[#This Row],[吃饭]:[学习阅读]])</f>
         <v>112</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="3">
         <f>表2_4789[[#This Row],[合计]]-表2_4789[[#This Row],[房租]]-表2_4789[[#This Row],[水电话费]]</f>
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>45527</v>
       </c>
@@ -12520,7 +13779,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>45528</v>
       </c>
@@ -12551,7 +13810,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>45529</v>
       </c>
@@ -12582,7 +13841,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>45530</v>
       </c>
@@ -12611,7 +13870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>45531</v>
       </c>
@@ -12642,7 +13901,7 @@
         <v>568.9</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>45532</v>
       </c>
@@ -12673,7 +13932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>45533</v>
       </c>
@@ -12702,7 +13961,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>45534</v>
       </c>
@@ -12733,7 +13992,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>45535</v>
       </c>
@@ -12776,7 +14035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="37.25" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -12841,7 +14100,7 @@
         <v>4627.83</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -12861,7 +14120,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="123" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12881,18 +14140,18 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
-    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.9140625" style="2"/>
+    <col min="2" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.6640625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="20.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12936,7 +14195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>45536</v>
       </c>
@@ -12967,7 +14226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>45537</v>
       </c>
@@ -12998,7 +14257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>45538</v>
       </c>
@@ -13029,7 +14288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>45539</v>
       </c>
@@ -13060,7 +14319,7 @@
         <v>9.1299999999999955</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>45540</v>
       </c>
@@ -13095,7 +14354,7 @@
         <v>568.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>45541</v>
       </c>
@@ -13128,7 +14387,7 @@
         <v>42.699999999999989</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>45542</v>
       </c>
@@ -13159,7 +14418,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>45543</v>
       </c>
@@ -13188,7 +14447,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>45544</v>
       </c>
@@ -13219,7 +14478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>45545</v>
       </c>
@@ -13248,7 +14507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>45546</v>
       </c>
@@ -13277,7 +14536,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>45547</v>
       </c>
@@ -13310,7 +14569,7 @@
         <v>252.23000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>45548</v>
       </c>
@@ -13340,7 +14599,7 @@
         <v>500.66000000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>45549</v>
       </c>
@@ -13370,7 +14629,7 @@
         <v>407.46</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>45550</v>
       </c>
@@ -13400,7 +14659,7 @@
         <v>513.21</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>45551</v>
       </c>
@@ -13430,7 +14689,7 @@
         <v>653.15</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>45552</v>
       </c>
@@ -13464,7 +14723,7 @@
         <v>926.78</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>45553</v>
       </c>
@@ -13493,7 +14752,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>45554</v>
       </c>
@@ -13528,7 +14787,7 @@
         <v>51.120000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>45555</v>
       </c>
@@ -13557,7 +14816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>45556</v>
       </c>
@@ -13588,7 +14847,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>45557</v>
       </c>
@@ -13617,7 +14876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>45558</v>
       </c>
@@ -13648,7 +14907,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>45559</v>
       </c>
@@ -13679,7 +14938,7 @@
         <v>10.899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>45560</v>
       </c>
@@ -13708,7 +14967,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>45561</v>
       </c>
@@ -13739,7 +14998,7 @@
         <v>7.1899999999999977</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>45562</v>
       </c>
@@ -13770,7 +15029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>45563</v>
       </c>
@@ -13803,7 +15062,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>45564</v>
       </c>
@@ -13834,7 +15093,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="13.5" customHeight="1">
       <c r="A31" s="1">
         <v>45565</v>
       </c>
@@ -13867,7 +15126,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="37.25" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -13924,7 +15183,7 @@
         <v>5332.53</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -13944,7 +15203,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="92" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>

--- a/personal space(program)/accountBook2024.xlsx
+++ b/personal space(program)/accountBook2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hzhu41/myself/personGit/zhubiye/personal space(program)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7005996A-6202-D94A-A4C0-8055259355C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF42275E-61EA-BE48-95CC-6493A5BD3B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16800" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="740" windowWidth="20880" windowHeight="18380" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024.01" sheetId="1" r:id="rId1"/>
@@ -249,61 +249,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -486,55 +431,110 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1788,24 +1788,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{67D8F19C-2DD0-4C59-A51B-15F75423EB7C}" name="表2_4561012" displayName="表2_4561012" ref="A1:N33" totalsRowCount="1" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A1:N32" xr:uid="{4783F111-60E6-47B5-9AB1-437C496BFA64}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{C618F720-E758-4091-95B9-A16A4EBA1533}" name="日期" dataDxfId="69" totalsRowDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{1F96E219-DB50-486F-8570-DBF44B38E22B}" name="吃饭" dataDxfId="68" totalsRowDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{61EAFF41-5888-489B-9196-DD786161C5A4}" name="馋" dataDxfId="67" totalsRowDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{6E99EAD5-EE3A-451E-A248-40CBED41332E}" name="小余" dataDxfId="66" totalsRowDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{18C21F06-9B37-4402-892B-FCA37741E227}" name="生活" dataDxfId="65" totalsRowDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{80AB4C13-A583-4A87-AD6C-EBEB3448A8FA}" name="交通" dataDxfId="64" totalsRowDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{FEDAECBF-1E5D-42BF-8136-D0FBD99DC3D5}" name="爱好" dataDxfId="63" totalsRowDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{14F9E726-25B5-46A2-96B9-D5992FA69E71}" name="房租" dataDxfId="62" totalsRowDxfId="20">
+    <tableColumn id="1" xr3:uid="{C618F720-E758-4091-95B9-A16A4EBA1533}" name="日期" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{1F96E219-DB50-486F-8570-DBF44B38E22B}" name="吃饭" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{61EAFF41-5888-489B-9196-DD786161C5A4}" name="馋" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{6E99EAD5-EE3A-451E-A248-40CBED41332E}" name="小余" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{18C21F06-9B37-4402-892B-FCA37741E227}" name="生活" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="15" xr3:uid="{80AB4C13-A583-4A87-AD6C-EBEB3448A8FA}" name="交通" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{FEDAECBF-1E5D-42BF-8136-D0FBD99DC3D5}" name="爱好" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{14F9E726-25B5-46A2-96B9-D5992FA69E71}" name="房租" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>2700/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{63C1CCED-5794-4D08-8697-AB2B01E7754E}" name="水电话费" dataDxfId="61" totalsRowDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{6E91D01F-56E9-4E7F-B53D-3D3FF4A281E3}" name="懒" dataDxfId="60" totalsRowDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{8852A42C-B4B0-429A-9AE4-B9BF56FE665D}" name="玩" dataDxfId="59" totalsRowDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{C1BD7762-6CD1-4FD0-8EBD-97061B85B0B0}" name="学习阅读" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="16">
+    <tableColumn id="8" xr3:uid="{63C1CCED-5794-4D08-8697-AB2B01E7754E}" name="水电话费" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{6E91D01F-56E9-4E7F-B53D-3D3FF4A281E3}" name="懒" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{8852A42C-B4B0-429A-9AE4-B9BF56FE665D}" name="玩" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{C1BD7762-6CD1-4FD0-8EBD-97061B85B0B0}" name="学习阅读" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
       <totalsRowFormula>SUM(B32:L32)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{50DF8B32-D09B-4C54-A088-827A73BFB4FC}" name="合计" dataDxfId="57" totalsRowDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{6E500027-168E-49B0-AD9B-D8F1510ABA55}" name="合计（）" dataDxfId="56" totalsRowDxfId="14">
+    <tableColumn id="13" xr3:uid="{50DF8B32-D09B-4C54-A088-827A73BFB4FC}" name="合计" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{6E500027-168E-49B0-AD9B-D8F1510ABA55}" name="合计（）" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>表2_4561012[[#This Row],[合计]]-表2_4561012[[#This Row],[房租]]-表2_4561012[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1814,25 +1814,25 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{645319BD-A988-5446-B903-1527987D9691}" name="表2_47891113" displayName="表2_47891113" ref="A1:N34" totalsRowCount="1" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{645319BD-A988-5446-B903-1527987D9691}" name="表2_47891113" displayName="表2_47891113" ref="A1:N34" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:N33" xr:uid="{6C7D2DC4-9681-4990-8C7D-41F70811D8BA}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{EA524901-D4EC-A143-A509-4FD275E97CC6}" name="日期" dataDxfId="53" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{C06497D2-2A0D-2649-827A-35C6E82D9D91}" name="吃饭" dataDxfId="52" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{6A7BC9E3-719C-F348-AB4E-BB0E02ADE237}" name="馋" dataDxfId="51" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{F137B229-6D97-B64D-9BF5-8326E14B5C8B}" name="小余" dataDxfId="50" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{198A7588-A5CE-5E4A-A0BF-6145E223EB5D}" name="生活" dataDxfId="49" totalsRowDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{56B8C983-13AB-9B4E-9E7C-6C4D07E6B38D}" name="交通" dataDxfId="48" totalsRowDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{B58B3E08-229C-A445-8F80-C55776604CC5}" name="爱好" dataDxfId="47" totalsRowDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{38F24E93-E9B0-EB4F-B366-FB004F9495B5}" name="房租" dataDxfId="46" totalsRowDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{847F5526-E01C-B84B-8D3E-EB2FA614CB52}" name="水电话费" dataDxfId="45" totalsRowDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{5488EA85-2373-B948-9F06-8611ADD0094D}" name="懒" dataDxfId="44" totalsRowDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{E48F9FAC-A487-E045-8C67-B5BA7561B072}" name="玩" dataDxfId="43" totalsRowDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{98778E7E-4066-4942-ABC3-316D523FDD18}" name="学习阅读" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{EA524901-D4EC-A143-A509-4FD275E97CC6}" name="日期" dataDxfId="39" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{C06497D2-2A0D-2649-827A-35C6E82D9D91}" name="吃饭" dataDxfId="38" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{6A7BC9E3-719C-F348-AB4E-BB0E02ADE237}" name="馋" dataDxfId="37" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{F137B229-6D97-B64D-9BF5-8326E14B5C8B}" name="小余" dataDxfId="36" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{198A7588-A5CE-5E4A-A0BF-6145E223EB5D}" name="生活" dataDxfId="35" totalsRowDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{56B8C983-13AB-9B4E-9E7C-6C4D07E6B38D}" name="交通" dataDxfId="34" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{B58B3E08-229C-A445-8F80-C55776604CC5}" name="爱好" dataDxfId="33" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{38F24E93-E9B0-EB4F-B366-FB004F9495B5}" name="房租" dataDxfId="32" totalsRowDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{847F5526-E01C-B84B-8D3E-EB2FA614CB52}" name="水电话费" dataDxfId="31" totalsRowDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{5488EA85-2373-B948-9F06-8611ADD0094D}" name="懒" dataDxfId="30" totalsRowDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{E48F9FAC-A487-E045-8C67-B5BA7561B072}" name="玩" dataDxfId="29" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{98778E7E-4066-4942-ABC3-316D523FDD18}" name="学习阅读" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="2">
       <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E0C49954-4FF8-984C-B61C-B7A706A680F7}" name="合计" dataDxfId="41" totalsRowDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{34F0172F-AFB8-5846-9873-F3D4B9DE1127}" name="合计（）" dataDxfId="40" totalsRowDxfId="0">
+    <tableColumn id="13" xr3:uid="{E0C49954-4FF8-984C-B61C-B7A706A680F7}" name="合计" dataDxfId="27" totalsRowDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{34F0172F-AFB8-5846-9873-F3D4B9DE1127}" name="合计（）" dataDxfId="26" totalsRowDxfId="0">
       <calculatedColumnFormula>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3421,7 +3421,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4512,7 +4512,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5598,7 +5598,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5614,8 +5614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D443F6-5FD4-C040-9D36-5DB36F99215C}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="151" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -5896,22 +5896,31 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3">
         <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>84.38</v>
+        <v>94.38</v>
       </c>
       <c r="N8" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>39.379999999999995</v>
+        <v>49.379999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>45634</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="D9" s="3">
+        <f>15.74+29.5</f>
+        <v>45.24</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>9</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
@@ -5923,20 +5932,25 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3">
         <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>125.64</v>
       </c>
       <c r="N9" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>80.64</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>45635</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <f>4.25+15.75</f>
+        <v>20</v>
+      </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>79</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -5950,18 +5964,21 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3">
         <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="N10" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>45636</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <f>3.9+173.8+26.34</f>
+        <v>204.04000000000002</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -5977,19 +5994,23 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3">
         <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>249.04000000000002</v>
       </c>
       <c r="N11" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>204.04000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>45637</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2.25</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6004,19 +6025,23 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3">
         <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>51.15</v>
       </c>
       <c r="N12" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>6.1499999999999986</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>45638</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="3">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6031,18 +6056,20 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3">
         <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N13" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>45639</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3">
+        <v>21.61</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -6055,26 +6082,33 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>27.1</v>
+      </c>
       <c r="M14" s="3">
         <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>93.710000000000008</v>
       </c>
       <c r="N14" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>48.710000000000008</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>45640</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <f>8.5+15</f>
+        <v>23.5</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3">
+        <v>40</v>
+      </c>
       <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6085,11 +6119,11 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3">
         <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>108.5</v>
       </c>
       <c r="N15" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -6557,15 +6591,15 @@
       </c>
       <c r="B33" s="3">
         <f>SUM(B2:B32)</f>
-        <v>263.70999999999998</v>
+        <v>553.95999999999992</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" ref="C33:I33" si="1">SUM(C2:C32)</f>
-        <v>0</v>
+        <v>26.45</v>
       </c>
       <c r="D33" s="3">
         <f>SUM(D2:D32)</f>
-        <v>398</v>
+        <v>532.24</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
@@ -6573,11 +6607,11 @@
       </c>
       <c r="F33" s="3">
         <f>SUM(F2:F32)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="1"/>
-        <v>187.78</v>
+        <v>227.78</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="1"/>
@@ -6597,15 +6631,15 @@
       </c>
       <c r="L33" s="3">
         <f>SUM(L2:L32)</f>
-        <v>0</v>
+        <v>27.1</v>
       </c>
       <c r="M33" s="5">
         <f>SUM(M2:M32)</f>
-        <v>2354.4899999999998</v>
+        <v>2881.5299999999997</v>
       </c>
       <c r="N33" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>859.48999999999978</v>
+        <v>1386.5299999999997</v>
       </c>
       <c r="P33" s="3"/>
     </row>
@@ -6622,14 +6656,14 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3">
         <f>SUM(B33:L33)</f>
-        <v>2354.4899999999998</v>
+        <v>2881.53</v>
       </c>
       <c r="M34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7524,7 +7558,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N30">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8581,7 +8615,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9687,7 +9721,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10779,7 +10813,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11833,7 +11867,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12969,7 +13003,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14120,7 +14154,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15203,7 +15237,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>

--- a/personal space(program)/accountBook2024.xlsx
+++ b/personal space(program)/accountBook2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hzhu41/myself/personGit/zhubiye/personal space(program)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF42275E-61EA-BE48-95CC-6493A5BD3B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508083A6-2810-9445-8D73-52550F2BC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="740" windowWidth="20880" windowHeight="18380" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="760" windowWidth="29400" windowHeight="16800" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024.01" sheetId="1" r:id="rId1"/>
@@ -5614,8 +5614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D443F6-5FD4-C040-9D36-5DB36F99215C}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="151" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6130,7 +6130,10 @@
       <c r="A16" s="1">
         <v>45641</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3">
+        <f>41.72+13.9+3.5</f>
+        <v>59.12</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -6146,18 +6149,21 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3">
         <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>104.12</v>
       </c>
       <c r="N16" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>59.120000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>45642</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3">
+        <f>3.9+13.87+2.37+1.6</f>
+        <v>21.740000000000002</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -6173,21 +6179,26 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3">
         <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>66.740000000000009</v>
       </c>
       <c r="N17" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>21.740000000000009</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>45643</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3">
+        <f>4.37+3.9+15+2</f>
+        <v>25.27</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>15</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
@@ -6200,20 +6211,24 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3">
         <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>85.27</v>
       </c>
       <c r="N18" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>40.269999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>45644</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3">
+        <v>13.9</v>
+      </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>15</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -6227,21 +6242,28 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3">
         <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="N19" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>28.900000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>45645</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="3">
+        <f>13.87+2.87</f>
+        <v>16.739999999999998</v>
+      </c>
+      <c r="C20" s="3">
+        <v>11.8</v>
+      </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>148.97999999999999</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
@@ -6254,19 +6276,23 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3">
         <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>222.51999999999998</v>
       </c>
       <c r="N20" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>177.51999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>45646</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>12.37</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -6281,23 +6307,27 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3">
         <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>71.27</v>
       </c>
       <c r="N21" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>26.269999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>45647</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3">
+        <v>31</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3">
+        <v>39</v>
+      </c>
       <c r="H22" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6308,18 +6338,20 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3">
         <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="N22" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>45648</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3">
+        <v>22.74</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -6335,11 +6367,11 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3">
         <f>SUM(表2_47891113[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45</v>
+        <v>67.739999999999995</v>
       </c>
       <c r="N23" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>22.739999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -6591,19 +6623,19 @@
       </c>
       <c r="B33" s="3">
         <f>SUM(B2:B32)</f>
-        <v>553.95999999999992</v>
+        <v>758.36999999999989</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" ref="C33:I33" si="1">SUM(C2:C32)</f>
-        <v>26.45</v>
+        <v>50.62</v>
       </c>
       <c r="D33" s="3">
         <f>SUM(D2:D32)</f>
-        <v>532.24</v>
+        <v>547.24</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163.98</v>
       </c>
       <c r="F33" s="3">
         <f>SUM(F2:F32)</f>
@@ -6611,7 +6643,7 @@
       </c>
       <c r="G33" s="3">
         <f t="shared" si="1"/>
-        <v>227.78</v>
+        <v>266.77999999999997</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="1"/>
@@ -6635,11 +6667,11 @@
       </c>
       <c r="M33" s="5">
         <f>SUM(M2:M32)</f>
-        <v>2881.5299999999997</v>
+        <v>3328.0899999999992</v>
       </c>
       <c r="N33" s="3">
         <f>表2_47891113[[#This Row],[合计]]-表2_47891113[[#This Row],[房租]]-表2_47891113[[#This Row],[水电话费]]</f>
-        <v>1386.5299999999997</v>
+        <v>1833.0899999999992</v>
       </c>
       <c r="P33" s="3"/>
     </row>
@@ -6656,7 +6688,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3">
         <f>SUM(B33:L33)</f>
-        <v>2881.53</v>
+        <v>3328.0899999999997</v>
       </c>
       <c r="M34" s="3"/>
     </row>
